--- a/data/IEEE_9/ieee9/ieee9_2030.xlsx
+++ b/data/IEEE_9/ieee9/ieee9_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C5926B-CE0F-4DFC-8724-9783EFB6B4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78202AD4-2EE2-42B6-804C-A37F4D7192CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25740" yWindow="3600" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24705" yWindow="4635" windowWidth="21600" windowHeight="12660" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -217,6 +217,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Base Consumption"/>
@@ -244,7 +247,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>-5.0000000000000001E-3</v>
+            <v>2.5000000000000001E-3</v>
           </cell>
         </row>
         <row r="3">
@@ -1149,592 +1152,592 @@
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>56.309511426502212</v>
+            <v>54.531316328823202</v>
           </cell>
           <cell r="C2">
-            <v>55.80303789179937</v>
+            <v>57.367609047644216</v>
           </cell>
           <cell r="D2">
-            <v>48.117067049533681</v>
+            <v>50.081028969922819</v>
           </cell>
           <cell r="E2">
-            <v>52.88241128342132</v>
+            <v>45.605015235244068</v>
           </cell>
           <cell r="F2">
-            <v>51.289658458143712</v>
+            <v>48.242748054689628</v>
           </cell>
           <cell r="G2">
-            <v>56.474223462013839</v>
+            <v>50.991289145313466</v>
           </cell>
           <cell r="H2">
-            <v>60.868299549960085</v>
+            <v>71.454090776040104</v>
           </cell>
           <cell r="I2">
-            <v>68.786478518766842</v>
+            <v>68.046838964801609</v>
           </cell>
           <cell r="J2">
-            <v>78.284120064959353</v>
+            <v>79.849802466258538</v>
           </cell>
           <cell r="K2">
-            <v>79.32833557499923</v>
+            <v>83.375699634948177</v>
           </cell>
           <cell r="L2">
-            <v>83.321670971970505</v>
+            <v>78.420396208913417</v>
           </cell>
           <cell r="M2">
-            <v>82.452596358079347</v>
+            <v>76.794084843309179</v>
           </cell>
           <cell r="N2">
-            <v>73.947023266689911</v>
+            <v>88.414919123216194</v>
           </cell>
           <cell r="O2">
-            <v>73.996480918472415</v>
+            <v>85.804430001207393</v>
           </cell>
           <cell r="P2">
-            <v>76.976013587677983</v>
+            <v>70.116764852142325</v>
           </cell>
           <cell r="Q2">
-            <v>67.350506949838632</v>
+            <v>80.072269373697054</v>
           </cell>
           <cell r="R2">
-            <v>72.855093240928014</v>
+            <v>84.480905992139938</v>
           </cell>
           <cell r="S2">
-            <v>93.011939159311737</v>
+            <v>95.644352531745085</v>
           </cell>
           <cell r="T2">
-            <v>87.679263937608383</v>
+            <v>95.731441238000997</v>
           </cell>
           <cell r="U2">
-            <v>84.6</v>
+            <v>85.5</v>
           </cell>
           <cell r="V2">
-            <v>89.070149072636383</v>
+            <v>85.577202050180063</v>
           </cell>
           <cell r="W2">
-            <v>86.665244289698251</v>
+            <v>76.665408410117678</v>
           </cell>
           <cell r="X2">
-            <v>78.266154996342649</v>
+            <v>81.305617326297707</v>
           </cell>
           <cell r="Y2">
-            <v>71.194943358549978</v>
+            <v>72.538244176635828</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>65.555402620965978</v>
+            <v>59.827260644376715</v>
           </cell>
           <cell r="C3">
-            <v>65.30229024346697</v>
+            <v>58.772061219120268</v>
           </cell>
           <cell r="D3">
-            <v>58.500876280522206</v>
+            <v>54.56331730010244</v>
           </cell>
           <cell r="E3">
-            <v>50.267552905334476</v>
+            <v>50.826081270949302</v>
           </cell>
           <cell r="F3">
-            <v>58.787610523613765</v>
+            <v>57.657079552005811</v>
           </cell>
           <cell r="G3">
-            <v>67.727021176180443</v>
+            <v>59.649486540489193</v>
           </cell>
           <cell r="H3">
-            <v>78.590579779532206</v>
+            <v>72.659215267869385</v>
           </cell>
           <cell r="I3">
-            <v>85.674654363204752</v>
+            <v>86.56709867948814</v>
           </cell>
           <cell r="J3">
-            <v>99.106194329630398</v>
+            <v>95.219676904939007</v>
           </cell>
           <cell r="K3">
-            <v>96.407050061777014</v>
+            <v>108.21199496730074</v>
           </cell>
           <cell r="L3">
-            <v>99.548531315603682</v>
+            <v>93.805346816626539</v>
           </cell>
           <cell r="M3">
-            <v>94.288832112120986</v>
+            <v>88.516046472603378</v>
           </cell>
           <cell r="N3">
             <v>87.481966178020883</v>
           </cell>
           <cell r="O3">
-            <v>104.02063272458084</v>
+            <v>103.07499060890282</v>
           </cell>
           <cell r="P3">
-            <v>81.149285857356148</v>
+            <v>94.52554176790936</v>
           </cell>
           <cell r="Q3">
-            <v>92.683551489830805</v>
+            <v>94.415954321416436</v>
           </cell>
           <cell r="R3">
-            <v>85.699946637247507</v>
+            <v>91.112574845915773</v>
           </cell>
           <cell r="S3">
-            <v>103</v>
+            <v>108</v>
           </cell>
           <cell r="T3">
             <v>104.61937666064914</v>
           </cell>
           <cell r="U3">
-            <v>94.647407611170919</v>
+            <v>104.40487231335351</v>
           </cell>
           <cell r="V3">
             <v>96.855581754478948</v>
           </cell>
           <cell r="W3">
-            <v>84.488066904344308</v>
+            <v>98.8690144625306</v>
           </cell>
           <cell r="X3">
-            <v>86.491992341486721</v>
+            <v>82.56053814414642</v>
           </cell>
           <cell r="Y3">
-            <v>77.043461245399598</v>
+            <v>72.049903572086663</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>72.212712620575786</v>
+            <v>76.460519245315552</v>
           </cell>
           <cell r="C4">
-            <v>69.077411062395257</v>
+            <v>71.051051378463697</v>
           </cell>
           <cell r="D4">
-            <v>63.702485915992995</v>
+            <v>53.581530209713733</v>
           </cell>
           <cell r="E4">
-            <v>66.594679845444617</v>
+            <v>69.796347145706378</v>
           </cell>
           <cell r="F4">
-            <v>62.533822730050439</v>
+            <v>68.276724817504061</v>
           </cell>
           <cell r="G4">
-            <v>64.526107230186639</v>
+            <v>59.869584028008227</v>
           </cell>
           <cell r="H4">
             <v>102.95900891476366</v>
           </cell>
           <cell r="I4">
-            <v>120.18428409417976</v>
+            <v>101.43994620793154</v>
           </cell>
           <cell r="J4">
-            <v>112.42258885332305</v>
+            <v>116.04912397762378</v>
           </cell>
           <cell r="K4">
-            <v>122.1577888301361</v>
+            <v>111.27244131061903</v>
           </cell>
           <cell r="L4">
-            <v>102.82381485439703</v>
+            <v>122.24609099356093</v>
           </cell>
           <cell r="M4">
-            <v>122.5</v>
+            <v>117.5</v>
           </cell>
           <cell r="N4">
-            <v>110.81249786908471</v>
+            <v>119.0644923912506</v>
           </cell>
           <cell r="O4">
-            <v>104.83869762321503</v>
+            <v>112.56365429018877</v>
           </cell>
           <cell r="P4">
-            <v>116.63731290979733</v>
+            <v>97.376105273317023</v>
           </cell>
           <cell r="Q4">
-            <v>106.98720721502637</v>
+            <v>89.989239713573582</v>
           </cell>
           <cell r="R4">
-            <v>99.051334073102836</v>
+            <v>104.05392670305753</v>
           </cell>
           <cell r="S4">
-            <v>100.6259123453416</v>
+            <v>97.448251955488715</v>
           </cell>
           <cell r="T4">
-            <v>102.74435260524353</v>
+            <v>116.51421429460608</v>
           </cell>
           <cell r="U4">
-            <v>104.29162834972759</v>
+            <v>117.19368546515781</v>
           </cell>
           <cell r="V4">
-            <v>109.84466500038602</v>
+            <v>98.337128667012223</v>
           </cell>
           <cell r="W4">
-            <v>88.860654734496066</v>
+            <v>90.751306962889601</v>
           </cell>
           <cell r="X4">
-            <v>84.750127592875572</v>
+            <v>80.752480064909747</v>
           </cell>
           <cell r="Y4">
-            <v>82.784612180880288</v>
+            <v>72.726668644885478</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>58.68043822340757</v>
+            <v>54.531316328823202</v>
           </cell>
           <cell r="C2">
             <v>52.152371861494736</v>
           </cell>
           <cell r="D2">
-            <v>52.535981370409232</v>
+            <v>44.189143208755425</v>
           </cell>
           <cell r="E2">
-            <v>50.941772337240714</v>
+            <v>46.090174971789217</v>
           </cell>
           <cell r="F2">
-            <v>52.305295259295072</v>
+            <v>50.781840057568033</v>
           </cell>
           <cell r="G2">
-            <v>58.119103757023957</v>
+            <v>57.570810325353918</v>
           </cell>
           <cell r="H2">
-            <v>70.792478824410097</v>
+            <v>63.514747356480079</v>
           </cell>
           <cell r="I2">
-            <v>66.567559856871142</v>
+            <v>81.360350936175848</v>
           </cell>
           <cell r="J2">
-            <v>78.284120064959353</v>
+            <v>85.329690870805706</v>
           </cell>
           <cell r="K2">
-            <v>82.566226822958399</v>
+            <v>83.375699634948177</v>
           </cell>
           <cell r="L2">
-            <v>80.871033590441968</v>
+            <v>79.237275336089596</v>
           </cell>
           <cell r="M2">
-            <v>88.111107872849502</v>
+            <v>76.794084843309179</v>
           </cell>
           <cell r="N2">
-            <v>80.377199202923805</v>
+            <v>77.965883226836084</v>
           </cell>
           <cell r="O2">
-            <v>71.634891101925433</v>
+            <v>82.655643579144723</v>
           </cell>
           <cell r="P2">
-            <v>74.689597342499425</v>
+            <v>70.878903600535168</v>
           </cell>
           <cell r="Q2">
-            <v>72.588879712603855</v>
+            <v>77.078913509259777</v>
           </cell>
           <cell r="R2">
-            <v>76.73036415799865</v>
+            <v>69.754876507271504</v>
           </cell>
           <cell r="S2">
-            <v>84.23722791786723</v>
+            <v>92.134468035167288</v>
           </cell>
           <cell r="T2">
-            <v>96.626127604711286</v>
+            <v>81.41645937063636</v>
           </cell>
           <cell r="U2">
-            <v>91.8</v>
+            <v>86.399999999999991</v>
           </cell>
           <cell r="V2">
-            <v>82.957491783337801</v>
+            <v>81.211018272109655</v>
           </cell>
           <cell r="W2">
-            <v>86.665244289698251</v>
+            <v>76.665408410117678</v>
           </cell>
           <cell r="X2">
-            <v>72.947095918921306</v>
+            <v>69.907633588966263</v>
           </cell>
           <cell r="Y2">
-            <v>68.508341722378276</v>
+            <v>64.478439268120724</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>61.736641303239807</v>
+            <v>57.281419765892608</v>
           </cell>
           <cell r="C3">
-            <v>63.521318691372414</v>
+            <v>64.708633059435456</v>
           </cell>
           <cell r="D3">
-            <v>54.56331730010244</v>
+            <v>51.188266745456929</v>
           </cell>
           <cell r="E3">
-            <v>53.618723099023434</v>
+            <v>55.852836561482746</v>
           </cell>
           <cell r="F3">
-            <v>54.830752122985913</v>
+            <v>61.613937952633663</v>
           </cell>
           <cell r="G3">
-            <v>58.406788904229003</v>
+            <v>64.620277085529963</v>
           </cell>
           <cell r="H3">
-            <v>73.400635831827245</v>
+            <v>71.91779470391154</v>
           </cell>
           <cell r="I3">
             <v>86.56709867948814</v>
           </cell>
           <cell r="J3">
-            <v>104.93597046666748</v>
+            <v>101.04945304197609</v>
           </cell>
           <cell r="K3">
-            <v>88.537086791427882</v>
+            <v>91.48832301780881</v>
           </cell>
           <cell r="L3">
-            <v>105.29171581458083</v>
+            <v>89.01935973414561</v>
           </cell>
           <cell r="M3">
-            <v>90.440308352442571</v>
+            <v>99.099486811719004</v>
           </cell>
           <cell r="N3">
-            <v>96.134028767055909</v>
+            <v>92.288667616373672</v>
           </cell>
           <cell r="O3">
-            <v>91.727285220766731</v>
+            <v>85.107790411020687</v>
           </cell>
           <cell r="P3">
-            <v>91.850290585798717</v>
+            <v>81.149285857356148</v>
           </cell>
           <cell r="Q3">
-            <v>80.556731668731445</v>
+            <v>84.021537331902692</v>
           </cell>
           <cell r="R3">
-            <v>92.9167842488052</v>
+            <v>86.60205133869222</v>
           </cell>
           <cell r="S3">
-            <v>99</v>
+            <v>103</v>
           </cell>
           <cell r="T3">
-            <v>106.61212669228055</v>
+            <v>98.641126565754902</v>
           </cell>
           <cell r="U3">
-            <v>94.647407611170919</v>
+            <v>90.744421730297901</v>
           </cell>
           <cell r="V3">
-            <v>103.56834484637353</v>
+            <v>87.265920194629544</v>
           </cell>
           <cell r="W3">
-            <v>80.892830014797752</v>
+            <v>87.184494571504246</v>
           </cell>
           <cell r="X3">
-            <v>71.552466391593555</v>
+            <v>83.346828983614472</v>
           </cell>
           <cell r="Y3">
-            <v>73.476634335890353</v>
+            <v>70.623172808282959</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>66.548970454256121</v>
+            <v>77.876454786895465</v>
           </cell>
           <cell r="C4">
-            <v>68.419530957039115</v>
+            <v>72.366811589175995</v>
           </cell>
           <cell r="D4">
-            <v>64.89318658731996</v>
+            <v>62.511785244666022</v>
           </cell>
           <cell r="E4">
-            <v>63.393012545182849</v>
+            <v>67.875346765549324</v>
           </cell>
           <cell r="F4">
-            <v>62.533822730050439</v>
+            <v>58.705221338414702</v>
           </cell>
           <cell r="G4">
-            <v>63.860889629875437</v>
+            <v>63.195672029564236</v>
           </cell>
           <cell r="H4">
-            <v>107.908961266435</v>
+            <v>98.999047033426592</v>
           </cell>
           <cell r="I4">
-            <v>120.18428409417976</v>
+            <v>101.43994620793154</v>
           </cell>
           <cell r="J4">
-            <v>120.88450414335811</v>
+            <v>128.13757439195962</v>
           </cell>
           <cell r="K4">
-            <v>123.36727188786023</v>
+            <v>125.78623800330847</v>
           </cell>
           <cell r="L4">
             <v>115.39117000326779</v>
           </cell>
           <cell r="M4">
-            <v>118.75</v>
+            <v>127.5</v>
           </cell>
           <cell r="N4">
-            <v>126.13763055310707</v>
+            <v>123.77991783248825</v>
           </cell>
           <cell r="O4">
-            <v>116.9779152427452</v>
+            <v>99.320871432519496</v>
           </cell>
           <cell r="P4">
-            <v>116.63731290979733</v>
+            <v>104.86657490972603</v>
           </cell>
           <cell r="Q4">
-            <v>106.98720721502637</v>
+            <v>91.989000596097441</v>
           </cell>
           <cell r="R4">
-            <v>96.049778495130028</v>
+            <v>100.05185259909378</v>
           </cell>
           <cell r="S4">
-            <v>108.04045325499835</v>
+            <v>104.86279286514547</v>
           </cell>
           <cell r="T4">
-            <v>97.448251955488715</v>
+            <v>116.51421429460608</v>
           </cell>
           <cell r="U4">
-            <v>99.990942644584194</v>
+            <v>112.8929997600144</v>
           </cell>
           <cell r="V4">
-            <v>102.52168733369361</v>
+            <v>112.98308400039704</v>
           </cell>
           <cell r="W4">
-            <v>87.915328620299306</v>
+            <v>99.259241990660513</v>
           </cell>
           <cell r="X4">
-            <v>83.151068581689245</v>
+            <v>85.549657098468742</v>
           </cell>
           <cell r="Y4">
-            <v>78.916172359343818</v>
+            <v>70.405604751963608</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>62.829560117991953</v>
+            <v>57.494974824954895</v>
           </cell>
           <cell r="C2">
-            <v>54.759990454569476</v>
+            <v>46.937134675345263</v>
           </cell>
           <cell r="D2">
-            <v>52.044990890311951</v>
+            <v>44.680133688852706</v>
           </cell>
           <cell r="E2">
-            <v>43.664376289063469</v>
+            <v>49.971452864150415</v>
           </cell>
           <cell r="F2">
-            <v>51.797476858719392</v>
+            <v>48.750566455265307</v>
           </cell>
           <cell r="G2">
-            <v>53.732756303663649</v>
+            <v>50.442995713643434</v>
           </cell>
           <cell r="H2">
-            <v>65.49958321137008</v>
+            <v>63.514747356480079</v>
           </cell>
           <cell r="I2">
-            <v>72.484676288593022</v>
+            <v>67.307199410836375</v>
           </cell>
           <cell r="J2">
-            <v>72.804231660412199</v>
+            <v>74.369914061711384</v>
           </cell>
           <cell r="K2">
-            <v>80.947281198978814</v>
+            <v>88.232536506886916</v>
           </cell>
           <cell r="L2">
-            <v>77.603517081737238</v>
+            <v>78.420396208913417</v>
           </cell>
           <cell r="M2">
-            <v>80.835878782430726</v>
+            <v>88.919466660673805</v>
           </cell>
           <cell r="N2">
-            <v>81.180971194953045</v>
+            <v>83.592287171040766</v>
           </cell>
           <cell r="O2">
-            <v>83.442840184660398</v>
+            <v>78.719660551566406</v>
           </cell>
           <cell r="P2">
-            <v>76.976013587677983</v>
+            <v>80.78670732964224</v>
           </cell>
           <cell r="Q2">
-            <v>72.588879712603855</v>
+            <v>68.847184882057277</v>
           </cell>
           <cell r="R2">
-            <v>74.405201607756268</v>
+            <v>78.280472524826905</v>
           </cell>
           <cell r="S2">
-            <v>78.97240117300052</v>
+            <v>89.502054662733926</v>
           </cell>
           <cell r="T2">
-            <v>93.942068504580419</v>
+            <v>91.258009404449538</v>
           </cell>
           <cell r="U2">
-            <v>85.5</v>
+            <v>98.100000000000009</v>
           </cell>
           <cell r="V2">
-            <v>95.182806361934965</v>
+            <v>85.577202050180063</v>
           </cell>
           <cell r="W2">
-            <v>84.165285319803104</v>
+            <v>80.832006693276242</v>
           </cell>
           <cell r="X2">
-            <v>77.506289413853892</v>
+            <v>80.54575174380895</v>
           </cell>
           <cell r="Y2">
-            <v>73.881544994721679</v>
+            <v>64.478439268120724</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>67.464783279829064</v>
+            <v>64.282482181723921</v>
           </cell>
           <cell r="C3">
-            <v>56.991089667025712</v>
+            <v>57.584746851057233</v>
           </cell>
           <cell r="D3">
-            <v>54.56331730010244</v>
+            <v>58.500876280522206</v>
           </cell>
           <cell r="E3">
-            <v>56.411364927097573</v>
+            <v>51.384609636564129</v>
           </cell>
           <cell r="F3">
-            <v>55.961283094593874</v>
+            <v>57.091814066201827</v>
           </cell>
           <cell r="G3">
-            <v>65.241625903660065</v>
+            <v>62.134881813009578</v>
           </cell>
           <cell r="H3">
-            <v>68.210691884122284</v>
+            <v>80.814841471405757</v>
           </cell>
           <cell r="I3">
-            <v>97.276430474888741</v>
+            <v>94.599097526038591</v>
           </cell>
           <cell r="J3">
-            <v>98.134564973457557</v>
+            <v>104.93597046666748</v>
           </cell>
           <cell r="K3">
-            <v>89.52083220022152</v>
+            <v>88.537086791427882</v>
           </cell>
           <cell r="L3">
-            <v>90.933754567137981</v>
+            <v>104.33451839808464</v>
           </cell>
           <cell r="M3">
-            <v>101.98587963147781</v>
+            <v>105.83440339115621</v>
           </cell>
           <cell r="N3">
-            <v>95.172688479385343</v>
+            <v>99.018049630067594</v>
           </cell>
           <cell r="O3">
-            <v>103.07499060890282</v>
+            <v>86.999074642376698</v>
           </cell>
           <cell r="P3">
-            <v>89.175039403688075</v>
+            <v>90.958540191761841</v>
           </cell>
           <cell r="Q3">
-            <v>86.620141579281125</v>
+            <v>90.084947242452373</v>
           </cell>
           <cell r="R3">
-            <v>96.52520305458404</v>
+            <v>91.112574845915773</v>
           </cell>
           <cell r="S3">
-            <v>107</v>
+            <v>95</v>
           </cell>
           <cell r="T3">
-            <v>108.60487672391197</v>
+            <v>96.648376534123486</v>
           </cell>
           <cell r="U3">
-            <v>102.45337937291698</v>
+            <v>89.768675260079647</v>
           </cell>
           <cell r="V3">
-            <v>87.265920194629544</v>
+            <v>88.224886350614497</v>
           </cell>
           <cell r="W3">
-            <v>86.2856853491176</v>
+            <v>96.172586795370663</v>
           </cell>
           <cell r="X3">
             <v>83.346828983614472</v>
@@ -1745,149 +1748,149 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>67.964905995836034</v>
+            <v>76.460519245315552</v>
           </cell>
           <cell r="C4">
-            <v>69.735291167751413</v>
+            <v>63.15649011418995</v>
           </cell>
           <cell r="D4">
-            <v>62.511785244666022</v>
+            <v>61.32108457333905</v>
           </cell>
           <cell r="E4">
-            <v>64.033346005235202</v>
+            <v>58.270344864764034</v>
           </cell>
           <cell r="F4">
-            <v>62.533822730050439</v>
+            <v>59.981421802293276</v>
           </cell>
           <cell r="G4">
-            <v>60.534801628319428</v>
+            <v>62.530454429253034</v>
           </cell>
           <cell r="H4">
-            <v>95.039085152089527</v>
+            <v>93.059104211420987</v>
           </cell>
           <cell r="I4">
-            <v>100.33733809697576</v>
+            <v>105.85037865175464</v>
           </cell>
           <cell r="J4">
             <v>111.21374381188947</v>
           </cell>
           <cell r="K4">
-            <v>129.41468717648084</v>
+            <v>113.69140742606726</v>
           </cell>
           <cell r="L4">
-            <v>110.82122267640568</v>
+            <v>125.67355148870749</v>
           </cell>
           <cell r="M4">
-            <v>118.75</v>
+            <v>122.5</v>
           </cell>
           <cell r="N4">
-            <v>110.81249786908471</v>
+            <v>122.60106147217884</v>
           </cell>
           <cell r="O4">
-            <v>104.83869762321503</v>
+            <v>110.35652381391056</v>
           </cell>
           <cell r="P4">
-            <v>96.306038182401451</v>
+            <v>107.00670909155717</v>
           </cell>
           <cell r="Q4">
-            <v>96.988402802407066</v>
+            <v>107.9870876562883</v>
           </cell>
           <cell r="R4">
-            <v>107.05548228103035</v>
+            <v>99.051334073102836</v>
           </cell>
           <cell r="S4">
-            <v>109.09967338494931</v>
+            <v>98.507472085439673</v>
           </cell>
           <cell r="T4">
-            <v>115.4549941646551</v>
+            <v>112.27733377480222</v>
           </cell>
           <cell r="U4">
-            <v>98.915771218298346</v>
+            <v>117.19368546515781</v>
           </cell>
           <cell r="V4">
-            <v>94.152570000330869</v>
+            <v>97.290989000341895</v>
           </cell>
           <cell r="W4">
-            <v>89.805980848692826</v>
+            <v>90.751306962889601</v>
           </cell>
           <cell r="X4">
-            <v>74.356244020164425</v>
+            <v>75.155773525757581</v>
           </cell>
           <cell r="Y4">
-            <v>83.558300145187573</v>
+            <v>77.368796430729233</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>10.813262185630244</v>
+            <v>12.653817451269436</v>
           </cell>
           <cell r="C2">
             <v>9.2283995159327823</v>
           </cell>
           <cell r="D2">
-            <v>7.444214048958572</v>
+            <v>7.2922913132655403</v>
           </cell>
           <cell r="E2">
             <v>7.8793241403845427</v>
           </cell>
           <cell r="F2">
-            <v>9.1242992184498171</v>
+            <v>8.2794566982229814</v>
           </cell>
           <cell r="G2">
-            <v>10.384985187332877</v>
+            <v>10.699681708161146</v>
           </cell>
           <cell r="H2">
-            <v>15.786886814010129</v>
+            <v>16.275141045371267</v>
           </cell>
           <cell r="I2">
-            <v>19.670144754169069</v>
+            <v>21.855716393521188</v>
           </cell>
           <cell r="J2">
-            <v>24.103403479477805</v>
+            <v>24.792072150320028</v>
           </cell>
           <cell r="K2">
-            <v>27.806200777770208</v>
+            <v>24.520013413124634</v>
           </cell>
           <cell r="L2">
-            <v>27.785946846808869</v>
+            <v>24.98186046777311</v>
           </cell>
           <cell r="M2">
-            <v>26.286338021730796</v>
+            <v>23.532531181358994</v>
           </cell>
           <cell r="N2">
-            <v>24.638404161081308</v>
+            <v>25.644053310513197</v>
           </cell>
           <cell r="O2">
-            <v>23.391596336170867</v>
+            <v>23.142749566637139</v>
           </cell>
           <cell r="P2">
-            <v>23.795782085238013</v>
+            <v>20.428454431666598</v>
           </cell>
           <cell r="Q2">
             <v>19.622150335440256</v>
           </cell>
           <cell r="R2">
-            <v>22.671328709175562</v>
+            <v>23.11154868411101</v>
           </cell>
           <cell r="S2">
-            <v>32.700000000000003</v>
+            <v>32.1</v>
           </cell>
           <cell r="T2">
-            <v>31.75383604533792</v>
+            <v>31.454271554344164</v>
           </cell>
           <cell r="U2">
-            <v>31.656127895941694</v>
+            <v>28.461472787176934</v>
           </cell>
           <cell r="V2">
-            <v>28.494633745335054</v>
+            <v>29.569902943272229</v>
           </cell>
           <cell r="W2">
-            <v>22.950545226683232</v>
+            <v>25.819363380018636</v>
           </cell>
           <cell r="X2">
-            <v>20.278914547482202</v>
+            <v>19.88893542156908</v>
           </cell>
           <cell r="Y2">
             <v>15.109050429231946</v>
@@ -1895,55 +1898,55 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-27.059434563384116</v>
+            <v>-30.841936169018453</v>
           </cell>
           <cell r="C3">
-            <v>-31.939772440491488</v>
+            <v>-29.726124845605938</v>
           </cell>
           <cell r="D3">
             <v>-30.656624782507482</v>
           </cell>
           <cell r="E3">
-            <v>-33.138648183003248</v>
+            <v>-35.167545010534063</v>
           </cell>
           <cell r="F3">
-            <v>-32.200000000000003</v>
+            <v>-36.4</v>
           </cell>
           <cell r="G3">
-            <v>-33.649115465354889</v>
+            <v>-33.337549581416418</v>
           </cell>
           <cell r="H3">
-            <v>-24.825992348482206</v>
+            <v>-24.593973728402933</v>
           </cell>
           <cell r="I3">
-            <v>-10.314375907489971</v>
+            <v>-9.3593411012408989</v>
           </cell>
           <cell r="J3">
-            <v>-2.5593955467785316</v>
+            <v>-2.5312703209897567</v>
           </cell>
           <cell r="K3">
-            <v>-0.41797373795190984</v>
+            <v>-0.47517014419796066</v>
           </cell>
           <cell r="L3">
-            <v>-3.9893191974059161</v>
+            <v>-4.3448030862836715</v>
           </cell>
           <cell r="M3">
             <v>-3.1361382232545592</v>
           </cell>
           <cell r="N3">
-            <v>-3.8987193289407798</v>
+            <v>-4.4212281049843902</v>
           </cell>
           <cell r="O3">
-            <v>-3.9329058759209174</v>
+            <v>-3.7301787689146848</v>
           </cell>
           <cell r="P3">
-            <v>-10.864996868383985</v>
+            <v>-10.659996927471079</v>
           </cell>
           <cell r="Q3">
-            <v>-14.318761230902309</v>
+            <v>-14.613993421230191</v>
           </cell>
           <cell r="R3">
-            <v>-12.996478098968542</v>
+            <v>-13.652865881744731</v>
           </cell>
           <cell r="S3">
             <v>-4.1227000778745406</v>
@@ -1952,915 +1955,915 @@
             <v>-6.3229769374534452</v>
           </cell>
           <cell r="U3">
-            <v>-7.7844020483341021</v>
+            <v>-7.3746966773691494</v>
           </cell>
           <cell r="V3">
-            <v>-12.742775751833543</v>
+            <v>-11.841771405744304</v>
           </cell>
           <cell r="W3">
-            <v>-15.87262924120456</v>
+            <v>-16.206789856808868</v>
           </cell>
           <cell r="X3">
-            <v>-23.088578632758438</v>
+            <v>-22.191934802360052</v>
           </cell>
           <cell r="Y3">
-            <v>-23.212724838934463</v>
+            <v>-25.735847104036036</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>40.364416827048736</v>
+            <v>43.59357017321264</v>
           </cell>
           <cell r="C4">
-            <v>51.5</v>
+            <v>52</v>
           </cell>
           <cell r="D4">
-            <v>48.5</v>
+            <v>55.000000000000007</v>
           </cell>
           <cell r="E4">
-            <v>54.500000000000007</v>
+            <v>52.5</v>
           </cell>
           <cell r="F4">
-            <v>54</v>
+            <v>48</v>
           </cell>
           <cell r="G4">
-            <v>42.133168430436328</v>
+            <v>36.461395757108356</v>
           </cell>
           <cell r="H4">
-            <v>16.721741331392934</v>
+            <v>20.029338517822307</v>
           </cell>
           <cell r="I4">
-            <v>2.2237206877056699</v>
+            <v>2.5549131305554504</v>
           </cell>
           <cell r="J4">
-            <v>-14.395532639376221</v>
+            <v>-13.565021140950668</v>
           </cell>
           <cell r="K4">
-            <v>-12.457672476383268</v>
+            <v>-13.980276890163443</v>
           </cell>
           <cell r="L4">
-            <v>-1.2516779557268016</v>
+            <v>-1.1920742435493348</v>
           </cell>
           <cell r="M4">
-            <v>-13.28005170360659</v>
+            <v>-14.723535584433394</v>
           </cell>
           <cell r="N4">
-            <v>-13.857445255937311</v>
+            <v>-15.156580748681435</v>
           </cell>
           <cell r="O4">
-            <v>-10.391413319233276</v>
+            <v>-12.290918979738283</v>
           </cell>
           <cell r="P4">
-            <v>-1.3063503459713692</v>
+            <v>-1.4175290988199967</v>
           </cell>
           <cell r="Q4">
-            <v>8.729824570743844</v>
+            <v>7.554655878528326</v>
           </cell>
           <cell r="R4">
-            <v>10.839454655483015</v>
+            <v>11.888434138271693</v>
           </cell>
           <cell r="S4">
-            <v>11.888434138271693</v>
+            <v>12.004987414137103</v>
           </cell>
           <cell r="T4">
-            <v>12.820860345194964</v>
+            <v>11.189114483079241</v>
           </cell>
           <cell r="U4">
-            <v>11.305667758944649</v>
+            <v>11.771880862406285</v>
           </cell>
           <cell r="V4">
-            <v>12.820860345194964</v>
+            <v>12.23809396586792</v>
           </cell>
           <cell r="W4">
-            <v>24.305111538796627</v>
+            <v>21.874600384916963</v>
           </cell>
           <cell r="X4">
-            <v>39.381709115562217</v>
+            <v>34.923402423234421</v>
           </cell>
           <cell r="Y4">
-            <v>39.010183557868238</v>
+            <v>34.551876865540436</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>12.538782747166985</v>
+            <v>10.353123369220446</v>
           </cell>
           <cell r="C2">
-            <v>9.6720725695833973</v>
+            <v>8.8734610730122903</v>
           </cell>
           <cell r="D2">
-            <v>7.8240208881911526</v>
+            <v>7.0644072097259922</v>
           </cell>
           <cell r="E2">
-            <v>7.2103249209179303</v>
+            <v>7.3589914141327331</v>
           </cell>
           <cell r="F2">
-            <v>7.772551186086881</v>
+            <v>8.8708464623817651</v>
           </cell>
           <cell r="G2">
-            <v>10.594782867885055</v>
+            <v>10.699681708161146</v>
           </cell>
           <cell r="H2">
-            <v>17.414400918547258</v>
+            <v>14.64762694083414</v>
           </cell>
           <cell r="I2">
-            <v>19.670144754169069</v>
+            <v>21.060963070120419</v>
           </cell>
           <cell r="J2">
-            <v>22.037397466951134</v>
+            <v>25.251184597548178</v>
           </cell>
           <cell r="K2">
-            <v>25.78393163029601</v>
+            <v>23.003311552518987</v>
           </cell>
           <cell r="L2">
-            <v>27.531029903260166</v>
+            <v>24.726943524224406</v>
           </cell>
           <cell r="M2">
-            <v>26.53668409812823</v>
+            <v>27.538068403717975</v>
           </cell>
           <cell r="N2">
-            <v>25.141228735797252</v>
+            <v>23.129930436933474</v>
           </cell>
           <cell r="O2">
-            <v>24.138136644772068</v>
+            <v>23.640443105704602</v>
           </cell>
           <cell r="P2">
-            <v>22.897828044285635</v>
+            <v>23.346805064761824</v>
           </cell>
           <cell r="Q2">
-            <v>19.195581849887208</v>
+            <v>21.541708520428976</v>
           </cell>
           <cell r="R2">
-            <v>22.231108734240113</v>
+            <v>20.250118847030599</v>
           </cell>
           <cell r="S2">
-            <v>29.4</v>
+            <v>30.6</v>
           </cell>
           <cell r="T2">
-            <v>32.652529518319184</v>
+            <v>27.85949766241912</v>
           </cell>
           <cell r="U2">
-            <v>30.204011937412258</v>
+            <v>27.009356828647501</v>
           </cell>
           <cell r="V2">
-            <v>27.15054724791359</v>
+            <v>24.193556953586366</v>
           </cell>
           <cell r="W2">
-            <v>23.9068179444617</v>
+            <v>21.994272508904764</v>
           </cell>
           <cell r="X2">
-            <v>19.88893542156908</v>
+            <v>21.253862362265</v>
           </cell>
           <cell r="Y2">
-            <v>13.912293959589812</v>
+            <v>14.809861311821411</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-26.768472901412242</v>
+            <v>-28.223281211271601</v>
           </cell>
           <cell r="C3">
-            <v>-29.093654104210071</v>
+            <v>-34.469655406074978</v>
           </cell>
           <cell r="D3">
-            <v>-33.381658096508147</v>
+            <v>-33.722287260758229</v>
           </cell>
           <cell r="E3">
-            <v>-34.491246068023791</v>
+            <v>-34.829395539278927</v>
           </cell>
           <cell r="F3">
-            <v>-36.75</v>
+            <v>-37.450000000000003</v>
           </cell>
           <cell r="G3">
-            <v>-33.96068134929336</v>
+            <v>-28.352495438400876</v>
           </cell>
           <cell r="H3">
-            <v>-21.34571304729311</v>
+            <v>-23.897917868165113</v>
           </cell>
           <cell r="I3">
-            <v>-8.5953132562416421</v>
+            <v>-9.7413550237405264</v>
           </cell>
           <cell r="J3">
-            <v>-2.8968982562438326</v>
+            <v>-2.8125225788775072</v>
           </cell>
           <cell r="K3">
-            <v>-0.41357401439452129</v>
+            <v>-0.4091742908371328</v>
           </cell>
           <cell r="L3">
-            <v>-4.2658066665330594</v>
+            <v>-3.7523299381540793</v>
           </cell>
           <cell r="M3">
-            <v>-2.7876784206707192</v>
+            <v>-2.6715251531427726</v>
           </cell>
           <cell r="N3">
-            <v>-3.7781403806230238</v>
+            <v>-4.0192982772585362</v>
           </cell>
           <cell r="O3">
-            <v>-3.8518150331184242</v>
+            <v>-3.8923604545196708</v>
           </cell>
           <cell r="P3">
-            <v>-10.35249701610172</v>
+            <v>-11.274996750209795</v>
           </cell>
           <cell r="Q3">
-            <v>-15.352073897049898</v>
+            <v>-14.466377326066249</v>
           </cell>
           <cell r="R3">
-            <v>-13.521588325189494</v>
+            <v>-13.915420994855207</v>
           </cell>
           <cell r="S3">
-            <v>-4.884503353133967</v>
+            <v>-4.5708196515565565</v>
           </cell>
           <cell r="T3">
-            <v>-6.2577916082013481</v>
+            <v>-7.1052008884786142</v>
           </cell>
           <cell r="U3">
-            <v>-8.9315770870359703</v>
+            <v>-7.3746966773691494</v>
           </cell>
           <cell r="V3">
-            <v>-11.970486312328481</v>
+            <v>-13.515065191338607</v>
           </cell>
           <cell r="W3">
-            <v>-16.206789856808868</v>
+            <v>-17.543432319226095</v>
           </cell>
           <cell r="X3">
             <v>-21.519451929561264</v>
           </cell>
           <cell r="Y3">
-            <v>-23.969661518464932</v>
+            <v>-25.735847104036036</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>43.997214341483122</v>
+            <v>39.557128490507758</v>
           </cell>
           <cell r="C4">
-            <v>47</v>
+            <v>47.5</v>
           </cell>
           <cell r="D4">
-            <v>52</v>
+            <v>46.5</v>
           </cell>
           <cell r="E4">
-            <v>45.5</v>
+            <v>47.5</v>
           </cell>
           <cell r="F4">
-            <v>50</v>
+            <v>53.5</v>
           </cell>
           <cell r="G4">
-            <v>36.866522376631785</v>
+            <v>43.348548289006601</v>
           </cell>
           <cell r="H4">
             <v>18.191784525361541</v>
           </cell>
           <cell r="I4">
-            <v>2.1290942754628754</v>
+            <v>2.3420037030091629</v>
           </cell>
           <cell r="J4">
-            <v>-13.288183974808817</v>
+            <v>-14.257114056305294</v>
           </cell>
           <cell r="K4">
-            <v>-15.226044137801772</v>
+            <v>-12.457672476383268</v>
           </cell>
           <cell r="L4">
-            <v>-1.1563120162428546</v>
+            <v>-1.1920742435493348</v>
           </cell>
           <cell r="M4">
+            <v>-14.867883972516074</v>
+          </cell>
+          <cell r="N4">
             <v>-13.28005170360659</v>
           </cell>
-          <cell r="N4">
-            <v>-15.445277524846796</v>
-          </cell>
           <cell r="O4">
-            <v>-10.503148946321804</v>
+            <v>-12.290918979738283</v>
           </cell>
           <cell r="P4">
-            <v>-1.3619397223956828</v>
+            <v>-1.3063503459713692</v>
           </cell>
           <cell r="Q4">
-            <v>8.6458839498713065</v>
+            <v>9.2334682959790655</v>
           </cell>
           <cell r="R4">
-            <v>12.587753793464147</v>
+            <v>10.606348103752197</v>
           </cell>
           <cell r="S4">
+            <v>12.121540690002512</v>
+          </cell>
+          <cell r="T4">
+            <v>11.538774310675468</v>
+          </cell>
+          <cell r="U4">
+            <v>12.121540690002512</v>
+          </cell>
+          <cell r="V4">
             <v>10.489794827886788</v>
           </cell>
-          <cell r="T4">
-            <v>10.489794827886788</v>
-          </cell>
-          <cell r="U4">
-            <v>12.004987414137103</v>
-          </cell>
-          <cell r="V4">
-            <v>11.888434138271693</v>
-          </cell>
           <cell r="W4">
-            <v>23.332907077244762</v>
+            <v>23.575958192632729</v>
           </cell>
           <cell r="X4">
-            <v>40.124760230950187</v>
+            <v>34.551876865540436</v>
           </cell>
           <cell r="Y4">
-            <v>35.666453538622385</v>
+            <v>33.437300192458487</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="B2">
-            <v>12.538782747166985</v>
+            <v>11.50347041024494</v>
           </cell>
           <cell r="C2">
-            <v>9.3171341266629053</v>
+            <v>9.0509302944725363</v>
           </cell>
           <cell r="D2">
-            <v>7.444214048958572</v>
+            <v>7.1403685775725076</v>
           </cell>
           <cell r="E2">
-            <v>7.3589914141327331</v>
+            <v>7.6563244005623385</v>
           </cell>
           <cell r="F2">
-            <v>7.9415196901322469</v>
+            <v>9.0398149664271337</v>
           </cell>
           <cell r="G2">
             <v>10.489884027608966</v>
           </cell>
           <cell r="H2">
-            <v>17.902655149908394</v>
+            <v>16.600643866278691</v>
           </cell>
           <cell r="I2">
-            <v>21.259651400970611</v>
+            <v>19.670144754169069</v>
           </cell>
           <cell r="J2">
-            <v>23.644291032249654</v>
+            <v>22.955622361407432</v>
           </cell>
           <cell r="K2">
-            <v>24.772797056558908</v>
+            <v>26.542282560598832</v>
           </cell>
           <cell r="L2">
-            <v>24.726943524224406</v>
+            <v>22.942524919383469</v>
           </cell>
           <cell r="M2">
-            <v>23.28218510496156</v>
+            <v>23.782877257756429</v>
           </cell>
           <cell r="N2">
-            <v>24.386991873723336</v>
+            <v>22.627105862217526</v>
           </cell>
           <cell r="O2">
-            <v>22.396209258035938</v>
+            <v>25.382370492440732</v>
           </cell>
           <cell r="P2">
-            <v>20.428454431666598</v>
+            <v>22.448851023809446</v>
           </cell>
           <cell r="Q2">
-            <v>21.541708520428976</v>
+            <v>19.195581849887208</v>
           </cell>
           <cell r="R2">
-            <v>23.771878646514182</v>
+            <v>19.80989887209515</v>
           </cell>
           <cell r="S2">
-            <v>33</v>
+            <v>32.400000000000006</v>
           </cell>
           <cell r="T2">
-            <v>32.952094009312937</v>
+            <v>31.454271554344164</v>
           </cell>
           <cell r="U2">
-            <v>30.784858320824032</v>
+            <v>26.718933636941614</v>
           </cell>
           <cell r="V2">
-            <v>26.881729948429296</v>
+            <v>28.763451044819348</v>
           </cell>
           <cell r="W2">
-            <v>24.145886123906319</v>
+            <v>23.428681585572466</v>
           </cell>
           <cell r="X2">
-            <v>19.498956295655962</v>
+            <v>20.668893673395321</v>
           </cell>
           <cell r="Y2">
-            <v>14.809861311821411</v>
+            <v>14.510672194410878</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-28.223281211271601</v>
+            <v>-29.387127859159094</v>
           </cell>
           <cell r="C3">
-            <v>-30.674830957699747</v>
+            <v>-31.939772440491488</v>
           </cell>
           <cell r="D3">
-            <v>-33.381658096508147</v>
+            <v>-36.447320574758898</v>
           </cell>
           <cell r="E3">
-            <v>-34.491246068023791</v>
+            <v>-36.520142895554606</v>
           </cell>
           <cell r="F3">
-            <v>-36.4</v>
+            <v>-37.1</v>
           </cell>
           <cell r="G3">
-            <v>-33.025983697477947</v>
+            <v>-34.27224723323183</v>
           </cell>
           <cell r="H3">
-            <v>-24.825992348482206</v>
+            <v>-21.34571304729311</v>
           </cell>
           <cell r="I3">
-            <v>-10.218872426865063</v>
+            <v>-8.5953132562416421</v>
           </cell>
           <cell r="J3">
-            <v>-2.7000216757224069</v>
+            <v>-2.7281469015111819</v>
           </cell>
           <cell r="K3">
-            <v>-0.42677318506668688</v>
+            <v>-0.47517014419796066</v>
           </cell>
           <cell r="L3">
-            <v>-4.2658066665330594</v>
+            <v>-3.7128317282787733</v>
           </cell>
           <cell r="M3">
-            <v>-2.9038316881986659</v>
+            <v>-2.9619083219626394</v>
           </cell>
           <cell r="N3">
-            <v>-4.4212281049843902</v>
+            <v>-4.1398772255762921</v>
           </cell>
           <cell r="O3">
-            <v>-4.0545421401246573</v>
+            <v>-4.297814668532137</v>
           </cell>
           <cell r="P3">
-            <v>-10.454996986558173</v>
+            <v>-9.5324972524500993</v>
           </cell>
           <cell r="Q3">
-            <v>-15.204457801885956</v>
+            <v>-14.613993421230191</v>
           </cell>
           <cell r="R3">
-            <v>-12.602645429302829</v>
+            <v>-13.915420994855207</v>
           </cell>
           <cell r="S3">
-            <v>-4.7948794383975635</v>
+            <v>-4.2123239926109433</v>
           </cell>
           <cell r="T3">
-            <v>-5.9970502911929593</v>
+            <v>-6.0622356204450565</v>
           </cell>
           <cell r="U3">
-            <v>-7.5385788257551312</v>
+            <v>-7.7844020483341021</v>
           </cell>
           <cell r="V3">
-            <v>-12.35663103208101</v>
+            <v>-13.000205565001897</v>
           </cell>
           <cell r="W3">
-            <v>-15.705548933402408</v>
+            <v>-17.209271703621788</v>
           </cell>
           <cell r="X3">
-            <v>-21.967773844760455</v>
+            <v>-20.398647141563281</v>
           </cell>
           <cell r="Y3">
-            <v>-24.978910424505564</v>
+            <v>-27.754344916117294</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>39.557128490507758</v>
+            <v>39.153484322237276</v>
           </cell>
           <cell r="C4">
-            <v>54.500000000000007</v>
+            <v>53</v>
           </cell>
           <cell r="D4">
-            <v>47</v>
+            <v>45</v>
           </cell>
           <cell r="E4">
-            <v>53.5</v>
+            <v>51.5</v>
           </cell>
           <cell r="F4">
-            <v>48</v>
+            <v>52.5</v>
           </cell>
           <cell r="G4">
-            <v>42.133168430436328</v>
+            <v>43.348548289006601</v>
           </cell>
           <cell r="H4">
-            <v>16.905496730639008</v>
+            <v>18.375539924607619</v>
           </cell>
           <cell r="I4">
-            <v>2.4839433213733546</v>
+            <v>2.4129735121912588</v>
           </cell>
           <cell r="J4">
-            <v>-13.149765391737892</v>
+            <v>-12.457672476383268</v>
           </cell>
           <cell r="K4">
-            <v>-13.841858307092519</v>
+            <v>-15.226044137801772</v>
           </cell>
           <cell r="L4">
-            <v>-1.0728668191944013</v>
+            <v>-1.2516779557268016</v>
           </cell>
           <cell r="M4">
-            <v>-12.991354927441231</v>
+            <v>-13.424400091689272</v>
           </cell>
           <cell r="N4">
-            <v>-15.589625912929476</v>
+            <v>-13.56874847977195</v>
           </cell>
           <cell r="O4">
-            <v>-10.279677692144746</v>
+            <v>-10.726620200498864</v>
           </cell>
           <cell r="P4">
-            <v>-1.3897344106078398</v>
+            <v>-1.3619397223956828</v>
           </cell>
           <cell r="Q4">
-            <v>7.8904183620184734</v>
+            <v>8.3101214663811582</v>
           </cell>
           <cell r="R4">
             <v>10.722901379617607</v>
           </cell>
           <cell r="S4">
+            <v>12.23809396586792</v>
+          </cell>
+          <cell r="T4">
             <v>11.771880862406285</v>
           </cell>
-          <cell r="T4">
-            <v>11.538774310675468</v>
-          </cell>
           <cell r="U4">
+            <v>11.189114483079241</v>
+          </cell>
+          <cell r="V4">
             <v>10.489794827886788</v>
           </cell>
-          <cell r="V4">
-            <v>10.606348103752197</v>
-          </cell>
           <cell r="W4">
-            <v>21.874600384916963</v>
+            <v>25.277316000348492</v>
           </cell>
           <cell r="X4">
-            <v>34.923402423234421</v>
+            <v>35.294927980928399</v>
           </cell>
           <cell r="Y4">
-            <v>34.180351307846458</v>
+            <v>33.437300192458487</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
-            <v>59.438297935290414</v>
+            <v>69.129324772566022</v>
           </cell>
           <cell r="C2">
-            <v>61.423437385685375</v>
+            <v>56.304817603544919</v>
           </cell>
           <cell r="D2">
-            <v>53.242242251262013</v>
+            <v>57.006845238724985</v>
           </cell>
           <cell r="E2">
-            <v>56.76103778770694</v>
+            <v>56.240294321764672</v>
           </cell>
           <cell r="F2">
-            <v>58.515902732345822</v>
+            <v>54.651645004738072</v>
           </cell>
           <cell r="G2">
-            <v>46.517983202194273</v>
+            <v>48.540504210985318</v>
           </cell>
           <cell r="H2">
-            <v>65.231323143366964</v>
+            <v>55.150118657573884</v>
           </cell>
           <cell r="I2">
-            <v>63.323499844761344</v>
+            <v>72.271385692390666</v>
           </cell>
           <cell r="J2">
-            <v>83.744840137692734</v>
+            <v>77.541518646011781</v>
           </cell>
           <cell r="K2">
-            <v>90.712731831924771</v>
+            <v>85.719370446681197</v>
           </cell>
           <cell r="L2">
-            <v>84.168275910791152</v>
+            <v>82.450555994244382</v>
           </cell>
           <cell r="M2">
-            <v>88.117720366036508</v>
+            <v>78.520740920230551</v>
           </cell>
           <cell r="N2">
-            <v>94.295843361447737</v>
+            <v>97.854177073200489</v>
           </cell>
           <cell r="O2">
-            <v>94.171291445793756</v>
+            <v>86.996335907066594</v>
           </cell>
           <cell r="P2">
-            <v>90.9</v>
+            <v>81.900000000000006</v>
           </cell>
           <cell r="Q2">
-            <v>83.14278879614011</v>
+            <v>92.669566679031178</v>
           </cell>
           <cell r="R2">
-            <v>88.383428673284783</v>
+            <v>91.849445484001834</v>
           </cell>
           <cell r="S2">
-            <v>86.603039142092371</v>
+            <v>75.777659249330824</v>
           </cell>
           <cell r="T2">
-            <v>87.058706702768248</v>
+            <v>78.68767721211745</v>
           </cell>
           <cell r="U2">
-            <v>89.462449644059646</v>
+            <v>76.802669034051206</v>
           </cell>
           <cell r="V2">
-            <v>77.845430393062216</v>
+            <v>84.541811502142835</v>
           </cell>
           <cell r="W2">
-            <v>79.768981770656168</v>
+            <v>82.370144219699284</v>
           </cell>
           <cell r="X2">
-            <v>80.476788208874339</v>
+            <v>83.018160468101954</v>
           </cell>
           <cell r="Y2">
-            <v>80.252838115129975</v>
+            <v>77.224429129653373</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>78.761702268432046</v>
+            <v>72.198227079396034</v>
           </cell>
           <cell r="C3">
-            <v>60.957267279529205</v>
+            <v>62.945004256035581</v>
           </cell>
           <cell r="D3">
-            <v>62.496524084707048</v>
+            <v>58.590491329412863</v>
           </cell>
           <cell r="E3">
-            <v>70.778324224091151</v>
+            <v>64.934242407423071</v>
           </cell>
           <cell r="F3">
-            <v>68.835723540077041</v>
+            <v>64.939361830261362</v>
           </cell>
           <cell r="G3">
-            <v>68.226960514451122</v>
+            <v>59.215852521976437</v>
           </cell>
           <cell r="H3">
-            <v>63.233920563755632</v>
+            <v>71.572459539195933</v>
           </cell>
           <cell r="I3">
-            <v>74.249122012378223</v>
+            <v>81.674034213616039</v>
           </cell>
           <cell r="J3">
-            <v>89.32415807141399</v>
+            <v>94.965683844345406</v>
           </cell>
           <cell r="K3">
-            <v>91.099768724681368</v>
+            <v>102.72952643421517</v>
           </cell>
           <cell r="L3">
-            <v>104.56794794895464</v>
+            <v>94.015219256858288</v>
           </cell>
           <cell r="M3">
             <v>104.56558070996049</v>
           </cell>
           <cell r="N3">
-            <v>97</v>
+            <v>90</v>
           </cell>
           <cell r="O3">
-            <v>106.00220233070868</v>
+            <v>106.98370420414118</v>
           </cell>
           <cell r="P3">
-            <v>96.201247252621954</v>
+            <v>90.5423503554089</v>
           </cell>
           <cell r="Q3">
-            <v>94.139691704866777</v>
+            <v>87.803366301654577</v>
           </cell>
           <cell r="R3">
-            <v>87.49328342078644</v>
+            <v>100.38703045121815</v>
           </cell>
           <cell r="S3">
-            <v>93.93818121791675</v>
+            <v>93.008100215759157</v>
           </cell>
           <cell r="T3">
-            <v>93.402885050440617</v>
+            <v>90.600798498927389</v>
           </cell>
           <cell r="U3">
-            <v>92.775204276389431</v>
+            <v>99.205168929208511</v>
           </cell>
           <cell r="V3">
-            <v>96.739257962336225</v>
+            <v>93.975279163412324</v>
           </cell>
           <cell r="W3">
-            <v>95.948572984935637</v>
+            <v>100.74600163418242</v>
           </cell>
           <cell r="X3">
-            <v>80.492115032773299</v>
+            <v>93.907467538235508</v>
           </cell>
           <cell r="Y3">
-            <v>82.80504418314284</v>
+            <v>80.345488415326713</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>90.673838861083524</v>
+            <v>81.523267966845722</v>
           </cell>
           <cell r="C4">
-            <v>70.442171306853069</v>
+            <v>73.471942115749968</v>
           </cell>
           <cell r="D4">
-            <v>69.155371638820881</v>
+            <v>68.435003184249837</v>
           </cell>
           <cell r="E4">
-            <v>65.303984128223789</v>
+            <v>70.861770011476878</v>
           </cell>
           <cell r="F4">
-            <v>65.303984128223789</v>
+            <v>66.693430599037058</v>
           </cell>
           <cell r="G4">
-            <v>67.785795948213959</v>
+            <v>72.255189087656632</v>
           </cell>
           <cell r="H4">
-            <v>94.26695628322733</v>
+            <v>100.80030968899557</v>
           </cell>
           <cell r="I4">
-            <v>107.96214538005113</v>
+            <v>124.04161384090982</v>
           </cell>
           <cell r="J4">
-            <v>109.08253199200091</v>
+            <v>122.26833256246255</v>
           </cell>
           <cell r="K4">
-            <v>116.1885059508124</v>
+            <v>118.53574849527327</v>
           </cell>
           <cell r="L4">
-            <v>118.47945024446015</v>
+            <v>106.7488116063948</v>
           </cell>
           <cell r="M4">
             <v>132.5</v>
           </cell>
           <cell r="N4">
-            <v>118.75</v>
+            <v>133.75</v>
           </cell>
           <cell r="O4">
-            <v>133.75</v>
+            <v>113.75</v>
           </cell>
           <cell r="P4">
-            <v>128.22627818362832</v>
+            <v>123.47715676941986</v>
           </cell>
           <cell r="Q4">
-            <v>110.15231154251752</v>
+            <v>118.02033379555451</v>
           </cell>
           <cell r="R4">
-            <v>107.84791773614783</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="S4">
-            <v>109.94205206112159</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="T4">
             <v>104.70671624868721</v>
           </cell>
           <cell r="U4">
-            <v>106.80085057366097</v>
+            <v>114.13032071106907</v>
           </cell>
           <cell r="V4">
-            <v>109.94205206112159</v>
+            <v>94.236044623818501</v>
           </cell>
           <cell r="W4">
-            <v>96.330178948792238</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="X4">
-            <v>94.886948844600084</v>
+            <v>108.00961198268308</v>
           </cell>
           <cell r="Y4">
-            <v>102.00450593617379</v>
+            <v>86.892727278962852</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
-            <v>70.421461684202782</v>
+            <v>64.606845581837405</v>
           </cell>
           <cell r="C2">
-            <v>62.560908448383252</v>
+            <v>61.423437385685375</v>
           </cell>
           <cell r="D2">
-            <v>57.006845238724985</v>
+            <v>59.158046945846685</v>
           </cell>
           <cell r="E2">
-            <v>47.387655400746162</v>
+            <v>47.908398866688422</v>
           </cell>
           <cell r="F2">
-            <v>52.443497731819363</v>
+            <v>50.787387277130335</v>
           </cell>
           <cell r="G2">
-            <v>53.59680673296296</v>
+            <v>54.60806723735849</v>
           </cell>
           <cell r="H2">
             <v>56.929154743302071</v>
           </cell>
           <cell r="I2">
-            <v>65.388396578829642</v>
+            <v>68.829891135610154</v>
           </cell>
           <cell r="J2">
-            <v>85.295670510612965</v>
+            <v>83.744840137692734</v>
           </cell>
           <cell r="K2">
-            <v>91.544958729465364</v>
+            <v>85.719370446681197</v>
           </cell>
           <cell r="L2">
-            <v>85.885995827337908</v>
+            <v>79.873976119424256</v>
           </cell>
           <cell r="M2">
-            <v>95.969794458059567</v>
+            <v>81.138098950904904</v>
           </cell>
           <cell r="N2">
-            <v>96.075010217324106</v>
+            <v>90.737509649694985</v>
           </cell>
           <cell r="O2">
-            <v>86.099466464725708</v>
+            <v>89.686944234089282</v>
           </cell>
           <cell r="P2">
-            <v>84.6</v>
+            <v>88.2</v>
           </cell>
           <cell r="Q2">
-            <v>78.812435213007817</v>
+            <v>94.401708112284098</v>
           </cell>
           <cell r="R2">
-            <v>81.451395051850668</v>
+            <v>82.317899254529934</v>
           </cell>
           <cell r="S2">
-            <v>82.439431491030234</v>
+            <v>91.599368323366932</v>
           </cell>
           <cell r="T2">
-            <v>85.38450080463808</v>
+            <v>82.036089008377772</v>
           </cell>
           <cell r="U2">
-            <v>75.958683660050639</v>
+            <v>88.618464270059093</v>
           </cell>
           <cell r="V2">
-            <v>79.519525670332357</v>
+            <v>83.70476386350775</v>
           </cell>
           <cell r="W2">
-            <v>94.508902315233939</v>
+            <v>88.439523267466612</v>
           </cell>
           <cell r="X2">
-            <v>86.406656813738763</v>
+            <v>76.24116777682832</v>
           </cell>
           <cell r="Y2">
-            <v>73.438917897807613</v>
+            <v>68.896304419592724</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>77.303152226424046</v>
+            <v>74.386052142408033</v>
           </cell>
           <cell r="C3">
             <v>65.595320224710775</v>
           </cell>
           <cell r="D3">
-            <v>67.704567758432646</v>
+            <v>61.845518625491351</v>
           </cell>
           <cell r="E3">
-            <v>69.479639375942696</v>
+            <v>67.531612103719993</v>
           </cell>
           <cell r="F3">
-            <v>70.134510776682276</v>
+            <v>69.485117158379666</v>
           </cell>
           <cell r="G3">
-            <v>65.008707659995878</v>
+            <v>65.652358230886918</v>
           </cell>
           <cell r="H3">
-            <v>72.267337787149287</v>
+            <v>72.962216035102657</v>
           </cell>
           <cell r="I3">
-            <v>79.199063479870105</v>
+            <v>88.273956170271887</v>
           </cell>
           <cell r="J3">
-            <v>90.264412366902562</v>
+            <v>94.025429548856835</v>
           </cell>
           <cell r="K3">
-            <v>88.192329297297931</v>
+            <v>94.00720815206482</v>
           </cell>
           <cell r="L3">
-            <v>95.933897200875805</v>
+            <v>89.218524396814502</v>
           </cell>
           <cell r="M3">
-            <v>103.57911296741369</v>
+            <v>88.782096829211724</v>
           </cell>
           <cell r="N3">
-            <v>108</v>
+            <v>92</v>
           </cell>
           <cell r="O3">
-            <v>89.316670482356386</v>
+            <v>100.11319109011374</v>
           </cell>
           <cell r="P3">
-            <v>97.144396735490801</v>
+            <v>89.599200872540052</v>
           </cell>
           <cell r="Q3">
-            <v>83.277419585074455</v>
+            <v>88.708555644970616</v>
           </cell>
           <cell r="R3">
-            <v>94.861138866747424</v>
+            <v>83.809355697805969</v>
           </cell>
           <cell r="S3">
-            <v>93.008100215759157</v>
+            <v>101.37882923517749</v>
           </cell>
           <cell r="T3">
-            <v>91.534827349431808</v>
+            <v>102.74317355548469</v>
           </cell>
           <cell r="U3">
-            <v>82.670974107673757</v>
+            <v>83.589540486647905</v>
           </cell>
           <cell r="V3">
-            <v>100.42456302756808</v>
+            <v>101.34588929387604</v>
           </cell>
           <cell r="W3">
-            <v>87.313201416291434</v>
+            <v>88.272687146140797</v>
           </cell>
           <cell r="X3">
-            <v>98.379251706722926</v>
+            <v>82.280828700168257</v>
           </cell>
           <cell r="Y3">
-            <v>84.444748028353587</v>
+            <v>88.54400764138046</v>
           </cell>
         </row>
         <row r="4">
@@ -2868,518 +2871,518 @@
             <v>79.859527804257041</v>
           </cell>
           <cell r="C4">
-            <v>71.957056711301519</v>
+            <v>68.169843200180395</v>
           </cell>
           <cell r="D4">
-            <v>68.435003184249837</v>
+            <v>79.240530002815603</v>
           </cell>
           <cell r="E4">
-            <v>75.030109423916699</v>
+            <v>70.861770011476878</v>
           </cell>
           <cell r="F4">
-            <v>63.91453765741052</v>
+            <v>67.388153834443699</v>
           </cell>
           <cell r="G4">
-            <v>70.765391374509065</v>
+            <v>70.020492517935281</v>
           </cell>
           <cell r="H4">
-            <v>85.866930475811046</v>
+            <v>84.000258074162971</v>
           </cell>
           <cell r="I4">
-            <v>111.40774576452085</v>
+            <v>119.4474799949502</v>
           </cell>
           <cell r="J4">
-            <v>116.27478684861634</v>
+            <v>131.85800570461649</v>
           </cell>
           <cell r="K4">
-            <v>107.97315704519941</v>
+            <v>129.09833994534713</v>
           </cell>
           <cell r="L4">
-            <v>121.99864183587977</v>
+            <v>126.69089729110591</v>
           </cell>
           <cell r="M4">
-            <v>133.75</v>
+            <v>115</v>
           </cell>
           <cell r="N4">
-            <v>131.25</v>
+            <v>121.25</v>
           </cell>
           <cell r="O4">
-            <v>120</v>
+            <v>123.75</v>
           </cell>
           <cell r="P4">
-            <v>121.10259606231564</v>
+            <v>116.35347464810717</v>
           </cell>
           <cell r="Q4">
-            <v>119.14433697455979</v>
+            <v>102.28428928948057</v>
           </cell>
           <cell r="R4">
-            <v>105.75378341117408</v>
+            <v>114.13032071106907</v>
           </cell>
           <cell r="S4">
-            <v>113.08325354858221</v>
+            <v>106.80085057366097</v>
           </cell>
           <cell r="T4">
+            <v>108.8949848986347</v>
+          </cell>
+          <cell r="U4">
+            <v>103.65964908620035</v>
+          </cell>
+          <cell r="V4">
             <v>100.51844759873973</v>
           </cell>
-          <cell r="U4">
-            <v>101.56551476122659</v>
-          </cell>
-          <cell r="V4">
-            <v>115.17738787355594</v>
-          </cell>
           <cell r="W4">
-            <v>112.03618638609532</v>
+            <v>107.84791773614783</v>
           </cell>
           <cell r="X4">
-            <v>108.00961198268308</v>
+            <v>99.934126974632008</v>
           </cell>
           <cell r="Y4">
-            <v>98.226561271871049</v>
+            <v>95.393102773643989</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="B2">
-            <v>58.792229479472041</v>
+            <v>65.252914037655785</v>
           </cell>
           <cell r="C2">
-            <v>51.754933352753412</v>
+            <v>52.323668884102354</v>
           </cell>
           <cell r="D2">
-            <v>57.544645665505406</v>
+            <v>48.402038410238191</v>
           </cell>
           <cell r="E2">
-            <v>54.678063923937877</v>
+            <v>53.115833526111082</v>
           </cell>
           <cell r="F2">
             <v>51.891460913589682</v>
           </cell>
           <cell r="G2">
-            <v>46.012352949996504</v>
+            <v>47.023613454392034</v>
           </cell>
           <cell r="H2">
-            <v>55.150118657573884</v>
+            <v>59.89421488618239</v>
           </cell>
           <cell r="I2">
-            <v>64.700097667473543</v>
+            <v>70.206488958322353</v>
           </cell>
           <cell r="J2">
-            <v>82.969424951232611</v>
+            <v>82.194009764772488</v>
           </cell>
           <cell r="K2">
-            <v>81.55823595897823</v>
+            <v>84.05491665160001</v>
           </cell>
           <cell r="L2">
-            <v>78.156256202877501</v>
+            <v>84.168275910791152</v>
           </cell>
           <cell r="M2">
-            <v>88.117720366036508</v>
+            <v>86.372815012253596</v>
           </cell>
           <cell r="N2">
-            <v>88.068759365880425</v>
+            <v>82.731258798251318</v>
           </cell>
           <cell r="O2">
-            <v>93.274422003452855</v>
+            <v>88.790074791748381</v>
           </cell>
           <cell r="P2">
-            <v>99.000000000000014</v>
+            <v>98.100000000000009</v>
           </cell>
           <cell r="Q2">
-            <v>78.812435213007817</v>
+            <v>84.008859512766563</v>
           </cell>
           <cell r="R2">
-            <v>78.851882443812897</v>
+            <v>79.718386646492149</v>
           </cell>
           <cell r="S2">
             <v>75.777659249330824</v>
           </cell>
           <cell r="T2">
-            <v>84.54739785557301</v>
+            <v>76.176368364922212</v>
           </cell>
           <cell r="U2">
-            <v>86.930493522057958</v>
+            <v>80.178610530053447</v>
           </cell>
           <cell r="V2">
-            <v>79.519525670332357</v>
+            <v>84.541811502142835</v>
           </cell>
           <cell r="W2">
-            <v>80.636035920337207</v>
+            <v>95.375956464914978</v>
           </cell>
           <cell r="X2">
-            <v>87.253780900147973</v>
+            <v>82.171036381692744</v>
           </cell>
           <cell r="Y2">
-            <v>76.46732688328423</v>
+            <v>70.410508912331025</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>74.386052142408033</v>
+            <v>79.490977289436046</v>
           </cell>
           <cell r="C3">
-            <v>63.607583248204378</v>
+            <v>64.932741232541971</v>
           </cell>
           <cell r="D3">
-            <v>69.657584136079734</v>
+            <v>63.798535003138447</v>
           </cell>
           <cell r="E3">
-            <v>70.128981800016916</v>
+            <v>58.440818166680764</v>
           </cell>
           <cell r="F3">
             <v>62.991180975353522</v>
           </cell>
           <cell r="G3">
-            <v>69.514261656233217</v>
+            <v>58.57220195108539</v>
           </cell>
           <cell r="H3">
-            <v>75.74172902691609</v>
+            <v>71.572459539195933</v>
           </cell>
           <cell r="I3">
-            <v>89.923936659435853</v>
+            <v>79.199063479870105</v>
           </cell>
           <cell r="J3">
-            <v>96.846192435322536</v>
+            <v>101.54746391276539</v>
           </cell>
           <cell r="K3">
-            <v>101.76037995842069</v>
+            <v>88.192329297297931</v>
           </cell>
           <cell r="L3">
-            <v>89.218524396814502</v>
+            <v>92.09654131284077</v>
           </cell>
           <cell r="M3">
-            <v>99.633241997226492</v>
+            <v>98.646774254679698</v>
           </cell>
           <cell r="N3">
-            <v>94</v>
+            <v>90</v>
           </cell>
           <cell r="O3">
-            <v>95.205681722951311</v>
+            <v>92.261176102653849</v>
           </cell>
           <cell r="P3">
-            <v>95.258097769753121</v>
+            <v>89.599200872540052</v>
           </cell>
           <cell r="Q3">
-            <v>93.234502361550753</v>
+            <v>98.665638421446914</v>
           </cell>
           <cell r="R3">
-            <v>93.019175005257182</v>
+            <v>93.940156936002296</v>
           </cell>
           <cell r="S3">
-            <v>91.147938211443972</v>
+            <v>86.497533200656022</v>
           </cell>
           <cell r="T3">
-            <v>91.534827349431808</v>
+            <v>95.270942751449425</v>
           </cell>
           <cell r="U3">
-            <v>85.426673244596216</v>
+            <v>83.589540486647905</v>
           </cell>
           <cell r="V3">
-            <v>95.817931696028253</v>
+            <v>97.660584228644183</v>
           </cell>
           <cell r="W3">
-            <v>89.232172875990145</v>
+            <v>105.5434302834292</v>
           </cell>
           <cell r="X3">
-            <v>82.280828700168257</v>
+            <v>84.069542367563216</v>
           </cell>
           <cell r="Y3">
-            <v>77.066080724905206</v>
+            <v>85.264599950958967</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>84.850748292023113</v>
+            <v>82.355138048140077</v>
           </cell>
           <cell r="C4">
-            <v>77.259155626871106</v>
+            <v>74.229384817974207</v>
           </cell>
           <cell r="D4">
-            <v>77.7997930936735</v>
+            <v>68.435003184249837</v>
           </cell>
           <cell r="E4">
-            <v>73.64066295310343</v>
+            <v>67.388153834443699</v>
           </cell>
           <cell r="F4">
-            <v>62.525091186597251</v>
+            <v>63.91453765741052</v>
           </cell>
           <cell r="G4">
-            <v>70.765391374509065</v>
+            <v>70.020492517935281</v>
           </cell>
           <cell r="H4">
-            <v>88.666939078283136</v>
+            <v>96.133628684875404</v>
           </cell>
           <cell r="I4">
-            <v>104.51654499558143</v>
+            <v>105.66507845707133</v>
           </cell>
           <cell r="J4">
-            <v>118.67220513415482</v>
+            <v>124.66575084800104</v>
           </cell>
           <cell r="K4">
-            <v>107.97315704519941</v>
+            <v>124.40385485642541</v>
           </cell>
           <cell r="L4">
-            <v>107.92187547020133</v>
+            <v>109.09493933400788</v>
           </cell>
           <cell r="M4">
-            <v>123.75</v>
+            <v>132.5</v>
           </cell>
           <cell r="N4">
-            <v>137.5</v>
+            <v>120</v>
           </cell>
           <cell r="O4">
-            <v>137.5</v>
+            <v>135</v>
           </cell>
           <cell r="P4">
-            <v>121.10259606231564</v>
+            <v>130.60083889073255</v>
           </cell>
           <cell r="Q4">
-            <v>107.90430518450697</v>
+            <v>101.16028611047528</v>
           </cell>
           <cell r="R4">
-            <v>107.84791773614783</v>
+            <v>98.424313273765975</v>
           </cell>
           <cell r="S4">
+            <v>105.75378341117408</v>
+          </cell>
+          <cell r="T4">
             <v>110.98911922360845</v>
           </cell>
-          <cell r="T4">
-            <v>115.17738787355594</v>
-          </cell>
           <cell r="U4">
-            <v>115.17738787355594</v>
+            <v>105.75378341117408</v>
           </cell>
           <cell r="V4">
-            <v>98.424313273765975</v>
+            <v>99.471380436252844</v>
           </cell>
           <cell r="W4">
-            <v>99.471380436252844</v>
+            <v>95.283111786305369</v>
           </cell>
           <cell r="X4">
-            <v>100.94356260063839</v>
+            <v>103.97186947865754</v>
           </cell>
           <cell r="Y4">
-            <v>102.94899210224946</v>
+            <v>98.226561271871049</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="2">
           <cell r="B2">
-            <v>12.695712942389127</v>
+            <v>14.106347713765699</v>
           </cell>
           <cell r="C2">
-            <v>9.236094618732734</v>
+            <v>10.415170527507128</v>
           </cell>
           <cell r="D2">
-            <v>8.9388082820377797</v>
+            <v>9.3112586271226867</v>
           </cell>
           <cell r="E2">
-            <v>8.2948546189919714</v>
+            <v>8.3761767230997357</v>
           </cell>
           <cell r="F2">
-            <v>8.4256053063681797</v>
+            <v>9.3617836737424209</v>
           </cell>
           <cell r="G2">
-            <v>4.6925448149284597</v>
+            <v>4.0842519685488439</v>
           </cell>
           <cell r="H2">
-            <v>7.5809210989341649</v>
+            <v>7.3534934659661397</v>
           </cell>
           <cell r="I2">
-            <v>13.110872036015174</v>
+            <v>14.567635595572415</v>
           </cell>
           <cell r="J2">
-            <v>23.098694426383936</v>
+            <v>20.131889637674071</v>
           </cell>
           <cell r="K2">
-            <v>26.188605949002458</v>
+            <v>27.4476735427045</v>
           </cell>
           <cell r="L2">
-            <v>27.76518799587263</v>
+            <v>28.040090847316911</v>
           </cell>
           <cell r="M2">
-            <v>27.06922891897748</v>
+            <v>31.34331769565814</v>
           </cell>
           <cell r="N2">
-            <v>31.858957273478502</v>
+            <v>27.095001045668631</v>
           </cell>
           <cell r="O2">
-            <v>29.4</v>
+            <v>32.1</v>
           </cell>
           <cell r="P2">
-            <v>28.297707575904976</v>
+            <v>30.978543030464397</v>
           </cell>
           <cell r="Q2">
-            <v>27.067762468649544</v>
+            <v>27.355717388528792</v>
           </cell>
           <cell r="R2">
-            <v>28.773679580925911</v>
+            <v>27.403504362786581</v>
           </cell>
           <cell r="S2">
-            <v>24.317524564645893</v>
+            <v>21.885772108181303</v>
           </cell>
           <cell r="T2">
-            <v>24.447069097882029</v>
+            <v>22.026567207002621</v>
           </cell>
           <cell r="U2">
-            <v>21.644702762152292</v>
+            <v>23.256542329546615</v>
           </cell>
           <cell r="V2">
-            <v>20.340727461948816</v>
+            <v>21.170961235905914</v>
           </cell>
           <cell r="W2">
-            <v>25.131025992496539</v>
+            <v>25.628670071555877</v>
           </cell>
           <cell r="X2">
-            <v>21.626499616329696</v>
+            <v>21.849453220621754</v>
           </cell>
           <cell r="Y2">
-            <v>16.865863945424714</v>
+            <v>17.045288029950505</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-23.919804466460054</v>
+            <v>-25.62836192835006</v>
           </cell>
           <cell r="C3">
-            <v>-33.954684421399534</v>
+            <v>-34.906684919195783</v>
           </cell>
           <cell r="D3">
-            <v>-33.57722466211068</v>
+            <v>-32.877699148316708</v>
           </cell>
           <cell r="E3">
             <v>-31.917683997931213</v>
           </cell>
           <cell r="F3">
-            <v>-31.816660608509856</v>
+            <v>-36.606265431296286</v>
           </cell>
           <cell r="G3">
-            <v>-34.299999999999997</v>
+            <v>-35.700000000000003</v>
           </cell>
           <cell r="H3">
-            <v>-28.817451981430526</v>
+            <v>-27.300743982407869</v>
           </cell>
           <cell r="I3">
-            <v>-4.5777343692523207</v>
+            <v>-5.0496657475257569</v>
           </cell>
           <cell r="J3">
-            <v>13.633784980259477</v>
+            <v>14.08824447960146</v>
           </cell>
           <cell r="K3">
-            <v>20.509745529691543</v>
+            <v>23.817769002222434</v>
           </cell>
           <cell r="L3">
-            <v>16.642574040864059</v>
+            <v>18.202815357195067</v>
           </cell>
           <cell r="M3">
-            <v>20.782842726518385</v>
+            <v>24.939411271822067</v>
           </cell>
           <cell r="N3">
-            <v>21.721882394273109</v>
+            <v>22.3366526507148</v>
           </cell>
           <cell r="O3">
-            <v>22.798088720687748</v>
+            <v>19.631687509481115</v>
           </cell>
           <cell r="P3">
-            <v>9.9113973844948262</v>
+            <v>11.327311296565515</v>
           </cell>
           <cell r="Q3">
-            <v>2.808610616749061</v>
+            <v>2.9187522095627498</v>
           </cell>
           <cell r="R3">
-            <v>6.2480395020522259</v>
+            <v>5.5129760312225526</v>
           </cell>
           <cell r="S3">
-            <v>6.9939757541716467</v>
+            <v>7.8868237227893054</v>
           </cell>
           <cell r="T3">
-            <v>4.303258215747408</v>
+            <v>4.4825606414035502</v>
           </cell>
           <cell r="U3">
-            <v>-0.84456791096214168</v>
+            <v>-0.90310232063278517</v>
           </cell>
           <cell r="V3">
             <v>-3.0685485255490925</v>
           </cell>
           <cell r="W3">
-            <v>-2.0894459722325776</v>
+            <v>-2.2257141878129629</v>
           </cell>
           <cell r="X3">
-            <v>-10.456116659609817</v>
+            <v>-10.89178818709356</v>
           </cell>
           <cell r="Y3">
-            <v>-15.480068236484041</v>
+            <v>-14.005776023485559</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-35.933614398313658</v>
+            <v>-35.555365825699823</v>
           </cell>
           <cell r="C4">
-            <v>-40.850845842293424</v>
+            <v>-34.420620107858348</v>
           </cell>
           <cell r="D4">
-            <v>-42.155931485463739</v>
+            <v>-44.351552916998308</v>
           </cell>
           <cell r="E4">
-            <v>-52</v>
+            <v>-54.500000000000007</v>
           </cell>
           <cell r="F4">
-            <v>-52</v>
+            <v>-45.5</v>
           </cell>
           <cell r="G4">
-            <v>-49</v>
+            <v>-50.5</v>
           </cell>
           <cell r="H4">
-            <v>-19.338673265963784</v>
+            <v>-21.7310864535057</v>
           </cell>
           <cell r="I4">
-            <v>3.8019403844828168</v>
+            <v>4.421821968909363</v>
           </cell>
           <cell r="J4">
-            <v>13.385902192807253</v>
+            <v>12.467261846242048</v>
           </cell>
           <cell r="K4">
-            <v>14.435776874596057</v>
+            <v>12.598496181465649</v>
           </cell>
           <cell r="L4">
-            <v>12.839522206625626</v>
+            <v>11.039589187005211</v>
           </cell>
           <cell r="M4">
             <v>16.700890512964939</v>
           </cell>
           <cell r="N4">
-            <v>25.149849282307621</v>
+            <v>24.006674314930002</v>
           </cell>
           <cell r="O4">
-            <v>24.0372557602211</v>
+            <v>25.215552611212335</v>
           </cell>
           <cell r="P4">
-            <v>14.01010673205046</v>
+            <v>13.745765095596676</v>
           </cell>
           <cell r="Q4">
-            <v>9.4886624320361186</v>
+            <v>10.107488242821082</v>
           </cell>
           <cell r="R4">
-            <v>-1.7745062860625838</v>
+            <v>-1.5066562806191748</v>
           </cell>
           <cell r="S4">
-            <v>-1.7745062860625838</v>
+            <v>-1.6908031593615185</v>
           </cell>
           <cell r="T4">
-            <v>-1.6405812833408793</v>
+            <v>-1.7075437847017314</v>
           </cell>
           <cell r="U4">
-            <v>-1.8079875367430098</v>
+            <v>-1.6573219086810922</v>
           </cell>
           <cell r="V4">
-            <v>-11.198210315913499</v>
+            <v>-11.411509560026138</v>
           </cell>
           <cell r="W4">
-            <v>-14.071786625720499</v>
+            <v>-15.02812163911898</v>
           </cell>
           <cell r="X4">
-            <v>-35.143494425683116</v>
+            <v>-40.109422985833994</v>
           </cell>
           <cell r="Y4">
             <v>-41.63740100434196</v>
@@ -3389,448 +3392,448 @@
       <sheetData sheetId="14">
         <row r="2">
           <cell r="B2">
-            <v>12.695712942389127</v>
+            <v>11.541557220353752</v>
           </cell>
           <cell r="C2">
-            <v>10.808195830431925</v>
+            <v>10.611683178969527</v>
           </cell>
           <cell r="D2">
-            <v>9.7768215584788223</v>
+            <v>9.590596385936367</v>
           </cell>
           <cell r="E2">
-            <v>7.888244098453149</v>
+            <v>8.5388209313152661</v>
           </cell>
           <cell r="F2">
-            <v>9.7362550206921181</v>
+            <v>8.4256053063681797</v>
           </cell>
           <cell r="G2">
-            <v>4.4318478807657673</v>
+            <v>4.5187468588199975</v>
           </cell>
           <cell r="H2">
-            <v>6.8228289890407483</v>
+            <v>7.5809210989341649</v>
           </cell>
           <cell r="I2">
-            <v>14.421959239616692</v>
+            <v>13.256548391970899</v>
           </cell>
           <cell r="J2">
-            <v>20.767633520969042</v>
+            <v>19.072316498849123</v>
           </cell>
           <cell r="K2">
-            <v>24.929538355300416</v>
+            <v>26.944046505223685</v>
           </cell>
           <cell r="L2">
             <v>24.741256629985511</v>
           </cell>
           <cell r="M2">
-            <v>26.78428966719877</v>
+            <v>29.918621436764589</v>
           </cell>
           <cell r="N2">
-            <v>32.156704537716621</v>
+            <v>30.667968216526035</v>
           </cell>
           <cell r="O2">
-            <v>30.3</v>
+            <v>32.400000000000006</v>
           </cell>
           <cell r="P2">
             <v>30.680672424402239</v>
           </cell>
           <cell r="Q2">
-            <v>29.6593567475628</v>
+            <v>28.219582148166545</v>
           </cell>
           <cell r="R2">
-            <v>26.85543427553085</v>
+            <v>26.033329144647251</v>
           </cell>
           <cell r="S2">
-            <v>26.262926529817566</v>
+            <v>23.344823582060055</v>
           </cell>
           <cell r="T2">
-            <v>22.510667585178503</v>
+            <v>25.899370232409677</v>
           </cell>
           <cell r="U2">
-            <v>23.256542329546615</v>
+            <v>24.868381896940935</v>
           </cell>
           <cell r="V2">
-            <v>22.623870340330829</v>
+            <v>19.095376801013177</v>
           </cell>
           <cell r="W2">
-            <v>25.877492111085548</v>
+            <v>25.37984803202621</v>
           </cell>
           <cell r="X2">
-            <v>21.626499616329696</v>
+            <v>20.511731594869403</v>
           </cell>
           <cell r="Y2">
-            <v>18.480680706156868</v>
+            <v>16.686439860898918</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-23.187565554221479</v>
+            <v>-23.919804466460054</v>
           </cell>
           <cell r="C3">
-            <v>-33.002683923603286</v>
+            <v>-30.781349428745372</v>
           </cell>
           <cell r="D3">
-            <v>-33.57722466211068</v>
+            <v>-38.124140501771507</v>
           </cell>
           <cell r="E3">
-            <v>-31.5985071579519</v>
+            <v>-34.790275557745026</v>
           </cell>
           <cell r="F3">
-            <v>-33.869348389704044</v>
+            <v>-37.632609321893383</v>
           </cell>
           <cell r="G3">
-            <v>-34.65</v>
+            <v>-32.550000000000004</v>
           </cell>
           <cell r="H3">
-            <v>-32.760892778889442</v>
+            <v>-33.367575978498508</v>
           </cell>
           <cell r="I3">
-            <v>-4.3889618179429473</v>
+            <v>-4.766506920561695</v>
           </cell>
           <cell r="J3">
-            <v>14.694190478724103</v>
+            <v>14.997163478285424</v>
           </cell>
           <cell r="K3">
-            <v>23.597234104053708</v>
+            <v>24.03830390039116</v>
           </cell>
           <cell r="L3">
-            <v>15.775773309569058</v>
+            <v>15.949133455828058</v>
           </cell>
           <cell r="M3">
-            <v>21.93744510021385</v>
+            <v>23.784808898126599</v>
           </cell>
           <cell r="N3">
-            <v>20.082495043761927</v>
+            <v>22.3366526507148</v>
           </cell>
           <cell r="O3">
-            <v>22.586995306607303</v>
+            <v>21.953715064365976</v>
           </cell>
           <cell r="P3">
-            <v>10.564896113142836</v>
+            <v>10.020313839269495</v>
           </cell>
           <cell r="Q3">
-            <v>2.7810752185456389</v>
+            <v>2.7535398203422168</v>
           </cell>
           <cell r="R3">
             <v>6.3092947912880328</v>
           </cell>
           <cell r="S3">
-            <v>6.7707637620172338</v>
+            <v>7.2171877463260614</v>
           </cell>
           <cell r="T3">
-            <v>4.0791301836772309</v>
+            <v>4.751514279887763</v>
           </cell>
           <cell r="U3">
-            <v>-0.8194817353890087</v>
+            <v>-0.88637820358402986</v>
           </cell>
           <cell r="V3">
-            <v>-3.2970574583027488</v>
+            <v>-3.3949898580543154</v>
           </cell>
           <cell r="W3">
-            <v>-2.4755392497103363</v>
+            <v>-2.2938482956031558</v>
           </cell>
           <cell r="X3">
-            <v>-10.456116659609817</v>
+            <v>-11.872049123931982</v>
           </cell>
           <cell r="Y3">
-            <v>-13.416059138286169</v>
+            <v>-15.922355900383584</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-37.446608688768968</v>
+            <v>-41.607342987521079</v>
           </cell>
           <cell r="C4">
-            <v>-40.472597269679596</v>
+            <v>-41.229094414907252</v>
           </cell>
           <cell r="D4">
-            <v>-47.864547207453626</v>
+            <v>-47.425422921146712</v>
           </cell>
           <cell r="E4">
-            <v>-50</v>
+            <v>-48</v>
           </cell>
           <cell r="F4">
-            <v>-49.5</v>
+            <v>-52</v>
           </cell>
           <cell r="G4">
-            <v>-47</v>
+            <v>-54.500000000000007</v>
           </cell>
           <cell r="H4">
-            <v>-20.734247625363235</v>
+            <v>-21.531718687877206</v>
           </cell>
           <cell r="I4">
-            <v>4.2151947741005138</v>
+            <v>4.4631474078711326</v>
           </cell>
           <cell r="J4">
-            <v>13.517136528030852</v>
+            <v>12.336027511018447</v>
           </cell>
           <cell r="K4">
-            <v>12.860964851912849</v>
+            <v>12.99219918713645</v>
           </cell>
           <cell r="L4">
-            <v>12.479535602701542</v>
+            <v>12.599531137342902</v>
           </cell>
           <cell r="M4">
-            <v>17.544369831801554</v>
+            <v>17.206978104266906</v>
           </cell>
           <cell r="N4">
-            <v>22.17759436712581</v>
+            <v>21.263054393223715</v>
           </cell>
           <cell r="O4">
-            <v>21.445002688040397</v>
+            <v>24.272915130419349</v>
           </cell>
           <cell r="P4">
-            <v>11.895373640420202</v>
+            <v>12.027544458647093</v>
           </cell>
           <cell r="Q4">
-            <v>9.3855247969052904</v>
+            <v>9.282387161774464</v>
           </cell>
           <cell r="R4">
-            <v>-1.5401375312996011</v>
+            <v>-1.7912469114027969</v>
           </cell>
           <cell r="S4">
+            <v>-1.8414687874234361</v>
+          </cell>
+          <cell r="T4">
             <v>-1.5066562806191748</v>
           </cell>
-          <cell r="T4">
-            <v>-1.6573219086810922</v>
-          </cell>
           <cell r="U4">
-            <v>-1.7242844100419445</v>
+            <v>-1.607100032660453</v>
           </cell>
           <cell r="V4">
-            <v>-9.7051156071250322</v>
+            <v>-10.025064473293989</v>
           </cell>
           <cell r="W4">
-            <v>-13.388690187578726</v>
+            <v>-13.115451612322017</v>
           </cell>
           <cell r="X4">
-            <v>-40.491417490460982</v>
+            <v>-38.963439471953023</v>
           </cell>
           <cell r="Y4">
-            <v>-34.761499921056128</v>
+            <v>-38.581444967326028</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
-            <v>13.208671041071517</v>
+            <v>12.56747341771853</v>
           </cell>
           <cell r="C2">
-            <v>10.120401550313529</v>
+            <v>10.611683178969527</v>
           </cell>
           <cell r="D2">
-            <v>8.9388082820377797</v>
+            <v>9.1250334545802332</v>
           </cell>
           <cell r="E2">
-            <v>8.1322104107764428</v>
+            <v>7.4816335779143275</v>
           </cell>
           <cell r="F2">
-            <v>8.6128409798430283</v>
+            <v>8.7064588165804526</v>
           </cell>
           <cell r="G2">
             <v>4.4318478807657673</v>
           </cell>
           <cell r="H2">
-            <v>7.5051118879448229</v>
+            <v>8.0357763648702143</v>
           </cell>
           <cell r="I2">
-            <v>15.150341019395313</v>
+            <v>14.567635595572415</v>
           </cell>
           <cell r="J2">
-            <v>20.555718893204052</v>
+            <v>22.251035915323975</v>
           </cell>
           <cell r="K2">
-            <v>24.929538355300416</v>
+            <v>25.181351874040825</v>
           </cell>
           <cell r="L2">
-            <v>25.016159481429796</v>
+            <v>28.314993698761196</v>
           </cell>
           <cell r="M2">
-            <v>27.924046674313612</v>
+            <v>26.499350415420064</v>
           </cell>
           <cell r="N2">
-            <v>29.179231895335448</v>
+            <v>30.667968216526035</v>
           </cell>
           <cell r="O2">
-            <v>28.799999999999997</v>
+            <v>27.6</v>
           </cell>
           <cell r="P2">
-            <v>29.787060606215764</v>
+            <v>30.084931212277922</v>
           </cell>
           <cell r="Q2">
-            <v>29.083446907804298</v>
+            <v>29.371401827683549</v>
           </cell>
           <cell r="R2">
-            <v>30.143854799065242</v>
+            <v>27.677539406414446</v>
           </cell>
           <cell r="S2">
             <v>23.344823582060055</v>
           </cell>
           <cell r="T2">
-            <v>23.478868341530266</v>
+            <v>21.784517017914681</v>
           </cell>
           <cell r="U2">
-            <v>22.335491148178431</v>
+            <v>24.868381896940935</v>
           </cell>
           <cell r="V2">
-            <v>22.208753453352283</v>
+            <v>21.793636566373735</v>
           </cell>
           <cell r="W2">
-            <v>25.131025992496539</v>
+            <v>23.389271715788858</v>
           </cell>
           <cell r="X2">
-            <v>23.633082054958226</v>
+            <v>20.734685199161461</v>
           </cell>
           <cell r="Y2">
-            <v>17.942408452579482</v>
+            <v>17.583560283527891</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-25.872441565762916</v>
+            <v>-23.919804466460054</v>
           </cell>
           <cell r="C3">
             <v>-28.877348433152875</v>
           </cell>
           <cell r="D3">
-            <v>-32.527936391419722</v>
+            <v>-35.326038446595611</v>
           </cell>
           <cell r="E3">
-            <v>-29.364269278096717</v>
+            <v>-34.1519218777864</v>
           </cell>
           <cell r="F3">
-            <v>-35.922036170898224</v>
+            <v>-35.579921540699196</v>
           </cell>
           <cell r="G3">
-            <v>-31.5</v>
+            <v>-37.800000000000004</v>
           </cell>
           <cell r="H3">
-            <v>-29.727476780844121</v>
+            <v>-28.817451981430526</v>
           </cell>
           <cell r="I3">
-            <v>-4.8137000583890384</v>
+            <v>-4.483348093597634</v>
           </cell>
           <cell r="J3">
-            <v>16.209055476530711</v>
+            <v>15.75459597718873</v>
           </cell>
           <cell r="K3">
-            <v>24.03830390039116</v>
+            <v>20.950815326028991</v>
           </cell>
           <cell r="L3">
-            <v>18.029455210936067</v>
+            <v>18.896255942231068</v>
           </cell>
           <cell r="M3">
-            <v>25.170331746561157</v>
+            <v>24.246649847604786</v>
           </cell>
           <cell r="N3">
-            <v>19.057877949692443</v>
+            <v>19.467724787320236</v>
           </cell>
           <cell r="O3">
-            <v>21.531528236205094</v>
+            <v>20.476061165802882</v>
           </cell>
           <cell r="P3">
-            <v>11.545144206114852</v>
+            <v>11.218394841790847</v>
           </cell>
           <cell r="Q3">
-            <v>3.0013584041730166</v>
+            <v>2.67093362573195</v>
           </cell>
           <cell r="R3">
-            <v>6.1255289235806138</v>
+            <v>6.3092947912880328</v>
           </cell>
           <cell r="S3">
-            <v>7.6636117306348908</v>
+            <v>6.6963597646324287</v>
           </cell>
           <cell r="T3">
-            <v>4.3480838221614437</v>
+            <v>4.7066886734737281</v>
           </cell>
           <cell r="U3">
-            <v>-0.81111967686463105</v>
+            <v>-0.84456791096214168</v>
           </cell>
           <cell r="V3">
-            <v>-3.5255663910564046</v>
+            <v>-3.2644133250522263</v>
           </cell>
           <cell r="W3">
-            <v>-2.3165596648665532</v>
+            <v>-2.4982506189737341</v>
           </cell>
           <cell r="X3">
-            <v>-9.8026093683842053</v>
+            <v>-10.238280895867947</v>
           </cell>
           <cell r="Y3">
-            <v>-14.448063687385103</v>
+            <v>-14.005776023485559</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-37.824857261382796</v>
+            <v>-40.094348697065769</v>
           </cell>
           <cell r="C4">
-            <v>-41.229094414907252</v>
+            <v>-37.446608688768968</v>
           </cell>
           <cell r="D4">
-            <v>-41.277682912849912</v>
+            <v>-46.547174348532877</v>
           </cell>
           <cell r="E4">
-            <v>-53</v>
+            <v>-54</v>
           </cell>
           <cell r="F4">
-            <v>-46.5</v>
+            <v>-51.5</v>
           </cell>
           <cell r="G4">
-            <v>-48.5</v>
+            <v>-54.500000000000007</v>
           </cell>
           <cell r="H4">
-            <v>-20.534879859734744</v>
+            <v>-20.335512094106249</v>
           </cell>
           <cell r="I4">
-            <v>4.4631474078711326</v>
+            <v>3.719289506559277</v>
           </cell>
           <cell r="J4">
-            <v>14.173308204148857</v>
+            <v>14.435776874596057</v>
           </cell>
           <cell r="K4">
-            <v>13.648370863254453</v>
+            <v>13.123433522360051</v>
           </cell>
           <cell r="L4">
-            <v>11.279580256287931</v>
+            <v>11.519571325570652</v>
           </cell>
           <cell r="M4">
-            <v>15.857411194128325</v>
+            <v>17.375673968034231</v>
           </cell>
           <cell r="N4">
-            <v>23.549404327978952</v>
+            <v>21.948959373650286</v>
           </cell>
           <cell r="O4">
-            <v>21.680662058238642</v>
+            <v>25.686871351608826</v>
           </cell>
           <cell r="P4">
-            <v>12.291886095100875</v>
+            <v>12.424056913327764</v>
           </cell>
           <cell r="Q4">
-            <v>9.6949377022977714</v>
+            <v>10.416901148213565</v>
           </cell>
           <cell r="R4">
-            <v>-1.824728162083223</v>
+            <v>-1.6238406580006661</v>
           </cell>
           <cell r="S4">
-            <v>-1.7075437847017314</v>
+            <v>-1.7745062860625838</v>
           </cell>
           <cell r="T4">
-            <v>-1.6740625340213053</v>
+            <v>-1.5736187819800269</v>
           </cell>
           <cell r="U4">
-            <v>-1.556878156639814</v>
+            <v>-1.8079875367430098</v>
           </cell>
           <cell r="V4">
-            <v>-10.025064473293989</v>
+            <v>-10.771611827688222</v>
           </cell>
           <cell r="W4">
-            <v>-14.208405913348853</v>
+            <v>-14.891502351490626</v>
           </cell>
           <cell r="X4">
-            <v>-36.671472444191075</v>
+            <v>-38.199450462699041</v>
           </cell>
           <cell r="Y4">
-            <v>-34.761499921056128</v>
+            <v>-37.435461453445058</v>
           </cell>
         </row>
       </sheetData>
@@ -4332,7 +4335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4383,7 +4386,7 @@
       </c>
       <c r="B5" s="7">
         <f>((1+[1]Main!$B$2)^($B$3-2020))*$B$4</f>
-        <v>0.95111013046577197</v>
+        <v>1.0252831332277852</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4509,100 +4512,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
-        <v>11.925763294539962</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <v>10.614882766688144</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
-        <v>9.1992062035308795</v>
+        <f ca="1">('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <v>9.0978099715128256</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
-        <v>7.441505527734412</v>
+        <f ca="1">('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <v>7.2430175583848211</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
-        <v>6.8578130762348595</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <v>7.545049774478378</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
-        <v>7.3925521726509844</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <v>9.09512925533339</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
-        <v>10.076805315730681</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <v>10.970203186283481</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
-        <v>16.563013129622743</v>
+        <f ca="1">('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <v>15.017964844250145</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
-        <v>18.708473943418362</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <v>21.593450205327738</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
-        <v>20.959991979917966</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <v>25.889613661887385</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
-        <v>24.523358576811383</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <v>23.584907343181573</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
-        <v>26.185041443146847</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <v>25.352118131663293</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
-        <v>25.239309074699719</v>
+        <f ca="1">('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <v>28.23431705600504</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
-        <v>23.912077342973941</v>
+        <f ca="1">('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <v>23.714727549719868</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
-        <v>22.958026293409795</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <v>24.238147578310006</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
-        <v>21.778356218583323</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <v>23.937085447657328</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
-        <v>18.257112357612627</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <v>22.086350406905098</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
-        <v>21.144232728621876</v>
+        <f ca="1">('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <v>20.762105299718559</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
-        <v>27.962637835693695</v>
+        <f ca="1">('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <v>31.373663876770227</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
-        <v>31.05615161020603</v>
+        <f ca="1">('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <v>28.563873053477231</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
-        <v>28.727341734381906</v>
+        <f ca="1">('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <v>27.692237995742985</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
-        <v>25.8231605351802</v>
+        <f ca="1">('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <v>24.805245877297899</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
-        <v>22.738016734178427</v>
+        <f ca="1">('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <v>22.550356630995616</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
-        <v>18.916567963633881</v>
+        <f ca="1">('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <v>21.791226595975154</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
-        <v>13.232123722983637</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <v>15.184301008453213</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4610,100 +4613,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
-        <v>-25.459765753631679</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <v>-28.936854190261428</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
-        <v>-27.671269150781281</v>
+        <f ca="1">('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <v>-35.341156296022618</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
-        <v>-31.749633187333657</v>
+        <f ca="1">('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <v>-34.574892342317625</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
-        <v>-32.804973547685151</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <v>-35.709991786941742</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
-        <v>-34.953297294617123</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <v>-38.396853339380556</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
-        <v>-32.300348068832918</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <v>-29.069335357910138</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
-        <v>-20.30212392129588</v>
+        <f ca="1">('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <v>-24.502132109492599</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
-        <v>-8.1750895125381682</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <v>-9.9876470006249125</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
-        <v>-2.7552692784421389</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <v>-2.8836319619454214</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
-        <v>-0.39335443478802623</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <v>-0.41951949894575258</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
-        <v>-4.0572519351480176</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <v>-3.8472005958950359</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
-        <v>-2.6513891863807451</v>
+        <f ca="1">('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <v>-2.7390696795110605</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
-        <v>-3.5934275903323654</v>
+        <f ca="1">('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <v>-4.1209187310846715</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
-        <v>-3.6635002986792862</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <v>-3.9907715224618543</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
-        <v>-9.846364787631023</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <v>-11.560063995188194</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
-        <v>-14.601513007143302</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <v>-14.832132671324594</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
-        <v>-12.860519636075439</v>
+        <f ca="1">('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <v>-14.267246437788851</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
-        <v>-4.6457006214597483</v>
+        <f ca="1">('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <v>-4.6863842937670395</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
-        <v>-5.9518489929039973</v>
+        <f ca="1">('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <v>-7.2848426291521964</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
-        <v>-8.4949134485158808</v>
+        <f ca="1">('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <v>-7.5611521159775785</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
-        <v>-11.385250798257479</v>
+        <f ca="1">('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <v>-13.856768385153423</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
-        <v>-15.414442015140832</v>
+        <f ca="1">('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <v>-17.986985255825722</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
-        <v>-20.46736873227692</v>
+        <f ca="1">('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <v>-22.063531099685282</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
-        <v>-22.797787894047577</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <v>-26.386529955097288</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4711,100 +4714,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
-        <v>41.846196272458549</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <v>40.557256640241881</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
-        <v>44.702176131891285</v>
+        <f ca="1">('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <v>48.700948828319795</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
-        <v>49.457726784220142</v>
+        <f ca="1">('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <v>47.675665695092015</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
-        <v>43.275510936192624</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <v>48.700948828319795</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
-        <v>47.555506523288599</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <v>54.852647627686508</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
-        <v>35.064122907457559</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <v>44.444535410628632</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
-        <v>17.302390553321828</v>
+        <f ca="1">('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <v>18.651729837167419</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
-        <v>2.0250031341094239</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <v>2.4012168946523098</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
-        <v>-12.638526393933594</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <v>-14.61757857043459</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
-        <v>-14.481644826382245</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <v>-12.772641469311779</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
-        <v>-1.0997800726278812</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <v>-1.2222136154664038</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
-        <v>-12.630791708409461</v>
+        <f ca="1">('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <v>-15.243790663808451</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
-        <v>-14.690159921737092</v>
+        <f ca="1">('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <v>-13.615813020100751</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
-        <v>-9.9896513646375666</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <v>-12.601671921794919</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
-        <v>-1.2953546670542753</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <v>-1.3393789758107266</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
-        <v>8.2231878115540216</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <v>9.4669193050608342</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
-        <v>11.9723401527727</v>
+        <f ca="1">('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <v>10.87450981591963</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
-        <v>9.9769501273105838</v>
+        <f ca="1">('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <v>12.428011218193864</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
-        <v>9.9769501273105838</v>
+        <f ca="1">('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <v>11.830510678857621</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
-        <v>11.41806514569989</v>
+        <f ca="1">('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <v>12.428011218193864</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
-        <v>11.307210144285328</v>
+        <f ca="1">('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <v>10.755009708052382</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
-        <v>22.192164294384</v>
+        <f ca="1">('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <v>24.172032284589758</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
-        <v>38.163065938166852</v>
+        <f ca="1">('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <v>35.425456571601927</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
-        <v>33.922725278370528</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <v>34.28269990800186</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5656,100 +5659,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
-        <v>11.925763294539962</v>
+        <f ca="1">('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <v>11.794314185209048</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
-        <v>8.8616206547774521</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <v>9.2797661709430823</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
-        <v>7.0802673953201198</v>
+        <f ca="1">('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <v>7.3208994676147645</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
-        <v>6.9992112839922793</v>
+        <f ca="1">('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <v>7.8499002704168985</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
-        <v>7.5532598285781782</v>
+        <f ca="1">('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <v>9.2683698125778378</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
-        <v>9.9770349660699811</v>
+        <f ca="1">('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <v>10.755101163023019</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
-        <v>17.027396675313099</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <v>17.020360156816832</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
-        <v>20.220269817633991</v>
+        <f ca="1">('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <v>20.167467644598545</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
-        <v>22.488324728453652</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <v>23.53601241989762</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
-        <v>23.561658240465835</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <v>27.213354626747972</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
-        <v>23.51804648134485</v>
+        <f ca="1">('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <v>23.522583833502022</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
-        <v>22.143922112708243</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <v>24.384182912004349</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
-        <v>23.194715022684722</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <v>23.199189994291171</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
-        <v>21.301261509349292</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <v>26.024116347238113</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
-        <v>19.429709959716497</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <v>23.016428315055123</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
-        <v>20.488537201320835</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <v>19.680906303182763</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
-        <v>22.609674600902601</v>
+        <f ca="1">('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <v>20.310755184507283</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
-        <v>31.386634305370475</v>
+        <f ca="1">('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <v>33.219173516580248</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
-        <v>31.341070432318009</v>
+        <f ca="1">('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <v>32.249534092635578</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
-        <v>29.279790613889251</v>
+        <f ca="1">('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <v>27.394471995788759</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
-        <v>25.567485678396238</v>
+        <f ca="1">('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <v>29.490681209676392</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
-        <v>22.965396901520212</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <v>24.021032063451852</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
-        <v>18.545654866307729</v>
+        <f ca="1">('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <v>21.1914680658107</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
-        <v>14.085809124466451</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <v>14.877547452726887</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5757,100 +5760,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
-        <v>-26.843448675024703</v>
+        <f ca="1">('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <v>-30.130126528004173</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
-        <v>-29.175142474193308</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <v>-32.747309962369577</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
-        <v>-31.749633187333657</v>
+        <f ca="1">('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <v>-37.368823036646326</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
-        <v>-32.804973547685151</v>
+        <f ca="1">('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <v>-37.443486533880666</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
-        <v>-34.620408748954098</v>
+        <f ca="1">('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <v>-38.03800424275083</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
-        <v>-31.41134766326871</v>
+        <f ca="1">('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <v>-35.138757026045226</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
-        <v>-23.612252821507166</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <v>-21.885399554109895</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
-        <v>-9.7192730871287107</v>
+        <f ca="1">('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <v>-8.8126297064337482</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
-        <v>-2.5680179682567505</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <v>-2.7971230030870586</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
-        <v>-0.40590829972806958</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <v>-0.48718393425958362</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
-        <v>-4.0572519351480176</v>
+        <f ca="1">('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <v>-3.8067037475171936</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
-        <v>-2.761863735813276</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <v>-3.0367946446753065</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
-        <v>-4.2050748397506412</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <v>-4.2445462930172111</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
-        <v>-3.856316103872933</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <v>-4.4064768893849644</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
-        <v>-9.9438535479045971</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <v>-9.7735086504772912</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
-        <v>-14.461113843613077</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <v>-14.98348096388913</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
-        <v>-11.986503738478078</v>
+        <f ca="1">('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <v>-14.267246437788851</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
-        <v>-4.5604584082219537</v>
+        <f ca="1">('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <v>-4.3188247413147218</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
-        <v>-5.7038552848663313</v>
+        <f ca="1">('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <v>-6.2155079312949937</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
-        <v>-7.170018690490469</v>
+        <f ca="1">('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <v>-7.9812161224207774</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
-        <v>-11.752516953039976</v>
+        <f ca="1">('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <v>-13.328891494290435</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
-        <v>-14.93770669508493</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <v>-17.644376012857609</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
-        <v>-20.893772247532688</v>
+        <f ca="1">('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <v>-20.914388854910005</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
-        <v>-23.757694752744317</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <v>-28.45606171628139</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5858,100 +5861,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
-        <v>37.623185639458136</v>
+        <f ca="1">('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <v>40.143407082688398</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
-        <v>51.835502110384581</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <v>54.340006061072614</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
-        <v>44.702176131891285</v>
+        <f ca="1">('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <v>46.137740995250333</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
-        <v>50.884391979918803</v>
+        <f ca="1">('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <v>52.80208136123094</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
-        <v>45.653286262357057</v>
+        <f ca="1">('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
+        <v>53.82736449445872</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
-        <v>40.073283322808642</v>
+        <f ca="1">('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <v>44.444535410628632</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
-        <v>16.078989201066747</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <v>18.84013114865396</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
-        <v>2.3625036564609943</v>
+        <f ca="1">('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <v>2.4739810429751072</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
-        <v>-12.50687507733012</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <v>-12.772641469311779</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
-        <v>-13.165131660347495</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <v>-15.611006240269951</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
-        <v>-1.0204145003763847</v>
+        <f ca="1">('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <v>-1.2833242962397242</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
-        <v>-12.356209279965778</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <v>-13.763810987710544</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
-        <v>-14.827451135958933</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <v>-13.911808955320332</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
-        <v>-9.7771055909218756</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <v>-10.997822768111929</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
-        <v>-1.3217904765859951</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <v>-1.3963738258452256</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
-        <v>7.5046568377289127</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <v>8.5202273745547501</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
-        <v>10.198660130139709</v>
+        <f ca="1">('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <v>10.99400992378688</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
-        <v>11.196355142870766</v>
+        <f ca="1">('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <v>12.547511326061112</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
-        <v>10.974645140041643</v>
+        <f ca="1">('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <v>12.069510894592117</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
-        <v>9.9769501273105838</v>
+        <f ca="1">('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <v>11.472010355255874</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
-        <v>10.087805128725146</v>
+        <f ca="1">('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <v>10.755009708052382</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
-        <v>20.805154025984997</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <v>25.916405748426129</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
-        <v>33.216001835071147</v>
+        <f ca="1">('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <v>36.187294347335296</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
-        <v>32.509278391771765</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <v>34.28269990800186</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13881,100 +13884,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>60.128600248518623</v>
+        <f ca="1">('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>74.473363645358759</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>62.136648698889772</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>61.444574961715873</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>53.966870607292655</v>
+        <f ca="1">('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>61.775791535196007</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>57.140126372538383</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>60.816353492771519</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>58.239229412219224</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>58.617571356645854</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>46.436985356625499</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>51.961020530077448</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>64.724351697719371</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>59.226665887498172</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>60.693426677611242</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>74.56443724411902</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>80.060192883338985</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>79.911638246766515</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>86.874975934358218</v>
+        <f ca="1">('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>88.483802436676172</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>80.404993967648579</v>
+        <f ca="1">('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>84.88685847120874</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>84.249127824632069</v>
+        <f ca="1">('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>80.945462585005814</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>90.385901553717844</v>
+        <f ca="1">('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>101.02840694086879</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>90.857301922936102</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>90.485908487931084</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>87.832257761258589</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>85.347035513275529</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>80.431473522374048</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>96.366068502727344</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>84.82164738038918</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>94.930960255001082</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>83.915662577310002</v>
+        <f ca="1">('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>79.240190623963514</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>83.710034405930628</v>
+        <f ca="1">('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>81.584764754135705</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>85.726782584953071</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>79.382621579692554</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>75.008638031110337</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>87.648353959470569</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>76.468019930317993</v>
+        <f ca="1">('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>85.05165282130524</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>79.275963937706265</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>87.850795084440122</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>79.624736980508857</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>82.472354310357161</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13982,100 +13985,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>78.906867303147052</v>
+        <f ca="1">('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>78.019438856366648</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>62.106180160997056</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>68.665556910591519</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>63.138448990756991</v>
+        <f ca="1">('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>63.769214342469816</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>70.822568205701629</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>70.080570528032837</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>68.341644585947776</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>69.452522956182506</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>67.328309187495918</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>63.149970681799694</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>63.122621806563309</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>76.362234938473122</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>71.136652656063191</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>84.256570233790697</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>85.412252808317618</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>97.821855052319535</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>87.309443724677408</v>
+        <f ca="1">('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>105.99038154502279</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>99.846405821887103</v>
+        <f ca="1">('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>96.78298977638768</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>99.941684567884906</v>
+        <f ca="1">('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>107.69762767469632</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>93.035648957214647</v>
+        <f ca="1">('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>93.053448292535435</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>102.2531380770828</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>111.12195703939973</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>93.027255160877843</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>94.36081899766809</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>91.041130929633511</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>91.527226979917444</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>84.059384880255223</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>103.7687657874903</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>91.064038816270298</v>
+        <f ca="1">('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>97.07811942715756</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>89.844892981403348</v>
+        <f ca="1">('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>93.899933353118755</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>88.948481567976444</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>102.42243135680168</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>93.086422232609308</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>97.428002637508911</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>91.92314118227057</v>
+        <f ca="1">('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>103.95865762822991</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>79.594283146839715</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>99.319159667641401</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>82.41832709911867</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>86.03848482604856</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -14083,100 +14086,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>91.235574687637992</v>
+        <f ca="1">('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>88.579199590656373</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>72.159644899362149</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>80.490925174175459</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>70.396089310425381</v>
+        <f ca="1">('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>74.786969255818633</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>66.492014637601613</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>77.034111356905697</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>65.700394100428753</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>71.968762726589674</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>67.517952067173525</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>77.128221498900217</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>93.383506300785868</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>107.07410655989874</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>103.33084084266146</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>127.82472515431542</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>104.318427698536</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>125.9285855682657</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>111.33747856293039</v>
+        <f ca="1">('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>122.36211712616458</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>113.17546938654493</v>
+        <f ca="1">('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>109.93622003917051</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>126.63246910747127</v>
+        <f ca="1">('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>136.46039197343802</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>113.91678587035388</v>
+        <f ca="1">('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>138.10407694675973</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>129.00269193562613</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>118.41766839048969</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>123.86890509170433</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>128.51063909394244</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>106.64687499007285</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>122.88415320625784</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>103.62979294727974</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>104.11441474001914</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>106.71510325750327</v>
+        <f ca="1">('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>105.20797267920403</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>100.84819704593055</v>
+        <f ca="1">('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>108.61460859944575</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>102.46567707880891</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>117.9021989707757</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>105.91291694314022</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>97.964544558514177</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>92.45246083348168</v>
+        <f ca="1">('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>103.89172066693355</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>94.04470969077758</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>114.53720478801361</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>101.59453235263295</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>93.666661082864564</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15030,100 +15033,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>70.574798554673592</v>
+        <f ca="1">('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>69.836542010731065</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>63.218508949733391</v>
+        <f ca="1">('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>66.692609489750566</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>57.547422645850396</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>63.981382361678705</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>48.225007427570546</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>52.273801614864603</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>52.463703499927497</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>54.655613086084514</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>53.169726128519088</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>58.181990560814391</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>56.82807522758484</v>
+        <f ca="1">('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>61.050681579598859</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>62.657370879749294</v>
+        <f ca="1">('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>71.035930921956734</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>81.535203361657423</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>86.27179914217642</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>87.666515367455176</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>88.483802436676172</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>82.038734781579024</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>82.24513458414151</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>91.717315038723029</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>83.628995627474524</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>92.078085174130791</v>
+        <f ca="1">('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>93.731807866756952</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>83.180107412095595</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>93.244543823749666</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>81.840263939324217</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>91.806319252610578</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>76.312830360958174</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>98.142003898606575</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>78.228519978313855</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>85.158426672342657</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>79.95561316109999</v>
+        <f ca="1">('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>95.461922076409735</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>82.117680215733472</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>85.017834891942371</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>72.883213958123008</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>91.497157140844664</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>76.600887008686868</v>
+        <f ca="1">('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>86.790143133869876</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>90.487307682526463</v>
+        <f ca="1">('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>91.274484788147191</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>84.91592204012376</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>80.902458784069296</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>73.143948433628012</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>73.933668513714437</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -15131,100 +15134,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>77.519625582401957</v>
+        <f ca="1">('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>80.262578991925864</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>66.517479302795849</v>
+        <f ca="1">('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>71.382881170998459</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>68.091872088745589</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>67.106538927335123</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>69.587375890345228</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>72.743609868403041</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>69.576934284002661</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>74.113209221882528</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>64.267396295223151</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>69.749211422069962</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>71.714396440456994</v>
+        <f ca="1">('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>77.787128833020034</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>75.844592131007317</v>
+        <f ca="1">('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>91.023358896569647</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>86.306538193970752</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>96.857828182210127</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>84.544148631577428</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>97.047535727689677</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>91.634472688433746</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>91.865019441144369</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>99.003445104570957</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>91.515087868191998</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>103.49786039233814</v>
+        <f ca="1">('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>95.104014558991011</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>86.38335970390564</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>104.0777358269671</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>93.924294188577946</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>93.393823740770145</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>80.709913876623119</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>92.455302345996913</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>91.067026834716131</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>86.771955474680709</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>90.179429352964462</v>
+        <f ca="1">('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>105.66048670358754</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>88.068164377679267</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>106.34930569593273</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>79.338245893953086</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>86.411990899892217</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>96.591553214008158</v>
+        <f ca="1">('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>104.98496488587121</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>83.709951802996969</v>
+        <f ca="1">('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>91.169978668195071</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>96.606920042459038</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>87.398562970839961</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>83.977866037262288</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>94.444288305965188</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -15232,100 +15235,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>80.949973887482315</v>
+        <f ca="1">('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>86.873394863880534</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>73.600467754027804</v>
+        <f ca="1">('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>75.05477258533665</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>69.710939575614887</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>85.865693648534602</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>75.74263093651453</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>77.034111356905697</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>64.378877486298336</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>72.681050742113541</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>70.351875461812284</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>74.837024798082922</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>85.394156659178307</v>
+        <f ca="1">('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>89.849297001854666</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>106.60798627386737</v>
+        <f ca="1">('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>123.11443721026212</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>111.15905415355459</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>135.76071569408364</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>103.52377699349098</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>133.19176398310134</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>116.52260816019408</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>130.3825041330881</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>127.82135677055349</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>118.51793714195178</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>125.80566250117602</v>
+        <f ca="1">('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>125.2880377814124</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>115.92492764172177</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>128.67049972276754</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>117.09349885990595</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>121.20684796848421</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>115.19928147189411</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>106.75025219045847</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>101.63804057624111</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>118.07043865372722</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>109.70273181406122</v>
+        <f ca="1">('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>111.64921448553083</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>96.864692303853275</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>112.90876980366362</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>97.486296151212329</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>107.16679596023103</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>110.89229787073678</v>
+        <f ca="1">('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>104.40578636484098</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>107.39060361627141</v>
+        <f ca="1">('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>111.40650277431482</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>106.52580754009809</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>106.257546216625</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>98.001290910075497</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>102.38195270366393</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -16179,100 +16182,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>59.514117995215386</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>70.498945101392167</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>52.940836566719014</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>57.362770328800018</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>58.058930079930072</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>52.953428229265228</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>55.158988829212198</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>57.612896538556427</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>51.938655689719155</v>
+        <f ca="1">('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>55.787601163387748</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>45.956075301490237</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>50.405778022393221</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>55.136015983984585</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>64.090707733100018</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>62.002722812369946</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>72.447333450821645</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>79.322687644179751</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>84.681758918323936</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>78.16804217029167</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>86.777266034542464</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>74.686901118892038</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>86.648007729253592</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>84.249127824632069</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>88.996061712411915</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>84.463258882272498</v>
+        <f ca="1">('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>85.523133908381169</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>90.004280310620487</v>
+        <f ca="1">('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>92.324998711810139</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>95.536249818031351</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>101.95662227156565</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>76.312830360958174</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>87.486391523331235</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>75.756097202535642</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>82.493190240708543</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>73.619534095163999</v>
+        <f ca="1">('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>79.240190623963514</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>81.321503120634915</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>79.009962150780723</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>83.318613467422423</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>82.84391745430743</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>76.600887008686868</v>
+        <f ca="1">('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>87.648353959470569</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>77.292683915742018</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>98.386292750252281</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>85.721630340469119</v>
+        <f ca="1">('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>86.98225304689376</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>76.024298898908398</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>75.486156840376751</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -16280,100 +16283,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>74.745142140911781</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>85.496572641564057</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>64.626922527739211</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>70.703550105896724</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>69.949405750491294</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>69.108933678254331</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>70.204972048023421</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>63.422972177107305</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>62.782840944700837</v>
+        <f ca="1">('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>67.455085985168211</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>68.552674344405034</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>62.490046607772669</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>75.018925145800736</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>76.362234938473122</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>86.045127660052955</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>81.719024485248596</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>92.566535893542692</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>104.57004314308537</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>97.448859066044093</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>91.085638516134281</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>85.247413584636703</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>94.815801642290353</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>95.250487251315107</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>101.62917524725719</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>90.18231856581734</v>
+        <f ca="1">('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>93.053448292535435</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>91.984457953262279</v>
+        <f ca="1">('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>96.0271972984727</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>92.13021613317774</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>93.393823740770145</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>90.180196175215983</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>102.66413137287095</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>89.315116346100908</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>97.158895110286565</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>88.410210426352762</v>
+        <f ca="1">('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>90.402944878823149</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>88.068164377679267</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>98.688153484970286</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>81.959219259595827</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>86.411990899892217</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>92.210139487259596</v>
+        <f ca="1">('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>101.20648376169007</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>85.535104998391105</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>108.8773803051664</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>81.295546836401641</v>
+        <f ca="1">('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>89.232500924194028</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>76.95994081561598</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>91.081966913998542</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -16381,100 +16384,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>85.697174256784933</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>89.432101954044299</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>78.64334774535763</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>81.267518401152444</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>78.617886128151383</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>74.786969255818633</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>74.421114322384113</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>73.472671279286402</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>63.057360872167919</v>
+        <f ca="1">('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>69.119610664494232</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>70.351875461812284</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>74.837024798082922</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>88.057273206380827</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>102.28943723821983</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>100.05369541145556</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>108.98357337810222</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>113.43926297189412</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>128.38661809972021</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>103.52377699349098</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>128.37858760224054</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>103.13405306559747</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>112.34166522669024</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>118.31025546589576</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>136.46039197343802</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>131.75010081658712</v>
+        <f ca="1">('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>124.00643386487768</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>132.56935492487278</v>
+        <f ca="1">('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>140.20493497158012</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>117.09349885990595</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>135.81443021940069</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>104.50877336961754</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>105.59783068932994</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>103.62979294727974</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>101.9673341379102</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>107.71097944302258</v>
+        <f ca="1">('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>110.57567418447636</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>110.80695890112369</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>115.05585040577256</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>110.43268656296343</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>109.31387656233994</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>94.958278902427736</v>
+        <f ca="1">('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>103.3322460637865</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>95.440089390039617</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>98.524019161661215</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>99.805216390463968</v>
+        <f ca="1">('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>110.39737550231929</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>102.4928427132723</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>105.28704991059706</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -17328,100 +17331,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
-        <v>12.075021192991713</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
+        <v>14.4630003823703</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
-        <v>8.7845431578171045</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
+        <v>10.678498671544192</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
-        <v>8.5017911113374751</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
+        <v>9.5466764195105931</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
-        <v>7.889320258864065</v>
+        <f ca="1">('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
+        <v>8.5879527151293402</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
-        <v>8.0136785621929398</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
+        <v>9.5984788976153546</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
-        <v>4.4631269111430889</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
+        <v>4.1875146552055078</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
-        <v>7.2102908554579974</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
+        <v>7.5394128209558096</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
-        <v>12.469883212694434</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
+        <v>14.935951067149098</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
-        <v>21.969402269467025</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
+        <v>20.640886885510454</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
-        <v>24.908248420872418</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
+        <v>28.141636729677451</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
-        <v>26.407751577161104</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
+        <v>28.749032199928823</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
-        <v>25.745817848736518</v>
+        <f ca="1">('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
+        <v>32.135774972758263</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
-        <v>30.301377008881595</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
+        <v>27.78004756691325</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
-        <v>27.962637835693695</v>
+        <f ca="1">('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
+        <v>32.911588576611905</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
-        <v>26.914236344401246</v>
+        <f ca="1">('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
+        <v>31.761777661106304</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
-        <v>25.744423092973793</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
+        <v>28.047355635804607</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
-        <v>27.366938140194762</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
+        <v>28.096350814499107</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
-        <v>23.128643961284972</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
+        <v>22.439113000185397</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
-        <v>23.251855079192318</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
+        <v>22.583467840248034</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
-        <v>20.586496068003523</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
+        <v>23.844540587682168</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
-        <v>19.34627195010285</v>
+        <f ca="1">('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
+        <v>21.706229469393598</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
-        <v>23.90237341046209</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
+        <v>26.276643151425976</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
-        <v>20.569182871605303</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
+        <v>22.401875857352994</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
-        <v>16.041294057550861</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
+        <v>17.476246318117717</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -17429,100 +17432,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
-        <v>-22.750368346810578</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
+        <v>-26.276327217394432</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
-        <v>-32.294644329961429</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
+        <v>-35.789235284548127</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
-        <v>-31.935638529058625</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
+        <v>-33.708950396106637</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
-        <v>-30.35723259143764</v>
+        <f ca="1">('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
+        <v>-32.724663054773259</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
-        <v>-30.261148222344996</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
+        <v>-37.531786517167419</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
-        <v>-32.623077474975979</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
+        <v>-36.602607856231934</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
-        <v>-27.408570513749506</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
+        <v>-27.990992329732741</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
-        <v>-4.3539295331772232</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
+        <v>-5.1773371193762339</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
-        <v>12.967231011316875</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
+        <v>14.444439441724834</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
-        <v>19.507026746564708</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
+        <v>24.419956829094236</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
-        <v>15.828920767292484</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
+        <v>18.663039562991806</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
-        <v>19.766772257068521</v>
+        <f ca="1">('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
+        <v>25.569957729630072</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
-        <v>20.659902397979252</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
+        <v>22.901393215545585</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
-        <v>21.683493137503568</v>
+        <f ca="1">('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
+        <v>20.128038080269572</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
-        <v>9.4268304594649859</v>
+        <f ca="1">('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
+        <v>11.613701217189178</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
-        <v>2.6712980101237518</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
+        <v>2.9925474105360172</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
-        <v>5.9425736659521897</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
+        <v>5.6523613387015388</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
-        <v>6.6520411920246412</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
+        <v>8.0862273377166449</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
-        <v>4.0928724830074223</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
+        <v>4.5958938193017822</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
-        <v>-0.80327709598240704</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
+        <v>-0.9259355769236659</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
-        <v>-2.9185275884755497</v>
+        <f ca="1">('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
+        <v>-3.1461310467364743</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
-        <v>-1.9872932312513085</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
+        <v>-2.28198721615041</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
-        <v>-9.9449184802868249</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
+        <v>-11.167166718916663</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
-        <v>-14.723249720021389</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
+        <v>-14.359885924645864</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -17530,100 +17533,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
-        <v>-34.176824678486845</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
+        <v>-36.45431687683363</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
-        <v>-38.853653318700836</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
+        <v>-35.290881231828315</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
-        <v>-40.094933495045559</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
+        <v>-45.472899138257944</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
-        <v>-49.457726784220142</v>
+        <f ca="1">('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
+        <v>-55.877930760914303</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
-        <v>-49.457726784220142</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
+        <v>-46.650382561864227</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
-        <v>-46.604396392822828</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
+        <v>-51.776798228003152</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
-        <v>-18.393208053025752</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
+        <v>-22.280516407494204</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
-        <v>3.616064015108539</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
+        <v>4.5336194828588461</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
-        <v>12.731467181002969</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
+        <v>12.782473288486269</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
-        <v>13.730013626571829</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
+        <v>12.917025638891388</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
-        <v>12.211799641061875</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
+        <v>11.31870459120028</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
-        <v>15.884386154680657</v>
+        <f ca="1">('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
+        <v>17.123141352826885</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
-        <v>23.920276432090102</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
+        <v>24.613638259990427</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
-        <v>22.86207746214302</v>
+        <f ca="1">('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
+        <v>25.853080787293845</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
-        <v>13.325154441759903</v>
+        <f ca="1">('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
+        <v>14.093301105826486</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
-        <v>9.0247629636795423</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
+        <v>10.363037214662601</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
-        <v>-1.6877509052493165</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
+        <v>-1.5447492720905487</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
-        <v>-1.6877509052493165</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
+        <v>-1.7335519609016159</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
-        <v>-1.5603734784380474</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
+        <v>-1.7507158417026218</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
-        <v>-1.7195952619521337</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
+        <v>-1.6992241992996036</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
-        <v>-10.650731274551642</v>
+        <f ca="1">('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
+        <v>-11.700028276562422</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
-        <v>-13.383818813475528</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
+        <v>-15.408079640684187</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
-        <v>-33.425333568234599</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
+        <v>-41.123514870874423</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
-        <v>-39.60175390149535</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
+        <v>-42.690124961193455</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -18477,100 +18480,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
-        <v>12.075021192991713</v>
+        <f ca="1">('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <v>11.833363949212062</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
-        <v>10.279784546381721</v>
+        <f ca="1">('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <v>10.879979778554461</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
-        <v>9.2988340280253645</v>
+        <f ca="1">('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <v>9.8330767120959113</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
-        <v>7.5025888736256308</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <v>8.7547090785299115</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
-        <v>9.2602507829785079</v>
+        <f ca="1">('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <v>8.6386310078538209</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
-        <v>4.2151754160795836</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <v>4.6329949376741792</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
-        <v>6.4892617699121971</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <v>7.7725905370678454</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
-        <v>13.716871533963877</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <v>13.591715471105681</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
-        <v>19.752306627594205</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <v>19.554524417852011</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
-        <v>23.710736477561245</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <v>27.625276422710897</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
-        <v>23.531659821232665</v>
+        <f ca="1">('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <v>25.366793117584258</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
-        <v>25.47480923980245</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <v>30.675057928541978</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
-        <v>30.584567448216937</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <v>31.443350542769945</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
-        <v>28.818636953112893</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <v>33.219173516580248</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
-        <v>29.180698352350827</v>
+        <f ca="1">('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <v>31.456375952826438</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
-        <v>28.209314665705328</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <v>28.933061603251069</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
-        <v>25.542475597515111</v>
+        <f ca="1">('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <v>26.691533273774152</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
-        <v>24.978935478187768</v>
+        <f ca="1">('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <v>23.935053866864422</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
-        <v>21.410123983810749</v>
+        <f ca="1">('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <v>26.554187460511425</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
-        <v>22.119533009237831</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <v>25.497132509600736</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
-        <v>21.517792271032764</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <v>19.578167756707952</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
-        <v>24.612344897901561</v>
+        <f ca="1">('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <v>26.021530111120871</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
-        <v>20.569182871605303</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <v>21.030332437515057</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
-        <v>17.577162637529135</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <v>17.10832534299945</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -18578,100 +18581,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
-        <v>-22.053928499459232</v>
+        <f ca="1">('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <v>-24.524572069568134</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
-        <v>-31.389187012298958</v>
+        <f ca="1">('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <v>-31.559598387283351</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
-        <v>-31.935638529058625</v>
+        <f ca="1">('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <v>-39.088038225272598</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
-        <v>-30.053660265523263</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <v>-35.669882729702856</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
-        <v>-32.213480365722098</v>
+        <f ca="1">('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <v>-38.584079597088007</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
-        <v>-32.955966020638996</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <v>-33.372965986564409</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
-        <v>-31.159217005104704</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <v>-34.211212847451129</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
-        <v>-4.1743860472730079</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <v>-4.8870191500654165</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
-        <v>13.975793423308186</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <v>15.376338760545789</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
-        <v>22.443568407337885</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <v>24.646067540474739</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
-        <v>15.00449781066267</v>
+        <f ca="1">('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <v>16.352377521859484</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
-        <v>20.864926271350104</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <v>24.386163390295344</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
-        <v>19.100664481150627</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <v>22.901393215545585</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
-        <v>21.482720052897051</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <v>22.508773767183175</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
-        <v>10.04837972052861</v>
+        <f ca="1">('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <v>10.273658769051965</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
-        <v>2.6451088139460679</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <v>2.8231579344679409</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
-        <v>6.0008341920889761</v>
+        <f ca="1">('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <v>6.4688135320695395</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
-        <v>6.4397420050451322</v>
+        <f ca="1">('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <v>7.3996608656463616</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
-        <v>3.8797020411841197</v>
+        <f ca="1">('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <v>4.8716474484598891</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
-        <v>-0.77941738026015728</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <v>-0.90878862179544984</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
-        <v>-3.1358647493194738</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <v>-3.4808258389424824</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
-        <v>-2.3545104587651373</v>
+        <f ca="1">('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <v>-2.3518439676652183</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
-        <v>-9.9449184802868249</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <v>-12.172211723619164</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
-        <v>-12.76014975735187</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <v>-16.324922945913194</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -18679,100 +18682,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
-        <v>-35.615848875475763</v>
+        <f ca="1">('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <v>-42.65930698352873</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
-        <v>-38.493897269453605</v>
+        <f ca="1">('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <v>-42.271495101860289</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
-        <v>-45.524455739166321</v>
+        <f ca="1">('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <v>-48.624486207246122</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
-        <v>-47.555506523288599</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <v>-49.213590394933689</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
-        <v>-47.07995145805571</v>
+        <f ca="1">('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <v>-53.314722927844826</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
-        <v>-44.702176131891285</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <v>-55.877930760914303</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
-        <v>-19.720552964068848</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <v>-22.076108000085998</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
-        <v>4.0091144515333799</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <v>4.575989758399583</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
-        <v>12.856285486699075</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <v>12.64792093808115</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
-        <v>12.232193958218538</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <v>13.320682690106743</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
-        <v>11.869412735237709</v>
+        <f ca="1">('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <v>12.918086761695971</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
-        <v>16.686627879664531</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <v>17.642024424124667</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
-        <v>21.093334671933999</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <v>21.800651030277233</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
-        <v>20.396559304460933</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <v>24.886610477488464</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
-        <v>11.313810375079163</v>
+        <f ca="1">('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <v>12.331638467598177</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
-        <v>8.9266677140743287</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <v>9.5170749930574914</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
-        <v>-1.4648404083295956</v>
+        <f ca="1">('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <v>-1.8365352457076525</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
-        <v>-1.4329960516267781</v>
+        <f ca="1">('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <v>-1.888026888110671</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
-        <v>-1.5762956567894557</v>
+        <f ca="1">('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <v>-1.5447492720905487</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
-        <v>-1.6399843701950905</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <v>-1.647732556896585</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
-        <v>-9.2306337712780895</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <v>-10.278529513989417</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
-        <v>-12.734118871073804</v>
+        <f ca="1">('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <v>-13.447051322778925</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
-        <v>-38.511797372096389</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <v>-39.948557303135154</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
-        <v>-33.062014725101619</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <v>-39.556904780555392</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -19626,100 +19629,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
-        <v>12.562900837152995</v>
+        <f ca="1">('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <v>12.885218522475355</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
-        <v>9.6256164388847019</v>
+        <f ca="1">('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <v>10.879979778554461</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
-        <v>8.5017911113374751</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <v>9.3557428911203822</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
-        <v>7.734627704768692</v>
+        <f ca="1">('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <v>7.6707927164262069</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
-        <v>8.1917603080194503</v>
+        <f ca="1">('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <v>8.926585374782281</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
-        <v>4.2151754160795836</v>
+        <f ca="1">('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <v>4.5438988811804455</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
-        <v>7.1381879469034164</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <v>8.2389459692919154</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
-        <v>14.409642823558013</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <v>14.935951067149098</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
-        <v>19.550752478333038</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <v>22.813611820827344</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
-        <v>23.710736477561245</v>
+        <f ca="1">('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <v>25.818015348327936</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
-        <v>23.79312270813525</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <v>29.030885456790873</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
-        <v>26.558843675538725</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <v>27.169337022422894</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
-        <v>27.752663054863515</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <v>31.443350542769945</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
-        <v>27.391971757414229</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <v>28.297814477086874</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
-        <v>28.330775099369731</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <v>30.845572536266697</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
-        <v>27.661560982876097</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <v>30.114002893179684</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
-        <v>28.670125670680228</v>
+        <f ca="1">('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <v>28.377314322644096</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
-        <v>22.203498202833568</v>
+        <f ca="1">('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <v>23.935053866864422</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
-        <v>22.330989531501533</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <v>22.33529786398157</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
-        <v>21.243511899961081</v>
+        <f ca="1">('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <v>25.497132509600736</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
-        <v>21.122970394500054</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <v>22.344647983199295</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
-        <v>23.90237341046209</v>
+        <f ca="1">('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <v>23.980625788680015</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
-        <v>22.477663756599615</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <v>21.258923007488047</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
-        <v>17.065206444203042</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <v>18.028127780795121</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19727,100 +19730,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
-        <v>-24.60754127308083</v>
+        <f ca="1">('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <v>-24.524572069568134</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
-        <v>-27.465538635761586</v>
+        <f ca="1">('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <v>-29.607458280853454</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
-        <v>-30.937649825025545</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <v>-36.219191383050749</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
-        <v>-27.928653984122629</v>
+        <f ca="1">('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <v>-35.015389468607388</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
-        <v>-34.16581250909919</v>
+        <f ca="1">('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <v>-36.479493437246838</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
-        <v>-29.959969109671817</v>
+        <f ca="1">('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <v>-38.755702436010282</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
-        <v>-28.27410431944686</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <v>-29.546047459162338</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
-        <v>-4.5783588905574923</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <v>-4.5967011807546001</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
-        <v>15.416596869010061</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <v>16.152921526229921</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
-        <v>22.863074358876911</v>
+        <f ca="1">('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <v>21.480517581147705</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
-        <v>17.147997497900196</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <v>19.374012498724824</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
-        <v>23.939757511338545</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <v>24.859681126029237</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
-        <v>18.12614078313274</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <v>19.959929866759911</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
-        <v>20.478854629864479</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <v>20.993760148238156</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
-        <v>10.980703612124048</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <v>11.502031013177742</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
-        <v>2.854622383367539</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <v>2.7384631964339023</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
-        <v>5.826052613678617</v>
+        <f ca="1">('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <v>6.4688135320695395</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
-        <v>7.2889387529631717</v>
+        <f ca="1">('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <v>6.865664720702811</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
-        <v>4.1355065713720833</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <v>4.8256885102668718</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
-        <v>-0.77146414168607402</v>
+        <f ca="1">('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <v>-0.86592123397490972</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
-        <v>-3.3532019101633979</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <v>-3.3469479220600791</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
-        <v>-2.2033033650829723</v>
+        <f ca="1">('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <v>-2.5614142222096437</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
-        <v>-9.3233610752689007</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <v>-10.497136715781664</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
-        <v>-13.741699738686627</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <v>-14.359885924645864</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -19828,100 +19831,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
-        <v>-35.975604924722994</v>
+        <f ca="1">('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <v>-41.10805945685496</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
-        <v>-39.213409367948067</v>
+        <f ca="1">('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <v>-38.393376285175854</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
-        <v>-39.259622380565446</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <v>-47.72403275896378</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
-        <v>-50.408836914685914</v>
+        <f ca="1">('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <v>-55.365289194300402</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
-        <v>-44.226621066658396</v>
+        <f ca="1">('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <v>-52.80208136123094</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
-        <v>-46.128841327589939</v>
+        <f ca="1">('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <v>-55.877930760914303</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
-        <v>-19.530932262491266</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <v>-20.849657555636774</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
-        <v>4.2449447133882847</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <v>3.8133247986663186</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
-        <v>13.480377015179615</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <v>14.800758544563049</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
-        <v>12.981103792395183</v>
+        <f ca="1">('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <v>13.455235040511862</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
-        <v>10.72812304915716</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <v>11.810822182122029</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
-        <v>15.082144429696784</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <v>17.814985447890599</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
-        <v>22.398077022775276</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <v>22.50389783770553</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
-        <v>20.620697318795667</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <v>26.336315942196531</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
-        <v>11.690937387581801</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <v>12.738175999497015</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
-        <v>9.2209534628899643</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <v>10.680273047764517</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
-        <v>-1.7355174403035425</v>
+        <f ca="1">('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <v>-1.6648964376975914</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
-        <v>-1.6240621918436817</v>
+        <f ca="1">('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <v>-1.8193713649066463</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
-        <v>-1.5922178351408645</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <v>-1.6134047952945729</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
-        <v>-1.4807625866810041</v>
+        <f ca="1">('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <v>-1.8536991265086584</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
-        <v>-9.5349403791224212</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <v>-11.043951924605651</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
-        <v>-13.513758801955873</v>
+        <f ca="1">('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <v>-15.26800618940524</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
-        <v>-34.878608940766533</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <v>-39.165252257975638</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
-        <v>-33.062014725101619</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <v>-38.381947212816129</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27827,8 +27830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733855D1-7FFC-4693-9247-9877B2F5B373}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28314,100 +28317,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>57.152779703945527</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>59.506271809272462</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>56.791029802990096</v>
+        <f ca="1">('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>62.53423710348968</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>49.09226455251688</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>54.674868930958553</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>53.451125412019287</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>49.912181228191741</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>51.366275277805322</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>52.046637411166188</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>55.90646632909106</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>54.473768986412864</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>60.57463575856891</v>
+        <f ca="1">('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>75.942853505177666</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>65.889321036976341</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>70.233080738789326</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>74.866446702524485</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>82.278282714368117</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>76.04716132515972</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>86.080876283568045</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>79.599779433833916</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>80.754803619095995</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>78.860970990319146</v>
+        <f ca="1">('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>79.175151232453075</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>71.031932618568206</v>
+        <f ca="1">('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>91.350494974563617</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>71.668835250173274</v>
+        <f ca="1">('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>89.263867466259057</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>74.589013228031362</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>73.265883261320241</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>65.411274275186003</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>83.450272051312439</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>70.052490241404058</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>87.376120997472242</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>90.011232308829591</v>
+        <f ca="1">('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>99.609176159432621</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>84.300252678520906</v>
+        <f ca="1">('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>99.059448536588604</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>81.102057469608241</v>
+        <f ca="1">('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>88.299848323179575</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>85.684581678881713</v>
+        <f ca="1">('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>88.70992242467662</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>83.027125074530318</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>79.202683416220665</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>77.173408294523284</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>86.094953486223304</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>71.009681516832813</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>77.667687918842432</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -28415,100 +28418,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>66.346221922475522</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>65.335695628814278</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>66.238775519104678</v>
+        <f ca="1">('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>64.387108798921929</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>59.338147886423471</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>59.64022073564486</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>51.314565820765353</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>55.615710873946533</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>58.784782503924575</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>61.986121764883478</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>66.852811818248327</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>63.594568326974603</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>77.728495956798966</v>
+        <f ca="1">('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>77.476467257020673</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>82.003592220898696</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>89.273346700445572</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>94.716046590090727</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>98.08226985330306</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>92.357252769621013</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>111.61146406044749</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>95.072387812878617</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>96.567811103288705</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>90.167364868229839</v>
+        <f ca="1">('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>91.242310924972216</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>83.98295056701447</v>
+        <f ca="1">('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>90.471750685963158</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>100.36844715047152</v>
+        <f ca="1">('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>107.11441891758372</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>78.711182194460818</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>98.444717969322568</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>89.656181219734179</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>98.307001943563407</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>82.353724098094446</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>94.25982288550388</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>99.68282646035469</v>
+        <f ca="1">('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>112.44906141098097</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>100.513011780157</v>
+        <f ca="1">('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>108.27294509416744</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>90.729153125978925</v>
+        <f ca="1">('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>107.75359953435297</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>93.197058969730449</v>
+        <f ca="1">('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>100.38112830272182</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>81.022937748755581</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>102.03421433985038</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>85.300827236708756</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>87.685344345955286</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>76.938427199512333</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>77.533161606014474</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -28516,100 +28519,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>73.67701050048359</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>83.388448718700957</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>70.861607605201385</v>
+        <f ca="1">('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>78.008826733848466</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>65.209794459171604</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>59.557953945172038</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>67.719608409599118</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>75.941751262875997</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>63.06566553160085</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>73.592087583720954</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>64.417629105292761</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>64.42946953642199</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>101.65060561318174</v>
+        <f ca="1">('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>109.28738446579064</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>114.9554407896271</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>104.65161654740243</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>107.49518961567119</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>119.55213590420507</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>117.01492398107105</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>114.9151707782864</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>98.285235968177432</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>125.82531920575057</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>117.12136780281355</v>
+        <f ca="1">('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>121.08114497502125</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>106.36734718304669</v>
+        <f ca="1">('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>123.04727369262065</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>101.50485936010679</v>
+        <f ca="1">('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>117.20132814404309</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>112.84652281814763</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>101.74967123547836</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>103.63651220021497</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>94.144345238081613</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>95.263273111867932</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>107.73928183355545</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>97.854428396990414</v>
+        <f ca="1">('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>102.06015287046934</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>98.981773104993536</v>
+        <f ca="1">('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>120.72063719154639</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>100.07913040203601</v>
+        <f ca="1">('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>121.04301518406736</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>105.82029112309833</v>
+        <f ca="1">('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>102.16931685595031</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>85.348120683505215</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>93.877636113132709</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>84.403476307541681</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>86.590927172555894</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>83.314296695497475</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>79.142440101029194</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -29461,100 +29464,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>59.407792199074976</v>
+        <f ca="1">('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>59.506271809272462</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>53.318844358620098</v>
+        <f ca="1">('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>57.187142380748284</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>53.295138728761899</v>
+        <f ca="1">('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>48.634017837128674</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>51.605364050730493</v>
+        <f ca="1">('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>50.40960732299272</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>52.332257728254227</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>54.649925615430973</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>57.470928641078714</v>
+        <f ca="1">('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>61.219641077023311</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>70.013623203056767</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>67.802778608199773</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>63.778885018967792</v>
+        <f ca="1">('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>83.88320000706554</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>74.866446702524485</v>
+        <f ca="1">('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>87.896719867520844</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>79.126752492440147</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>86.080876283568045</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>77.268953394164001</v>
+        <f ca="1">('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>81.59233601007557</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>84.242838615374268</v>
+        <f ca="1">('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>79.175151232453075</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>77.1477380921975</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>80.637274711513413</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>69.422703251650631</v>
+        <f ca="1">('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>86.035469857581532</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>72.414379574780526</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>74.047291265226761</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>70.393543677007983</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>80.381234771756425</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>73.738299668929329</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>72.277771347221588</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>81.665515555179837</v>
+        <f ca="1">('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>96.010550785513686</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>92.809705348198619</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>84.382539075518054</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>87.9500504089618</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>89.222603143084569</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>79.87077140696438</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>84.233347840448261</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>83.027125074530318</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>79.202683416220665</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>72.114397321441928</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>74.408793007532779</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>68.454427484143991</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>69.404105889035378</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -29562,100 +29565,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>62.714159347355341</v>
+        <f ca="1">('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>62.725487916222725</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>64.544875433836197</v>
+        <f ca="1">('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>70.473775775992124</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>55.593095650839757</v>
+        <f ca="1">('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>56.179838328175734</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>54.501897740897867</v>
+        <f ca="1">('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>60.769558288194013</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>55.021374394268832</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>66.043021943617887</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>57.988244486101294</v>
+        <f ca="1">('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>68.691036031613052</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>72.792287691587262</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>76.716301258166467</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>82.852405050992431</v>
+        <f ca="1">('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>89.273346700445572</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>100.26080573237432</v>
+        <f ca="1">('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>104.05944099710102</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>84.87205097679842</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>94.464965284998783</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>100.53478877098976</v>
+        <f ca="1">('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>91.660819271774955</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>86.506994933061492</v>
+        <f ca="1">('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>102.09333379619002</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>92.212014944869594</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>95.399980597167996</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>88.676119802257816</v>
+        <f ca="1">('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>88.692951603368243</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>88.889016197844668</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>84.730268398493891</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>78.122240037553468</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>87.649781524478627</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>89.217731460373372</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>89.635259211520136</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>95.87838593849159</v>
+        <f ca="1">('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>107.32264574484205</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>102.40833652272764</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>102.14354610565496</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>90.729153125978925</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>93.747769959254398</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>99.581635949848135</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>90.549010052045361</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>77.603471521683602</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>90.054273175716489</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>71.091692761409078</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>88.491515081473395</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>73.545981992260167</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>76.070358618229349</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -29663,100 +29666,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>68.290167949750796</v>
+        <f ca="1">('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>84.84018354722059</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>70.235891172365257</v>
+        <f ca="1">('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>79.35785348526403</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>66.342281930023077</v>
+        <f ca="1">('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>68.713993807931118</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>64.674470205939159</v>
+        <f ca="1">('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>73.972181974176806</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>63.06566553160085</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>63.778586506979579</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>63.784933906672649</v>
+        <f ca="1">('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>67.839651464048671</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>106.35855544017922</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>105.22730234063079</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>114.9554407896271</v>
+        <f ca="1">('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>104.65161654740243</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>115.54340297116676</v>
+        <f ca="1">('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>131.94622022088404</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>118.16527556989918</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>129.79592172639809</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>110.2381747634296</v>
+        <f ca="1">('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>118.79708433479391</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>113.55470481356691</v>
+        <f ca="1">('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>131.33397630729908</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>120.94323612955246</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>127.88191986351481</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>113.05059221397053</v>
+        <f ca="1">('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>103.62372624307673</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>112.84652281814763</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>109.42952341364338</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>103.63651220021497</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>96.194666341422035</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>92.408463194501948</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>103.63602275683373</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>104.90647336891784</v>
+        <f ca="1">('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>109.66215660576781</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>93.944598125045374</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>120.72063719154639</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>95.988704659924807</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>116.63359466926998</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>98.855332879132575</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>117.18556782927729</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>84.449011439698836</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>102.60067839570409</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>82.882595082789777</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>91.509391872171634</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>79.634984392136928</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>76.762692440472378</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -30608,100 +30611,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>63.354064065551519</v>
+        <f ca="1">('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>62.544860878003512</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>55.798976818884384</v>
+        <f ca="1">('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>51.840047658006895</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>52.828152709179122</v>
+        <f ca="1">('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>49.13742209494783</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>44.683758945897537</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>54.389016081400541</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>51.849266503029774</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>52.567295052019148</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>53.299029142444979</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>53.911612978861996</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>64.97949656599657</v>
+        <f ca="1">('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>67.802778608199773</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>69.406714400323949</v>
+        <f ca="1">('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>69.474740779440651</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>69.654469327137761</v>
+        <f ca="1">('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>76.659845561215405</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>77.586956908799934</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>91.06050920920562</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>74.161185341270794</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>80.754803619095995</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>77.32329452601769</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>91.607100693743888</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>77.91221377640116</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>86.405931776232762</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>80.653363244263886</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>81.99997284673465</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>74.589013228031362</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>84.205595316011596</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>70.393543677007983</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>71.941382252977391</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>71.526814012414164</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>81.018921144735117</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>76.658085502989962</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>93.311581755074485</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>90.25686954729531</v>
+        <f ca="1">('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>94.472914330004045</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>81.958056587027443</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>101.21841580184967</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>91.498391950799032</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>88.70992242467662</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>80.649388772514271</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>83.474626358878979</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>76.450692441225954</v>
+        <f ca="1">('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>85.315876120977279</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>73.564935549521635</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>69.404105889035378</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -30709,100 +30712,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>68.162253210035615</v>
+        <f ca="1">('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>69.903559125849526</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>58.333908454518422</v>
+        <f ca="1">('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>63.169775403507884</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>55.593095650839757</v>
+        <f ca="1">('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>63.677333544358838</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>57.158007674341633</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>56.188360586640698</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>56.096633854170477</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>61.406564596492849</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>64.488927196342459</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>66.142802179293824</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>67.856079426375544</v>
+        <f ca="1">('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>85.838293244417073</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>93.038159012117134</v>
+        <f ca="1">('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>97.508419643918785</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>93.791920066376804</v>
+        <f ca="1">('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>108.04422175963299</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>85.807701200901235</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>91.439112559919593</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>86.878786375711897</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>107.36319313261902</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>97.488104738566562</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>108.99853016878316</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>91.297674458441236</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>102.29950247285481</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>99.469037354455082</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>90.632053425917235</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>86.344557696998706</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>94.78753141710159</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>83.889210628643823</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>93.866493435611417</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>92.649735141512835</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>94.25982288550388</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>103.48726698221778</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>99.12038067901976</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>104.30366126529826</v>
+        <f ca="1">('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>100.10041310948414</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>98.153491946705358</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>92.747353561033066</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>84.076234712419492</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>91.532221877113031</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>82.732670862291585</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>99.269612532742542</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>82.309430505066715</v>
+        <f ca="1">('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>88.491515081473395</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>66.082602536305416</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>70.950548160981413</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -30810,100 +30813,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>69.636878587433998</v>
+        <f ca="1">('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>83.388448718700957</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>71.487324038037514</v>
+        <f ca="1">('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>69.914666225355177</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>64.077306988320132</v>
+        <f ca="1">('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>67.493188492896579</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>65.283497846671153</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>64.124335530680824</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>63.06566553160085</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>65.087053317211755</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>60.621457913572073</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>67.157615078523335</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>94.117885889985772</v>
+        <f ca="1">('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>99.13717915289098</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>96.078809392879265</v>
+        <f ca="1">('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>109.17355854229484</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>106.3454448506004</v>
+        <f ca="1">('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>114.59450217753351</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>123.91703351403984</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>117.395295936305</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>105.89165156515607</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>129.3394366412289</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>113.55470481356691</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>126.20756064116017</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>106.36734718304669</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>126.67325832079126</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>101.50485936010679</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>114.93839449388203</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>93.509241459638687</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>111.6237668931191</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>94.126548030826882</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>112.5972351681454</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>102.87609955817724</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>102.61020798765328</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>105.91390836490747</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>103.14615340408339</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>111.07099305686914</v>
+        <f ca="1">('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>116.37663505709013</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>94.966098224397001</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>121.04301518406736</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>90.895380600314581</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>101.09672750071269</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>86.247229927311594</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>93.877636113132709</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>74.517748346654329</v>
+        <f ca="1">('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>80.852718356337533</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>84.05015915616957</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>83.901935422142842</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -31755,100 +31758,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
-        <v>10.28460320813538</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
+        <v>12.973745603729954</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
-        <v>8.7772242675890961</v>
+        <f ca="1">('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
+        <v>9.4617223703733391</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
-        <v>7.0802673953201198</v>
+        <f ca="1">('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
+        <v>7.4766632860746531</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
-        <v>7.4941050111432492</v>
+        <f ca="1">('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
+        <v>8.0785381423707889</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
-        <v>8.6782134200685466</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
+        <v>8.4887873049778317</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
-        <v>9.8772646164092812</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
+        <v>10.970203186283481</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
-        <v>15.01506797732155</v>
+        <f ca="1">('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
+        <v>16.686627604722386</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
-        <v>18.708473943418362</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
+        <v>22.408297382887273</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
-        <v>22.924991228035278</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
+        <v>25.418893413489432</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
-        <v>26.446759249502474</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
+        <v>25.139956178995742</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
-        <v>26.427495530583389</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
+        <v>25.613480174257759</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
-        <v>25.001202385315761</v>
+        <f ca="1">('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
+        <v>24.127507302404304</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
-        <v>23.433835796114462</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
+        <v>26.292415326863328</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
-        <v>22.247984243098148</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
+        <v>23.727870787187694</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
-        <v>22.632409403625807</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
+        <v>20.944949766700162</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
-        <v>18.662825965559573</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
+        <v>20.118259776586822</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
-        <v>21.56293040641637</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
+        <v>23.695881048591833</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
-        <v>31.101301266230745</v>
+        <f ca="1">('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
+        <v>32.911588576611905</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
-        <v>30.20139514387008</v>
+        <f ca="1">('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
+        <v>32.249534092635578</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
-        <v>30.108463933150269</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
+        <v>29.181067995514113</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
-        <v>27.101534819100014</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
+        <v>30.31752273891966</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
-        <v>21.82849606481129</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
+        <v>26.472157784212246</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
-        <v>19.28748106096004</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
+        <v>20.391790025591426</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
-        <v>14.370370924960724</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
+        <v>15.491054564179542</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -31856,100 +31859,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
-        <v>-25.736502337910284</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
+        <v>-31.621716950182595</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
-        <v>-30.378241132922927</v>
+        <f ca="1">('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
+        <v>-30.47769442042317</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
-        <v>-29.157826396530908</v>
+        <f ca="1">('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
+        <v>-31.431720311197839</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
-        <v>-31.518503996795538</v>
+        <f ca="1">('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
+        <v>-36.056690736329529</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
-        <v>-30.62574620099786</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
+        <v>-37.320306049491379</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
-        <v>-32.004014600311514</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
+        <v>-34.180427288971266</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
-        <v>-23.612252821507166</v>
+        <f ca="1">('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
+        <v>-25.215786442778793</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
-        <v>-9.8101074150458025</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
+        <v>-9.5959745692278577</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
-        <v>-2.4342670324100451</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
+        <v>-2.5952687657508795</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
-        <v>-0.39753905643470738</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
+        <v>-0.48718393425958362</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
-        <v>-3.7942819023143497</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
+        <v>-4.4546533215626738</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
-        <v>-2.982812834678338</v>
+        <f ca="1">('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
+        <v>-3.2154296237738538</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
-        <v>-3.7081114495982921</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
+        <v>-4.5330106041931391</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
-        <v>-3.7406266207567449</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
+        <v>-3.8244893756926106</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
-        <v>-10.333808588998895</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
+        <v>-10.929515049996111</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
-        <v>-13.618718862431733</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
+        <v>-14.98348096388913</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
-        <v>-12.361081980305517</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
+        <v>-13.998053108773966</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
-        <v>-3.9211418089385024</v>
+        <f ca="1">('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
+        <v>-4.2269348532016426</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
-        <v>-6.0138474199134135</v>
+        <f ca="1">('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
+        <v>-6.4828416057592939</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
-        <v>-7.4038236477890704</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
+        <v>-7.5611521159775785</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
-        <v>-12.119783107822476</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
+        <v>-12.141168489848713</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
-        <v>-15.096618468436896</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
+        <v>-16.616548283953286</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
-        <v>-21.959781035672112</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
+        <v>-22.753016446550443</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
-        <v>-22.077857750025021</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
+        <v>-26.386529955097288</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -31957,100 +31960,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
-        <v>38.391005754549127</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
+        <v>44.695752215776778</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
-        <v>48.98217171898726</v>
+        <f ca="1">('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
+        <v>53.314722927844826</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
-        <v>46.128841327589939</v>
+        <f ca="1">('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
+        <v>56.39057232752819</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
-        <v>51.835502110384581</v>
+        <f ca="1">('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
+        <v>53.82736449445872</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
-        <v>51.359947045151685</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
+        <v>49.213590394933689</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
-        <v>40.073283322808642</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
+        <v>37.383254083706326</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
-        <v>15.904217579316025</v>
+        <f ca="1">('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
+        <v>20.53574295203282</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
-        <v>2.1150032734031758</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
+        <v>2.6195093396207016</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
-        <v>-13.691736926761395</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
+        <v>-13.907987377695047</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
-        <v>-11.848618494312745</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
+        <v>-14.333742093338772</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
-        <v>-1.190483583772449</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
+        <v>-1.2222136154664038</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
-        <v>-12.630791708409461</v>
+        <f ca="1">('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
+        <v>-15.095792696198659</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
-        <v>-13.179956565296829</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
+        <v>-15.539786599028032</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
-        <v>-9.883378477779722</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
+        <v>-12.601671921794919</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
-        <v>-1.2424830479908353</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
+        <v>-1.4533686758797248</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
-        <v>8.3030245864234793</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
+        <v>7.7456612495952282</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
-        <v>10.309515131554271</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
+        <v>12.189011002459365</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
-        <v>11.307210144285328</v>
+        <f ca="1">('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
+        <v>12.308511110326616</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
-        <v>12.194050155601824</v>
+        <f ca="1">('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
+        <v>11.472010355255874</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
-        <v>10.752935137212518</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
+        <v>12.069510894592117</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
-        <v>12.194050155601824</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
+        <v>12.547511326061112</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
-        <v>23.11683780665</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
+        <v>22.427658820753379</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
-        <v>37.456342494867464</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
+        <v>35.806375459468612</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
-        <v>37.102980773217773</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
+        <v>35.425456571601927</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE_9/ieee9/ieee9_2030.xlsx
+++ b/data/IEEE_9/ieee9/ieee9_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6264AE-5F34-45AF-9744-F0659B94387E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E8C76A-E1A8-4C09-93AB-4151E0D85974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25035" yWindow="3645" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="4725" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8912,99 +8912,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>9.1855047296540899</v>
+        <v>15.309174549423485</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>8.48874398298444</v>
+        <v>14.147906638307401</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>8.9873752658681294</v>
+        <v>14.978958776446882</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>8.9482391693719929</v>
+        <v>14.91373194895332</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>7.3671845964401648</v>
+        <v>12.278640994066942</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>7.4724925556923774</v>
+        <v>12.454154259487296</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>7.4885581551550429</v>
+        <v>12.480930258591737</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>6.7248920855255783</v>
+        <v>11.208153475875964</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>6.0733361132878105</v>
+        <v>10.122226855479685</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>4.3901542594872938</v>
+        <v>7.316923765812156</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>4.0492504197917834</v>
+        <v>6.7487506996529714</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>2.7166237546177094</v>
+        <v>4.5277062576961828</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>2.2578567390574276</v>
+        <v>3.7630945650957126</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>2.1618386880107465</v>
+        <v>3.603064480017911</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>2.9991716668532407</v>
+        <v>4.9986194447554011</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>4.0571827213701992</v>
+        <v>6.7619712022836653</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>4.5361516287921191</v>
+        <v>7.5602527146535321</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>6.2299774711742986</v>
+        <v>10.383295785290498</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>5.6666571140714197</v>
+        <v>9.4444285234523662</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>5.3870536214037834</v>
+        <v>8.978422702339639</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>7.1080809638419353</v>
+        <v>11.846801606403226</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>8.5015195902832197</v>
+        <v>14.169199317138698</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>8.037673010186948</v>
+        <v>13.396121683644912</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>11.424940333594536</v>
+        <v>19.041567222657562</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9013,99 +9013,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>9.1855047296540899</v>
+        <v>15.309174549423485</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>8.48874398298444</v>
+        <v>14.147906638307401</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>8.9873752658681294</v>
+        <v>14.978958776446882</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>8.9482391693719929</v>
+        <v>14.91373194895332</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>7.3671845964401648</v>
+        <v>12.278640994066942</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>7.4724925556923774</v>
+        <v>12.454154259487296</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>7.4885581551550429</v>
+        <v>12.480930258591737</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>6.7248920855255783</v>
+        <v>11.208153475875964</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>6.0733361132878105</v>
+        <v>10.122226855479685</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>4.3901542594872938</v>
+        <v>7.316923765812156</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>4.0492504197917834</v>
+        <v>6.7487506996529714</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>2.7166237546177094</v>
+        <v>4.5277062576961828</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>2.2578567390574276</v>
+        <v>3.7630945650957126</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>2.1618386880107465</v>
+        <v>3.603064480017911</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>2.9991716668532407</v>
+        <v>4.9986194447554011</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>4.0571827213701992</v>
+        <v>6.7619712022836653</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>4.5361516287921191</v>
+        <v>7.5602527146535321</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>6.2299774711742986</v>
+        <v>10.383295785290498</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>5.6666571140714197</v>
+        <v>9.4444285234523662</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>5.3870536214037834</v>
+        <v>8.978422702339639</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>7.1080809638419353</v>
+        <v>11.846801606403226</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>8.5015195902832197</v>
+        <v>14.169199317138698</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>8.037673010186948</v>
+        <v>13.396121683644912</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>11.424940333594536</v>
+        <v>19.041567222657562</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9114,99 +9114,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>9.1855047296540899</v>
+        <v>15.309174549423485</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>8.48874398298444</v>
+        <v>14.147906638307401</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>8.9873752658681294</v>
+        <v>14.978958776446882</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>8.9482391693719929</v>
+        <v>14.91373194895332</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>7.3671845964401648</v>
+        <v>12.278640994066942</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>7.4724925556923774</v>
+        <v>12.454154259487296</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>7.4885581551550429</v>
+        <v>12.480930258591737</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>6.7248920855255783</v>
+        <v>11.208153475875964</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>6.0733361132878105</v>
+        <v>10.122226855479685</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>4.3901542594872938</v>
+        <v>7.316923765812156</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>4.0492504197917834</v>
+        <v>6.7487506996529714</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>2.7166237546177094</v>
+        <v>4.5277062576961828</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>2.2578567390574276</v>
+        <v>3.7630945650957126</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>2.1618386880107465</v>
+        <v>3.603064480017911</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>2.9991716668532407</v>
+        <v>4.9986194447554011</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>4.0571827213701992</v>
+        <v>6.7619712022836653</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>4.5361516287921191</v>
+        <v>7.5602527146535321</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>6.2299774711742986</v>
+        <v>10.383295785290498</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>5.6666571140714197</v>
+        <v>9.4444285234523662</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>5.3870536214037834</v>
+        <v>8.978422702339639</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>7.1080809638419353</v>
+        <v>11.846801606403226</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>8.5015195902832197</v>
+        <v>14.169199317138698</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>8.037673010186948</v>
+        <v>13.396121683644912</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>11.424940333594536</v>
+        <v>19.041567222657562</v>
       </c>
     </row>
   </sheetData>
@@ -9741,99 +9741,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>12.466695081172148</v>
+        <v>20.777825135286914</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>10.962590986828671</v>
+        <v>18.270984978047785</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>9.022523547580148</v>
+        <v>15.037539245966911</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>7.8109611496834788</v>
+        <v>13.018268582805797</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>7.2821115606493771</v>
+        <v>12.136852601082296</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>5.8314045333877882</v>
+        <v>9.7190075556463142</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>5.6774745762711856</v>
+        <v>9.4624576271186438</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>5.1473457218705327</v>
+        <v>8.5789095364508885</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>5.3053345926077178</v>
+        <v>8.8422243210128642</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>5.610997804778437</v>
+        <v>9.3516630079640617</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>5.616181603532775</v>
+        <v>9.3603026725546243</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>6.5829516285480905</v>
+        <v>10.97158604758015</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>6.5858173116193583</v>
+        <v>10.976362186032263</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>6.6772007606697983</v>
+        <v>11.128667934449663</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>7.5189565677966108</v>
+        <v>12.531594279661018</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>6.2069730447212592</v>
+        <v>10.344955074535431</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>6.4298546814376136</v>
+        <v>10.716424469062689</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>6.8084336073105982</v>
+        <v>11.347389345517664</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>5.9393348095772911</v>
+        <v>9.8988913492954858</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>6.1518351797018589</v>
+        <v>10.253058632836431</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>5.7648618286706146</v>
+        <v>9.6081030477843576</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>5.2314829487441283</v>
+        <v>8.7191382479068817</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>5.3619052991627525</v>
+        <v>8.9365088319379211</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>5.8634512967122729</v>
+        <v>9.7724188278537873</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9842,99 +9842,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>12.466695081172148</v>
+        <v>20.777825135286914</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>10.962590986828671</v>
+        <v>18.270984978047785</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>9.022523547580148</v>
+        <v>15.037539245966911</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>7.8109611496834788</v>
+        <v>13.018268582805797</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>7.2821115606493771</v>
+        <v>12.136852601082296</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>5.8314045333877882</v>
+        <v>9.7190075556463142</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>5.6774745762711856</v>
+        <v>9.4624576271186438</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>5.1473457218705327</v>
+        <v>8.5789095364508885</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>5.3053345926077178</v>
+        <v>8.8422243210128642</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>5.610997804778437</v>
+        <v>9.3516630079640617</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>5.616181603532775</v>
+        <v>9.3603026725546243</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>6.5829516285480905</v>
+        <v>10.97158604758015</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>6.5858173116193583</v>
+        <v>10.976362186032263</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>6.6772007606697983</v>
+        <v>11.128667934449663</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>7.5189565677966108</v>
+        <v>12.531594279661018</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>6.2069730447212592</v>
+        <v>10.344955074535431</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>6.4298546814376136</v>
+        <v>10.716424469062689</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>6.8084336073105982</v>
+        <v>11.347389345517664</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>5.9393348095772911</v>
+        <v>9.8988913492954858</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>6.1518351797018589</v>
+        <v>10.253058632836431</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>5.7648618286706146</v>
+        <v>9.6081030477843576</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>5.2314829487441283</v>
+        <v>8.7191382479068817</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>5.3619052991627525</v>
+        <v>8.9365088319379211</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>5.8634512967122729</v>
+        <v>9.7724188278537873</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9943,99 +9943,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>12.466695081172148</v>
+        <v>20.777825135286914</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>10.962590986828671</v>
+        <v>18.270984978047785</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>9.022523547580148</v>
+        <v>15.037539245966911</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>7.8109611496834788</v>
+        <v>13.018268582805797</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>7.2821115606493771</v>
+        <v>12.136852601082296</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>5.8314045333877882</v>
+        <v>9.7190075556463142</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>5.6774745762711856</v>
+        <v>9.4624576271186438</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>5.1473457218705327</v>
+        <v>8.5789095364508885</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>5.3053345926077178</v>
+        <v>8.8422243210128642</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>5.610997804778437</v>
+        <v>9.3516630079640617</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>5.616181603532775</v>
+        <v>9.3603026725546243</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>6.5829516285480905</v>
+        <v>10.97158604758015</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>6.5858173116193583</v>
+        <v>10.976362186032263</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>6.6772007606697983</v>
+        <v>11.128667934449663</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>7.5189565677966108</v>
+        <v>12.531594279661018</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>6.2069730447212592</v>
+        <v>10.344955074535431</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>6.4298546814376136</v>
+        <v>10.716424469062689</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>6.8084336073105982</v>
+        <v>11.347389345517664</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>5.9393348095772911</v>
+        <v>9.8988913492954858</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>6.1518351797018589</v>
+        <v>10.253058632836431</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>5.7648618286706146</v>
+        <v>9.6081030477843576</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>5.2314829487441283</v>
+        <v>8.7191382479068817</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>5.3619052991627525</v>
+        <v>8.9365088319379211</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>5.8634512967122729</v>
+        <v>9.7724188278537873</v>
       </c>
     </row>
   </sheetData>
@@ -10570,99 +10570,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>11.375076206550029</v>
+        <v>18.958460344250046</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>10.57217644103172</v>
+        <v>17.620294068386201</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>11.458394676492565</v>
+        <v>19.097324460820943</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>12.776519802107757</v>
+        <v>21.294199670179594</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>10.928595016619854</v>
+        <v>18.214325027699758</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>9.2714201860393199</v>
+        <v>15.452366976732199</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>6.6733020691076801</v>
+        <v>11.122170115179467</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>5.9404313432451232</v>
+        <v>9.9007189054085387</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>6.0607983715117619</v>
+        <v>10.101330619186269</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>5.9246314257002233</v>
+        <v>9.8743857095003715</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>5.9933634208559869</v>
+        <v>9.9889390347599782</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>6.303977170244015</v>
+        <v>10.506628617073359</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>5.7664195933932847</v>
+        <v>9.6106993223221409</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>5.5568072998531255</v>
+        <v>9.26134549975521</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>7.613927181839264</v>
+        <v>12.689878636398772</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>9.9190057718570408</v>
+        <v>16.531676286428404</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>10.127011775619057</v>
+        <v>16.878352959365095</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>10.30993238681749</v>
+        <v>17.183220644695815</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>10.594233502538072</v>
+        <v>17.657055837563455</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>11.176185227653377</v>
+        <v>18.626975379422298</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>11.022930248138318</v>
+        <v>18.371550413563863</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>10.787374629596227</v>
+        <v>17.978957715993712</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>10.329082055708728</v>
+        <v>17.215136759514547</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>9.5266976989873484</v>
+        <v>15.877829498312249</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -10671,99 +10671,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>11.375076206550029</v>
+        <v>18.958460344250046</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>10.57217644103172</v>
+        <v>17.620294068386201</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>11.458394676492565</v>
+        <v>19.097324460820943</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>12.776519802107757</v>
+        <v>21.294199670179594</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>10.928595016619854</v>
+        <v>18.214325027699758</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>9.2714201860393199</v>
+        <v>15.452366976732199</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>6.6733020691076801</v>
+        <v>11.122170115179467</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>5.9404313432451232</v>
+        <v>9.9007189054085387</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>6.0607983715117619</v>
+        <v>10.101330619186269</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>5.9246314257002233</v>
+        <v>9.8743857095003715</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>5.9933634208559869</v>
+        <v>9.9889390347599782</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>6.303977170244015</v>
+        <v>10.506628617073359</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>5.7664195933932847</v>
+        <v>9.6106993223221409</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>5.5568072998531255</v>
+        <v>9.26134549975521</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>7.613927181839264</v>
+        <v>12.689878636398772</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>9.9190057718570408</v>
+        <v>16.531676286428404</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>10.127011775619057</v>
+        <v>16.878352959365095</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>10.30993238681749</v>
+        <v>17.183220644695815</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>10.594233502538072</v>
+        <v>17.657055837563455</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>11.176185227653377</v>
+        <v>18.626975379422298</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>11.022930248138318</v>
+        <v>18.371550413563863</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>10.787374629596227</v>
+        <v>17.978957715993712</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>10.329082055708728</v>
+        <v>17.215136759514547</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>9.5266976989873484</v>
+        <v>15.877829498312249</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -10772,99 +10772,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>11.375076206550029</v>
+        <v>18.958460344250046</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>10.57217644103172</v>
+        <v>17.620294068386201</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>11.458394676492565</v>
+        <v>19.097324460820943</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>12.776519802107757</v>
+        <v>21.294199670179594</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>10.928595016619854</v>
+        <v>18.214325027699758</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>9.2714201860393199</v>
+        <v>15.452366976732199</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>6.6733020691076801</v>
+        <v>11.122170115179467</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>5.9404313432451232</v>
+        <v>9.9007189054085387</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>6.0607983715117619</v>
+        <v>10.101330619186269</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>5.9246314257002233</v>
+        <v>9.8743857095003715</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>5.9933634208559869</v>
+        <v>9.9889390347599782</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>6.303977170244015</v>
+        <v>10.506628617073359</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>5.7664195933932847</v>
+        <v>9.6106993223221409</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>5.5568072998531255</v>
+        <v>9.26134549975521</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>7.613927181839264</v>
+        <v>12.689878636398772</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>9.9190057718570408</v>
+        <v>16.531676286428404</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>10.127011775619057</v>
+        <v>16.878352959365095</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>10.30993238681749</v>
+        <v>17.183220644695815</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>10.594233502538072</v>
+        <v>17.657055837563455</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>11.176185227653377</v>
+        <v>18.626975379422298</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>11.022930248138318</v>
+        <v>18.371550413563863</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>10.787374629596227</v>
+        <v>17.978957715993712</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>10.329082055708728</v>
+        <v>17.215136759514547</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>9.5266976989873484</v>
+        <v>15.877829498312249</v>
       </c>
     </row>
   </sheetData>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13054,7 +13054,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13065,7 +13065,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -22884,99 +22884,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>7.0728386418336502</v>
+        <v>11.788064403056083</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>6.3665579872383304</v>
+        <v>10.610929978730551</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>6.5607839440837346</v>
+        <v>10.934639906806225</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>6.4427322019478348</v>
+        <v>10.73788700324639</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>5.5253884473301236</v>
+        <v>9.2089807455502051</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>5.2307447889846648</v>
+        <v>8.7179079816411083</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>5.766189779469383</v>
+        <v>9.6103162991156381</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>5.2454158267099507</v>
+        <v>8.7423597111832514</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>4.3120686404343456</v>
+        <v>7.1867810673905765</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>3.1170095242359785</v>
+        <v>5.1950158737266303</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>3.1989078316355086</v>
+        <v>5.3315130527258479</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.983135340870928</v>
+        <v>3.3052255681182134</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>1.6256568521213479</v>
+        <v>2.7094280868689129</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>1.729470950408597</v>
+        <v>2.8824515840143281</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>2.3093621834769955</v>
+        <v>3.8489369724616589</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>2.9211715593865435</v>
+        <v>4.8686192656442389</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>3.4474752378820108</v>
+        <v>5.745792063136685</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>4.7347828780924663</v>
+        <v>7.8913047968207781</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>4.3066594066942789</v>
+        <v>7.1777656778237988</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>3.8248080711966859</v>
+        <v>6.3746801186611437</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>5.6864647710735481</v>
+        <v>9.4774412851225804</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>6.1210941050039187</v>
+        <v>10.201823508339864</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>5.9478780275383407</v>
+        <v>9.9131300458972351</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>8.6829546535318496</v>
+        <v>14.471591089219748</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -22985,99 +22985,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>7.0728386418336502</v>
+        <v>11.788064403056083</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>6.3665579872383304</v>
+        <v>10.610929978730551</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>6.5607839440837346</v>
+        <v>10.934639906806225</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>6.4427322019478348</v>
+        <v>10.73788700324639</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>5.5253884473301236</v>
+        <v>9.2089807455502051</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>5.2307447889846648</v>
+        <v>8.7179079816411083</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>5.766189779469383</v>
+        <v>9.6103162991156381</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>5.2454158267099507</v>
+        <v>8.7423597111832514</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>4.3120686404343456</v>
+        <v>7.1867810673905765</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>3.1170095242359785</v>
+        <v>5.1950158737266303</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>3.1989078316355086</v>
+        <v>5.3315130527258479</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.983135340870928</v>
+        <v>3.3052255681182134</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>1.6256568521213479</v>
+        <v>2.7094280868689129</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>1.729470950408597</v>
+        <v>2.8824515840143281</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>2.3093621834769955</v>
+        <v>3.8489369724616589</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>2.9211715593865435</v>
+        <v>4.8686192656442389</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>3.4474752378820108</v>
+        <v>5.745792063136685</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>4.7347828780924663</v>
+        <v>7.8913047968207781</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>4.3066594066942789</v>
+        <v>7.1777656778237988</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>3.8248080711966859</v>
+        <v>6.3746801186611437</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>5.6864647710735481</v>
+        <v>9.4774412851225804</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>6.1210941050039187</v>
+        <v>10.201823508339864</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>5.9478780275383407</v>
+        <v>9.9131300458972351</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>8.6829546535318496</v>
+        <v>14.471591089219748</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -23086,99 +23086,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>7.0728386418336502</v>
+        <v>11.788064403056083</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>6.3665579872383304</v>
+        <v>10.610929978730551</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>6.5607839440837346</v>
+        <v>10.934639906806225</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>6.4427322019478348</v>
+        <v>10.73788700324639</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>5.5253884473301236</v>
+        <v>9.2089807455502051</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>5.2307447889846648</v>
+        <v>8.7179079816411083</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>5.766189779469383</v>
+        <v>9.6103162991156381</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>5.2454158267099507</v>
+        <v>8.7423597111832514</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>4.3120686404343456</v>
+        <v>7.1867810673905765</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>3.1170095242359785</v>
+        <v>5.1950158737266303</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>3.1989078316355086</v>
+        <v>5.3315130527258479</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.983135340870928</v>
+        <v>3.3052255681182134</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>1.6256568521213479</v>
+        <v>2.7094280868689129</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>1.729470950408597</v>
+        <v>2.8824515840143281</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>2.3093621834769955</v>
+        <v>3.8489369724616589</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>2.9211715593865435</v>
+        <v>4.8686192656442389</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>3.4474752378820108</v>
+        <v>5.745792063136685</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>4.7347828780924663</v>
+        <v>7.8913047968207781</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>4.3066594066942789</v>
+        <v>7.1777656778237988</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>3.8248080711966859</v>
+        <v>6.3746801186611437</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>5.6864647710735481</v>
+        <v>9.4774412851225804</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>6.1210941050039187</v>
+        <v>10.201823508339864</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>5.9478780275383407</v>
+        <v>9.9131300458972351</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>8.6829546535318496</v>
+        <v>14.471591089219748</v>
       </c>
     </row>
   </sheetData>
@@ -23808,99 +23808,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>9.3500213108791126</v>
+        <v>15.583368851465186</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>7.6738136907800696</v>
+        <v>12.789689484633449</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>6.947343131636714</v>
+        <v>11.578905219394523</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>6.0925496967531139</v>
+        <v>10.154249494588523</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>5.4615836704870331</v>
+        <v>9.1026394508117221</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>4.6651236267102307</v>
+        <v>7.7752060445170512</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>4.3716554237288134</v>
+        <v>7.2860923728813551</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>4.0664031202777204</v>
+        <v>6.7773385337962013</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>3.8198409066775567</v>
+        <v>6.3664015111292613</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>4.2643583316316125</v>
+        <v>7.1072638860526869</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>3.9874889385082697</v>
+        <v>6.645814897513783</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>4.6080661399836629</v>
+        <v>7.6801102333061051</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>5.0710793299469064</v>
+        <v>8.4517988832448445</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>4.8743565552889523</v>
+        <v>8.1239275921482541</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>5.5640278601694924</v>
+        <v>9.2733797669491533</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>4.903508705329795</v>
+        <v>8.1725145088829905</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>4.6294953706350821</v>
+        <v>7.7158256177251356</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>4.7659035251174187</v>
+        <v>7.9431725418623635</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>4.5732878033745141</v>
+        <v>7.6221463389575232</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>4.7984314401674499</v>
+        <v>7.9973857336124166</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>4.4965922263630791</v>
+        <v>7.4943203772717997</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>3.8189825525832144</v>
+        <v>6.3649709209720235</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>4.289524239330202</v>
+        <v>7.1492070655503364</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>4.1044159076985904</v>
+        <v>6.8406931794976513</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -23909,99 +23909,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>9.3500213108791126</v>
+        <v>15.583368851465186</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>7.6738136907800696</v>
+        <v>12.789689484633449</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>6.947343131636714</v>
+        <v>11.578905219394523</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>6.0925496967531139</v>
+        <v>10.154249494588523</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>5.4615836704870331</v>
+        <v>9.1026394508117221</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>4.6651236267102307</v>
+        <v>7.7752060445170512</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>4.3716554237288134</v>
+        <v>7.2860923728813551</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>4.0664031202777204</v>
+        <v>6.7773385337962013</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>3.8198409066775567</v>
+        <v>6.3664015111292613</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>4.2643583316316125</v>
+        <v>7.1072638860526869</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>3.9874889385082697</v>
+        <v>6.645814897513783</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>4.6080661399836629</v>
+        <v>7.6801102333061051</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>5.0710793299469064</v>
+        <v>8.4517988832448445</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>4.8743565552889523</v>
+        <v>8.1239275921482541</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>5.5640278601694924</v>
+        <v>9.2733797669491533</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>4.903508705329795</v>
+        <v>8.1725145088829905</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>4.6294953706350821</v>
+        <v>7.7158256177251356</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>4.7659035251174187</v>
+        <v>7.9431725418623635</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>4.5732878033745141</v>
+        <v>7.6221463389575232</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>4.7984314401674499</v>
+        <v>7.9973857336124166</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>4.4965922263630791</v>
+        <v>7.4943203772717997</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>3.8189825525832144</v>
+        <v>6.3649709209720235</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>4.289524239330202</v>
+        <v>7.1492070655503364</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>4.1044159076985904</v>
+        <v>6.8406931794976513</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24010,99 +24010,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>9.3500213108791126</v>
+        <v>15.583368851465186</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>7.6738136907800696</v>
+        <v>12.789689484633449</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>6.947343131636714</v>
+        <v>11.578905219394523</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>6.0925496967531139</v>
+        <v>10.154249494588523</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>5.4615836704870331</v>
+        <v>9.1026394508117221</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>4.6651236267102307</v>
+        <v>7.7752060445170512</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>4.3716554237288134</v>
+        <v>7.2860923728813551</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>4.0664031202777204</v>
+        <v>6.7773385337962013</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>3.8198409066775567</v>
+        <v>6.3664015111292613</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>4.2643583316316125</v>
+        <v>7.1072638860526869</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>3.9874889385082697</v>
+        <v>6.645814897513783</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>4.6080661399836629</v>
+        <v>7.6801102333061051</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>5.0710793299469064</v>
+        <v>8.4517988832448445</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>4.8743565552889523</v>
+        <v>8.1239275921482541</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>5.5640278601694924</v>
+        <v>9.2733797669491533</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>4.903508705329795</v>
+        <v>8.1725145088829905</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>4.6294953706350821</v>
+        <v>7.7158256177251356</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>4.7659035251174187</v>
+        <v>7.9431725418623635</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>4.5732878033745141</v>
+        <v>7.6221463389575232</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>4.7984314401674499</v>
+        <v>7.9973857336124166</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>4.4965922263630791</v>
+        <v>7.4943203772717997</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>3.8189825525832144</v>
+        <v>6.3649709209720235</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>4.289524239330202</v>
+        <v>7.1492070655503364</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>4.1044159076985904</v>
+        <v>6.8406931794976513</v>
       </c>
     </row>
   </sheetData>
@@ -24637,99 +24637,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>8.0763041066505199</v>
+        <v>13.460506844417534</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>7.5062452731325209</v>
+        <v>12.510408788554201</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>9.0521317944291262</v>
+        <v>15.086886324048546</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>9.1990942575175829</v>
+        <v>15.331823762529307</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>8.1964462624648906</v>
+        <v>13.660743770774818</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>7.2317077451106693</v>
+        <v>12.052846241851116</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>5.271908634595067</v>
+        <v>8.786514390991778</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>4.5147278208662938</v>
+        <v>7.5245463681104905</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>4.6668147460640563</v>
+        <v>7.7780245767734275</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>4.3842272550181649</v>
+        <v>7.3070454250302754</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>4.7946907366847888</v>
+        <v>7.9911512278079826</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>4.9801419644927725</v>
+        <v>8.3002366074879532</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>4.0941579113092326</v>
+        <v>6.8235965188487206</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>4.3343096938854382</v>
+        <v>7.2238494898090639</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>5.5581668427426623</v>
+        <v>9.2636114045711047</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>7.2408742134556405</v>
+        <v>12.068123689092735</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>7.0889082429333401</v>
+        <v>11.814847071555567</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>7.6293499662449431</v>
+        <v>12.715583277074904</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>7.4159634517766513</v>
+        <v>12.359939086294418</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>8.382138920740033</v>
+        <v>13.970231534566723</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>8.4876562910665037</v>
+        <v>14.146093818444175</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>8.1984047184931335</v>
+        <v>13.66400786415522</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>7.540229900667371</v>
+        <v>12.567049834445619</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>7.3355572282202584</v>
+        <v>12.22592871370043</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -24738,99 +24738,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>8.0763041066505199</v>
+        <v>13.460506844417534</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>7.5062452731325209</v>
+        <v>12.510408788554201</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>9.0521317944291262</v>
+        <v>15.086886324048546</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>9.1990942575175829</v>
+        <v>15.331823762529307</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>8.1964462624648906</v>
+        <v>13.660743770774818</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>7.2317077451106693</v>
+        <v>12.052846241851116</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>5.271908634595067</v>
+        <v>8.786514390991778</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>4.5147278208662938</v>
+        <v>7.5245463681104905</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>4.6668147460640563</v>
+        <v>7.7780245767734275</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>4.3842272550181649</v>
+        <v>7.3070454250302754</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>4.7946907366847888</v>
+        <v>7.9911512278079826</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>4.9801419644927725</v>
+        <v>8.3002366074879532</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>4.0941579113092326</v>
+        <v>6.8235965188487206</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>4.3343096938854382</v>
+        <v>7.2238494898090639</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>5.5581668427426623</v>
+        <v>9.2636114045711047</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>7.2408742134556405</v>
+        <v>12.068123689092735</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>7.0889082429333401</v>
+        <v>11.814847071555567</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>7.6293499662449431</v>
+        <v>12.715583277074904</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>7.4159634517766513</v>
+        <v>12.359939086294418</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>8.382138920740033</v>
+        <v>13.970231534566723</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>8.4876562910665037</v>
+        <v>14.146093818444175</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>8.1984047184931335</v>
+        <v>13.66400786415522</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>7.540229900667371</v>
+        <v>12.567049834445619</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>7.3355572282202584</v>
+        <v>12.22592871370043</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24839,99 +24839,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>8.0763041066505199</v>
+        <v>13.460506844417534</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>7.5062452731325209</v>
+        <v>12.510408788554201</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>9.0521317944291262</v>
+        <v>15.086886324048546</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>9.1990942575175829</v>
+        <v>15.331823762529307</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>8.1964462624648906</v>
+        <v>13.660743770774818</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>7.2317077451106693</v>
+        <v>12.052846241851116</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>5.271908634595067</v>
+        <v>8.786514390991778</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>4.5147278208662938</v>
+        <v>7.5245463681104905</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>4.6668147460640563</v>
+        <v>7.7780245767734275</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>4.3842272550181649</v>
+        <v>7.3070454250302754</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>4.7946907366847888</v>
+        <v>7.9911512278079826</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>4.9801419644927725</v>
+        <v>8.3002366074879532</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>4.0941579113092326</v>
+        <v>6.8235965188487206</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>4.3343096938854382</v>
+        <v>7.2238494898090639</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>5.5581668427426623</v>
+        <v>9.2636114045711047</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>7.2408742134556405</v>
+        <v>12.068123689092735</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>7.0889082429333401</v>
+        <v>11.814847071555567</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>7.6293499662449431</v>
+        <v>12.715583277074904</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>7.4159634517766513</v>
+        <v>12.359939086294418</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>8.382138920740033</v>
+        <v>13.970231534566723</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>8.4876562910665037</v>
+        <v>14.146093818444175</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>8.1984047184931335</v>
+        <v>13.66400786415522</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>7.540229900667371</v>
+        <v>12.567049834445619</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>7.3355572282202584</v>
+        <v>12.22592871370043</v>
       </c>
     </row>
   </sheetData>

--- a/data/IEEE_9/ieee9/ieee9_2030.xlsx
+++ b/data/IEEE_9/ieee9/ieee9_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E8C76A-E1A8-4C09-93AB-4151E0D85974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7817E35-F9BC-467C-88DC-351F871549B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="4725" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14460" yWindow="6960" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>2.3521075249154243E-4</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8738,55 +8738,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>0.1430273383926122</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>2.833535933071226</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>7.3935139892109349</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>9.2267417939105769</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>10.248170887812012</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>10.438221175825181</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>10.246548413641765</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>8.7491007588918333</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>5.7816483039224646</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>1.412524572551888</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>1.1040504708786687E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>9.504434488433757E-4</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>7.2723324494834045E-4</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>2.3521075249154243E-4</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8839,55 +8839,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>0.1430273383926122</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>2.833535933071226</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>7.3935139892109349</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>9.2267417939105769</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>10.248170887812012</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>10.438221175825181</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>10.246548413641765</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>8.7491007588918333</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>5.7816483039224646</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>1.412524572551888</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>1.1040504708786687E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>9.504434488433757E-4</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>7.2723324494834045E-4</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
+        <v>4.0881147540983604E-4</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9567,51 +9567,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
+        <v>0.11460061475409834</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
+        <v>2.2556065573770487</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
+        <v>5.3657581967213117</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
+        <v>7.2207122950819675</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
+        <v>8.8559409836065566</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
+        <v>10.517127049180328</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
+        <v>8.7767735655737695</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
+        <v>6.4491731557377046</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
+        <v>3.0937475409836064</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
+        <v>0.64633094262295065</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
+        <v>4.1311475409836059E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
+        <v>1.8073770491803278E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
+        <v>4.0881147540983604E-4</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9668,51 +9668,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
+        <v>0.11460061475409834</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
+        <v>2.2556065573770487</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
+        <v>5.3657581967213117</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
+        <v>7.2207122950819675</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
+        <v>8.8559409836065566</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
+        <v>10.517127049180328</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
+        <v>8.7767735655737695</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
+        <v>6.4491731557377046</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
+        <v>3.0937475409836064</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
+        <v>0.64633094262295065</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
+        <v>4.1311475409836059E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
+        <v>1.8073770491803278E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -10396,47 +10396,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
+        <v>0.12390850417615791</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
+        <v>2.7056734054669702</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
+        <v>6.2993190015186018</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
+        <v>9.0842539863325751</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
+        <v>9.3517202923310521</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
+        <v>8.87960563781321</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
+        <v>6.9521307896734994</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
+        <v>5.3553189066059215</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
+        <v>2.2723424449506453</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
+        <v>0.40117454441913436</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
+        <v>6.5110098709187552E-4</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -10497,47 +10497,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
+        <v>0.12390850417615791</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
+        <v>2.7056734054669702</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
+        <v>6.2993190015186018</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
+        <v>9.0842539863325751</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
+        <v>9.3517202923310521</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
+        <v>8.87960563781321</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
+        <v>6.9521307896734994</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
+        <v>5.3553189066059215</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
+        <v>2.2723424449506453</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
+        <v>0.40117454441913436</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
+        <v>6.5110098709187552E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13032,7 +13032,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -13043,7 +13043,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -22690,7 +22690,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>2.9636554813934352E-4</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22710,55 +22710,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>0.17306307945506078</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>3.5985906350004564</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>9.5376330460821048</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>11.994764332083751</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>12.400286774252534</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>13.569687528572734</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>13.218047453597876</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>11.111357963792628</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>7.1114274138246314</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>1.7797809614153786</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>1.3911035933071227E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>1.178549876565786E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>8.7995222638749201E-4</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -22791,7 +22791,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>2.9636554813934352E-4</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22811,55 +22811,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>0.17306307945506078</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>3.5985906350004564</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>9.5376330460821048</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>11.994764332083751</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>12.400286774252534</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>13.569687528572734</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>13.218047453597876</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>11.111357963792628</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>7.1114274138246314</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>1.7797809614153786</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>1.3911035933071227E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>1.178549876565786E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>8.7995222638749201E-4</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -23610,7 +23610,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
+        <v>5.1919057377049183E-4</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23634,51 +23634,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
+        <v>0.14898079918032786</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
+        <v>2.9097324590163933</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
+        <v>6.9218280737704925</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
+        <v>9.1703046147540981</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
+        <v>11.512723278688524</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
+        <v>13.672265163934425</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
+        <v>11.409805635245901</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
+        <v>7.8679912500000002</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
+        <v>3.9290593770491804</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
+        <v>0.82730360655737689</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
+        <v>4.9986885245901624E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
+        <v>2.2049999999999999E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -23711,7 +23711,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
+        <v>5.1919057377049183E-4</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23735,51 +23735,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
+        <v>0.14898079918032786</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
+        <v>2.9097324590163933</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
+        <v>6.9218280737704925</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
+        <v>9.1703046147540981</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
+        <v>11.512723278688524</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
+        <v>13.672265163934425</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
+        <v>11.409805635245901</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
+        <v>7.8679912500000002</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
+        <v>3.9290593770491804</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
+        <v>0.82730360655737689</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
+        <v>4.9986885245901624E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
+        <v>2.2049999999999999E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -24463,47 +24463,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
+        <v>0.15364654517843582</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
+        <v>3.3279782887243732</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
+        <v>7.8111555618830657</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
+        <v>11.537002562642369</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
+        <v>12.063719177107057</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
+        <v>10.655526765375852</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
+        <v>8.551120871298405</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
+        <v>6.8548082004555804</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
+        <v>2.9313217539863325</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
+        <v>0.51751516230068328</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
+        <v>8.4643128321943816E-4</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -24564,47 +24564,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
+        <v>0.15364654517843582</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
+        <v>3.3279782887243732</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
+        <v>7.8111555618830657</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
+        <v>11.537002562642369</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
+        <v>12.063719177107057</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
+        <v>10.655526765375852</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
+        <v>8.551120871298405</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
+        <v>6.8548082004555804</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
+        <v>2.9313217539863325</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
+        <v>0.51751516230068328</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
+        <v>8.4643128321943816E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>

--- a/data/IEEE_9/ieee9/ieee9_2030.xlsx
+++ b/data/IEEE_9/ieee9/ieee9_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6A1037-AA5E-4C2A-A0A7-72DC12556E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150B6F42-5A1B-46DB-963E-1292092F0DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26490" yWindow="2805" windowWidth="21600" windowHeight="12660" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="4845" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
@@ -3837,10 +3837,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
       <sheetData sheetId="20">
         <row r="2">
           <cell r="B2">
@@ -4335,7 +4335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -4512,99 +4512,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
         <v>13.215267451536455</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
         <v>9.3117303587132039</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
         <v>7.8035005067777643</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
         <v>7.8004641413373754</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
         <v>10.172225969604904</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
         <v>12.398473049187078</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
         <v>18.517217319692303</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
         <v>20.41122394758743</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
         <v>23.835851061215163</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
         <v>30.156883791792104</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
         <v>30.692971662484776</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
         <v>27.930319314847665</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
         <v>29.715566548096611</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
         <v>26.11375650908608</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
         <v>24.053572605031093</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
         <v>25.680235799405111</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
         <v>24.556974580263912</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
         <v>31.813117211842695</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
         <v>33.752367603403108</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
         <v>29.835133146050239</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
         <v>27.615562913438527</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
         <v>25.087600047148509</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
         <v>22.831317259404141</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
         <v>17.516018695018083</v>
       </c>
     </row>
@@ -4613,99 +4613,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
         <v>-32.140268946054597</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
         <v>-37.726623429539806</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
         <v>-36.497851604924008</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
         <v>-35.111574438585116</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
         <v>-39.048392133286086</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
         <v>-32.007118909721335</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
         <v>-23.066361112224715</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
         <v>-11.287992579469643</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
         <v>-3.199977908912075</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
         <v>-0.53460351859026856</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
         <v>-4.1012760749854555</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
         <v>-3.047254894691696</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
         <v>-4.3510096895731794</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
         <v>-4.56831169552167</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
         <v>-12.454610874221169</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
         <v>-15.490700454565076</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
         <v>-13.631136792838621</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
         <v>-4.9500279591899075</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
         <v>-7.2725208513521791</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
         <v>-9.0513923533538438</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
         <v>-14.075952034628731</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
         <v>-19.194302890752375</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
         <v>-27.237446875966498</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
         <v>-30.100644134807386</v>
       </c>
     </row>
@@ -4714,99 +4714,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
         <v>45.033302185543157</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
         <v>51.91723989432662</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
         <v>59.649594772205056</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
         <v>50.812617768915416</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
         <v>60.201905834910669</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
         <v>44.751182751862352</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
         <v>18.674185729730635</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
         <v>2.5347658938330571</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
         <v>-15.137122713393067</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
         <v>-13.761020648539152</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
         <v>-1.1851124261016783</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
         <v>-16.90174486381861</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
         <v>-16.423393594087891</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
         <v>-11.108308129081706</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
         <v>-1.381618240562448</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
         <v>9.5504347047654647</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
         <v>11.973501439838026</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
         <v>11.716006785217854</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
         <v>11.844754112527941</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
         <v>14.033458676799407</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
         <v>13.518469367559062</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
         <v>25.237086128361412</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
         <v>43.912302576742668</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
         <v>43.501907225558149</v>
       </c>
     </row>
@@ -5659,99 +5659,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
         <v>13.723546968903245</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
         <v>9.6057850016199371</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
         <v>8.2230435447765675</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
         <v>7.4720235459126441</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
         <v>10.265549143637976</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
         <v>12.398473049187078</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
         <v>16.359871612543685</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
         <v>21.06965052654186</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
         <v>25.103715479364908</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
         <v>25.409966898639645</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
         <v>26.75075511867939</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
         <v>27.653781499849174</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
         <v>27.216126371153905</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
         <v>27.213283098942338</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
         <v>25.541422456888689</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
         <v>25.680235799405111</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
         <v>25.286389666806407</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
         <v>36.452530138569756</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
         <v>31.10512308548914</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
         <v>30.155941029341097</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
         <v>28.209445986845804</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
         <v>27.728400052111514</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
         <v>20.677419404743372</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
         <v>15.533073182374526</v>
       </c>
     </row>
@@ -5760,99 +5760,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
         <v>-34.068685082817872</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
         <v>-36.329341080297596</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
         <v>-38.002917650487881</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
         <v>-38.473320927385821</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
         <v>-39.821627621073937</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
         <v>-36.825394874625623</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
         <v>-25.88558302594107</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
         <v>-10.655021032957325</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
         <v>-3.199977908912075</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
         <v>-0.51030335865434717</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
         <v>-4.7557350231214324</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
         <v>-3.2397130985669613</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
         <v>-4.750592212085003</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
         <v>-4.2548001085741038</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
         <v>-12.114939668560593</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
         <v>-16.795180492844239</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
         <v>-13.776148886379458</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
         <v>-5.1480290775575037</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
         <v>-7.8485621069048275</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
         <v>-8.7798505827532285</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
         <v>-15.497765371459916</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
         <v>-16.979575634127102</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
         <v>-25.008928495205602</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
         <v>-28.985805463147848</v>
       </c>
     </row>
@@ -5861,99 +5861,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
         <v>44.141553627413586</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
         <v>59.649594772205056</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
         <v>59.649594772205056</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
         <v>57.992661584088246</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
         <v>52.469550957032226</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
         <v>43.856159096825102</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
         <v>19.689087128085561</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
         <v>2.7960819653622382</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
         <v>-15.290022942821279</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
         <v>-15.595823401677706</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
         <v>-1.3036236687118461</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
         <v>-16.90174486381861</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
         <v>-17.22064571030575</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
         <v>-11.848862004353819</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
         <v>-1.5965366335388287</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
         <v>9.735880038838582</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
         <v>11.587259457907766</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
         <v>13.389722040248976</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
         <v>12.102248767148112</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
         <v>12.48849074907837</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
         <v>13.389722040248976</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
         <v>28.458841804322443</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
         <v>44.32269792792718</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
         <v>39.397953713713044</v>
       </c>
     </row>
@@ -13004,8 +13004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13884,99 +13884,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>70.946690531554225</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>63.783178756014671</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>66.017271441711188</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>64.412195545409588</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>61.828359404823438</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>61.436589718438206</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>70.228575336220317</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>78.144372535561388</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>92.171108814344791</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>97.286008273809657</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>93.421666992520301</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>94.041084231343262</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>95.225698363368565</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>92.786121789596066</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>111.10897791842039</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>101.21715771716578</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>96.682138617042241</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>93.032497059232199</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>93.623176708657212</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>92.17594917053006</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>92.770632596608422</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>105.15876107167956</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>88.632007087541666</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>81.970432333199511</v>
       </c>
     </row>
@@ -13985,99 +13985,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>90.475405674029616</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>85.031281435109861</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>73.739911478681293</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>76.904630380187513</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>79.691151455330612</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>79.887993138958933</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>86.690685347775343</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>88.143628370334454</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>95.094101080138671</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>108.96894086963148</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>109.64707899192345</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>113.94746448129007</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>103.71981190879846</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>118.91632633128246</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>101.96106960344119</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>106.90239700012991</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>101.78988388815114</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>98.76122927358611</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>113.74389251056965</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>100.33978958603598</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>99.071001415034402</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>101.53438915191425</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>111.54905430929915</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>89.788260473207202</v>
       </c>
     </row>
@@ -14086,99 +14086,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>106.51612030278714</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>94.42004315590151</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>78.29296420321333</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>80.012885105556549</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>87.447029209522867</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>85.336596160650544</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>117.11757806726843</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>117.54322172027111</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>129.16365534791004</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>124.2141825913736</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>130.20079535330765</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>127.80824274908846</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>136.55365316981809</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>147.26158932830373</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>129.64760895982548</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>124.06882860409176</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>112.3768001363761</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>110.29850088268526</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>112.63897460487648</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>121.41562527836729</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>116.21740824341856</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>125.97278683595171</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>120.79602554711846</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>110.15423485138879</v>
       </c>
     </row>
@@ -15033,99 +15033,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>75.228659596517588</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>71.322032973241122</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>67.205403942665683</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>58.659948003978158</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>64.877319822113975</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>64.229241537712696</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>66.953304299219809</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>72.822201090898616</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>91.314568043001074</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>94.528119540652654</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>101.96010840536698</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>102.71465900376003</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>107.01754080616455</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>100.71173642651573</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>98.184899051109284</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>96.43375333838415</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>90.939180332794379</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>86.593598673179756</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>100.09595378014701</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>88.446809499952167</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>102.94146735486304</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>97.496623490341307</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>95.182271149256181</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>91.169863151116274</v>
       </c>
     </row>
@@ -15134,99 +15134,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>90.475405674029616</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>71.125192558045995</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>80.211946784799579</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>81.925576440391296</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>82.560489690842232</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>81.309974462238543</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>73.641861266119051</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>88.143628370334454</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>97.171352476757875</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>106.8278595897777</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>109.64707899192345</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>115.03713857571172</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>115.87065528832171</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>116.7479489602303</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>103.00289338978826</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>93.903798708056726</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>99.755209852541157</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>101.84339343380981</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>113.74389251056965</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>104.3984645695308</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>93.982414522603037</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>117.43242664503302</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>105.62149623020946</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>92.505140193019642</v>
       </c>
     </row>
@@ -15235,99 +15235,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>99.164903524664339</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>81.86972364177953</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>92.61619300382759</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>88.454358331098248</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>83.609995925185743</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>90.273586709639986</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>98.559869345474098</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>130.23017645363976</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>122.54305214273202</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>137.17826283296338</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>143.15871833811823</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>145.75835228702053</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>153.12298505098619</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>144.50003401477571</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>138.82808199302343</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>117.86083470128295</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>127.41277634454498</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>125.33447709085411</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>123.04849659514724</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>120.25901172389277</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>119.68724890684214</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>117.87649195463</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>106.30044150047395</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>116.41403674854081</v>
       </c>
     </row>
@@ -16182,99 +16182,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>79.510628661480951</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>61.898465201708071</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>58.888476435984252</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>60.385622266407587</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>59.389191070991025</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>60.878059354583314</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>72.193737958420627</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>73.582511297279012</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>89.601486500313683</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>89.012342074338676</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>94.370382705058816</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>89.222431580000617</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>105.05223373236522</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>107.64664923382044</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>100.17321887684945</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>92.607029835358844</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>94.767819188959621</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>90.272969179495433</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>101.94531865771552</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>93.108234088174527</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>89.072147229970383</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>97.496623490341307</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>105.47554324623614</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>79.461496655585833</v>
       </c>
     </row>
@@ -16283,99 +16283,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>92.89212564516184</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>76.248488460122161</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>80.931061818812722</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>76.904630380187513</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>70.365802189917844</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>74.200067845840479</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>73.641861266119051</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>90.877535802575423</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>110.67348655478264</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>118.60380662897342</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>114.94561426317402</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>117.21648676455499</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>111.4521667866769</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>109.15862816154778</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>98.835598244400003</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>108.90218135275656</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>95.685861781321208</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>110.06249786107304</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>114.77564144460922</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>93.237108364920061</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>101.10643617200695</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>101.53438915191425</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>105.62149623020946</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>90.693887046478025</v>
       </c>
     </row>
@@ -16384,99 +16384,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>103.75941401099109</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>85.216475512212071</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>91.024723137092664</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>80.012885105556549</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>77.470742670246324</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>84.513764402485634</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>114.02462661363604</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>140.37974024033474</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>145.05310304033725</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>128.10340666385056</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>127.60921075634555</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>138.85446400320049</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>140.69598614011014</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>137.59614573095567</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>132.2706012550249</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>132.76002006802415</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>106.59373236400346</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>109.14188732821071</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>111.48236105040193</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>105.22303551572391</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>122.00047601579119</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>112.09342418225737</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>116.3358458404586</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>102.85113263804479</v>
       </c>
     </row>
@@ -17331,99 +17331,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
         <v>14.023965414032418</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
         <v>9.9853222455149595</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
         <v>11.211110301490791</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
         <v>8.8033591572781411</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
         <v>10.134408711742685</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
         <v>4.5115550902133208</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
         <v>8.8764963674920612</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
         <v>17.379071201300896</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
         <v>22.004045133583855</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
         <v>26.703243290717182</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
         <v>31.884696064618431</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
         <v>32.734020998939251</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
         <v>32.232025154091858</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
         <v>33.470050399959504</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
         <v>36.193790816249475</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
         <v>31.808137561963083</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
         <v>32.994863783900826</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
         <v>24.981358372484646</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
         <v>29.143765381589073</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
         <v>27.470164866536422</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
         <v>25.220101389357922</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
         <v>28.035141675750175</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
         <v>27.090743266530087</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
         <v>19.423189732686627</v>
       </c>
     </row>
@@ -17432,99 +17432,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
         <v>-27.770424088404472</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
         <v>-34.352293233428426</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
         <v>-35.158366872104061</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
         <v>-35.609549735357959</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
         <v>-35.523294654803834</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
         <v>-42.527951828331382</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
         <v>-34.177939955575141</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
         <v>-4.7960137474730997</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
         <v>16.231527917805305</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
         <v>24.847988250133159</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
         <v>20.87322240122139</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
         <v>24.742746963904366</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
         <v>22.183568358800287</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
         <v>24.250559395071928</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
         <v>11.549906473482968</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
         <v>3.2241182692758548</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
         <v>6.2250831965267528</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
         <v>8.4653950782201548</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
         <v>4.7534742364721305</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
         <v>-0.92369148600109119</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
         <v>-3.9665375038738331</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
         <v>-2.7596229085406239</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
         <v>-11.910997114588382</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
         <v>-16.448211557775654</v>
       </c>
     </row>
@@ -17533,99 +17533,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
         <v>-38.021778541514138</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
         <v>-43.03563944808743</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
         <v>-45.59624183124204</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
         <v>-55.783417333265838</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
         <v>-51.364928831621022</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
         <v>-57.440350521382648</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
         <v>-22.022604500702847</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
         <v>4.8844423814866182</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
         <v>15.076292431368493</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
         <v>14.061541979257152</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
         <v>14.315370031662553</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
         <v>18.075482807525677</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
         <v>25.508082516067315</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
         <v>28.374286427578326</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
         <v>15.76787149588966</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
         <v>11.506739486538088</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
         <v>-1.9786509704100135</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
         <v>-1.9601589052659945</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
         <v>-1.7752382538258062</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
         <v>-1.9416668401219757</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
         <v>-11.662945686825131</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
         <v>-14.336705347858761</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
         <v>-41.773998578050183</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
         <v>-40.508119833260771</v>
       </c>
     </row>
@@ -18480,99 +18480,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
         <v>15.157215144459281</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
         <v>10.962147247793595</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
         <v>9.5654427342994826</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
         <v>9.7016611121024408</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
         <v>11.06511971588232</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
         <v>4.6555408909648097</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
         <v>7.9553505180353383</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
         <v>17.218153875362923</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
         <v>21.76995954705637</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
         <v>29.76298991777853</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
         <v>30.973704748486476</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
         <v>28.327518172158971</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
         <v>32.232025154091858</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
         <v>31.150343936595974</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
         <v>29.942136038897289</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
         <v>34.352788566920132</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
         <v>32.389453439242097</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
         <v>27.936142696111865</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
         <v>28.074269404283054</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
         <v>23.400510812234732</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
         <v>22.01027030343964</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
         <v>27.485433015441348</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
         <v>25.613066361082989</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
         <v>17.837623223895879</v>
       </c>
     </row>
@@ -18581,99 +18581,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
         <v>-28.579271391950229</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
         <v>-32.599625211314731</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
         <v>-36.703789591756987</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
         <v>-35.609549735357959</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
         <v>-40.436090724085219</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
         <v>-39.048392133286086</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
         <v>-32.837628584768275</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
         <v>-5.5779725106480615</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
         <v>15.562186560370037</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
         <v>23.142734154535788</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
         <v>20.107232588332533</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
         <v>25.507986560726152</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
         <v>20.82539070417986</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
         <v>23.084667116462704</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
         <v>12.512398679606548</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
         <v>3.1632858491008387</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
         <v>6.3604110921034209</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
         <v>9.0407131903322036</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
         <v>4.4563820966926224</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
         <v>-0.87750691170103645</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
         <v>-3.2453488668058634</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
         <v>-2.7094479465671584</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
         <v>-13.114128136263977</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
         <v>-14.98252933975604</v>
       </c>
     </row>
@@ -18682,99 +18682,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
         <v>-38.857422025943023</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
         <v>-44.706926416945201</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
         <v>-49.961839453382233</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
         <v>-56.888039458677042</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
         <v>-51.364928831621022</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
         <v>-51.364928831621022</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
         <v>-22.242830545709879</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
         <v>4.4279524392916079</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
         <v>14.931328081066873</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
         <v>13.191755877447431</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
         <v>13.520071696570188</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
         <v>18.261827991108419</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
         <v>23.487640336576835</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
         <v>25.250511775000891</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
         <v>13.577889343682761</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
         <v>10.25353023552899</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
         <v>-1.9601589052659945</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
         <v>-1.7382541235377686</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
         <v>-1.7752382538258062</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
         <v>-1.9971430355540321</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
         <v>-11.191715558064519</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
         <v>-16.449482978069529</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
         <v>-39.664200670067842</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
         <v>-40.08616025166431</v>
       </c>
     </row>
@@ -19629,99 +19629,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
         <v>14.873902711852566</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
         <v>10.310930579607836</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
         <v>9.5654427342994826</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
         <v>8.3542081798659904</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
         <v>9.7207593765695126</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
         <v>4.9915077593849508</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
         <v>8.1228315815729246</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
         <v>17.379071201300896</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
         <v>25.515328931496171</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
         <v>26.703243290717182</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
         <v>28.544394572134593</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
         <v>32.104520595113499</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
         <v>32.889821585808022</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
         <v>36.452530138569756</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
         <v>29.942136038897289</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
         <v>34.352788566920132</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
         <v>27.546170681972249</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
         <v>27.667525939418478</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
         <v>27.539521415630041</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
         <v>25.689691217779433</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
         <v>22.01027030343964</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
         <v>30.233976316985483</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
         <v>22.903992034429983</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
         <v>17.837623223895879</v>
       </c>
     </row>
@@ -19730,99 +19730,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
         <v>-27.500808320555883</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
         <v>-34.702826837851163</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
         <v>-35.158366872104061</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
         <v>-34.199270537918039</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
         <v>-37.034924214582716</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
         <v>-38.661774389392164</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
         <v>-36.188407011785444</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
         <v>-5.0566666685314194</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
         <v>18.406887329469935</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
         <v>22.655518698650827</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
         <v>19.724237681888102</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
         <v>26.273226157547938</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
         <v>21.95720541636355</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
         <v>23.317845572184549</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
         <v>11.670217999248417</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
         <v>3.1632858491008387</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
         <v>7.1047145177750988</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
         <v>7.972265267838397</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
         <v>4.9515356629918026</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
         <v>-1.0068237197411893</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
         <v>-3.3895865942194572</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
         <v>-2.7596229085406239</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
         <v>-11.790684012420822</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
         <v>-16.61106513755561</v>
       </c>
     </row>
@@ -19831,99 +19831,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
         <v>-38.857422025943023</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
         <v>-40.946530737015223</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
         <v>-44.141042623861971</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
         <v>-55.23110627056024</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
         <v>-57.440350521382648</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
         <v>-60.201905834910669</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
         <v>-23.564186815752048</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
         <v>4.5192504277306096</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
         <v>15.946078533178214</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
         <v>13.191755877447431</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
         <v>13.917720864116371</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
         <v>20.125279826935806</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
         <v>26.013193060939933</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
         <v>26.291769992526703</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
         <v>14.45388220456552</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
         <v>10.595314576713289</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
         <v>-1.6642858629616935</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
         <v>-1.9046827098339381</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
         <v>-2.0341271658420701</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
         <v>-1.9416668401219757</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
         <v>-11.780753219015283</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
         <v>-15.544006850836343</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
         <v>-42.617917741243105</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
         <v>-40.508119833260771</v>
       </c>
     </row>
@@ -28319,99 +28319,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>63.503179470441495</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>57.728791463883788</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>59.554994055613939</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>52.246232501559518</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>61.065905812428468</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>62.750950041869601</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>74.303672601487719</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>76.575797585713488</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>90.454592216354186</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>86.599414105418376</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>91.584145687951221</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>83.601806009317912</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>87.901662786771595</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>85.988367852636074</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>81.729543292966056</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>84.385524565677841</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>86.580367152087362</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>101.80330089627736</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>90.101064867707066</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>108.1812978313409</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>89.011414100915715</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>95.573979542258215</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>79.021364413253465</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>73.19197724761375</v>
       </c>
     </row>
@@ -28420,99 +28420,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>74.686389373900042</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>64.273262680785521</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>70.568949014508945</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>62.45405380235524</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>66.718569211661787</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>73.109278196529843</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>79.958302538890692</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>96.282523072641098</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>103.6143578486121</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>101.90436205925539</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>103.0593725350307</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>106.90047103922701</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>116.73898919285428</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>113.59370909021551</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>92.570329949074932</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>98.55306863090334</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>97.732545952826896</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>119.27669754683102</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>104.74134014189242</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>104.3740419107304</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>108.35895165592346</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>109.0668747015019</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>82.034965784781235</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>75.579289177358518</v>
       </c>
     </row>
@@ -28521,99 +28521,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>83.777441206435014</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>84.325661023182732</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>73.617712040696574</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>78.429069673754924</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>75.757933345287057</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>70.744333338344845</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>108.62905277898516</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>123.83773499025932</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>131.58501710565014</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>125.30544266237231</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>139.4433510586326</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>136.09290868967247</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>130.15433381661597</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>122.96317067751404</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>114.72436215112995</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>112.84115392742335</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>110.75619407546755</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>113.88704948290697</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>124.45806245392228</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>124.64426280588485</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>117.27156855787663</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>102.34865267536519</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>86.083727499313341</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>84.450424837702116</v>
       </c>
     </row>
@@ -29466,99 +29466,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>64.812668569237488</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>58.880964740901383</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>53.589045631114928</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>55.461741577638179</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>56.578326284693858</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>63.356607097709961</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>83.804478204178565</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>87.197086395524039</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>94.778310770959251</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>93.752706729760334</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>87.974774657289601</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>82.708875007016587</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>89.677391439134269</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>88.597032215139677</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>90.148296534045528</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>81.905629227862732</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>94.28564514661322</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>95.987656787440955</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>91.089355223679021</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>100.22801852838022</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>95.763590587731002</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>96.494482872513672</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>83.21818608703127</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>71.708137442873152</v>
       </c>
     </row>
@@ -29567,99 +29567,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>80.310773698199739</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>68.207863843128663</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>62.491278727582902</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>71.091532866945812</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>62.347735875209061</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>68.991144283902202</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>91.424156367448418</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>102.19740549742571</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>102.54107456408452</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>105.16436289223081</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>116.80481131545648</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>103.71209766789339</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>97.624469660272979</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>98.969628238435263</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>109.31613261422899</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>107.1644958714286</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>98.729030765480189</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>117.06745329600861</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>116.84813690633908</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>110.84102874950023</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>113.65542782303095</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>105.09549648721421</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>97.66894243390351</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>81.095283467816884</v>
       </c>
     </row>
@@ -29668,99 +29668,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>91.597809843361389</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>77.785280740984462</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>70.987163428117057</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>78.429069673754924</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>69.414196635415607</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>80.296916372061972</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>105.34835664655274</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>126.27366562029853</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>138.26160200045595</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>129.31350789998848</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>133.13326989711302</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>149.90068525731255</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>124.94557054349796</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>132.71535130857919</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>126.5445599941274</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>102.90074340376876</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>104.12502467130719</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>130.2675813600537</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>110.41760655922508</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>130.58255353631122</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>124.20510269032282</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>114.87939037301419</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>101.98093117166461</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>82.741159150625734</v>
       </c>
     </row>
@@ -30613,99 +30613,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>73.979092260809409</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>64.065744487480572</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>56.30084036952357</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>52.246232501559518</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>59.383063489527991</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>60.328321818508158</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>74.303672601487719</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>80.660908666409853</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>93.048823349117214</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>92.858545151717578</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>97.900544991609053</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>98.781633048440199</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>92.340984417678271</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>92.075251365144467</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>85.097044589397839</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>90.998578799851444</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>84.01194115391209</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>103.74184893255618</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>99.983968427426547</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>94.263059051159715</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>96.728187228704613</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>90.971462890980916</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>89.93310076507575</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>77.643496661835542</v>
       </c>
     </row>
@@ -30714,99 +30714,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>79.607725657662272</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>74.109765586643405</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>63.112637980423365</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>61.220128221699447</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>71.713807310464901</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>73.795633848634452</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>93.881125044996509</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>89.381826910392405</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>117.56704054747054</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>118.20436622413261</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>104.11671397967883</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>114.34000890567212</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>108.24364717837369</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>103.14793705322961</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>107.34603818303441</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>93.768942386167083</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>92.750121889560432</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>110.43972054354138</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>113.54628324330817</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>110.84102874950023</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>98.825294555129986</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>95.167050951494943</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>99.406050950472633</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>91.339272864382423</v>
       </c>
     </row>
@@ -30815,99 +30815,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>89.251699252283487</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>85.052369943426982</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>69.67188912182732</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>82.673028719444574</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>73.643354441996564</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>80.296916372061972</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>122.84540268619233</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>128.70959625033774</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>124.90843221084437</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>134.65759488347672</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>129.34722120020129</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>125.04668743556046</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>128.85214299833649</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>122.96317067751404</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>124.1805204255279</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>121.67707439289413</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>122.91333798309491</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>129.09754336882895</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>123.28802446269752</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>108.01704876069101</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>108.02685638128173</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>108.6140215241897</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>98.448219244475425</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>98.124550334313156</v>
       </c>
     </row>
@@ -31760,99 +31760,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
         <v>12.579918054827973</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
         <v>9.8998396445266703</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
         <v>8.3908607599760909</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
         <v>9.03211637418012</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
         <v>9.5189637513733949</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
         <v>11.007990090399741</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
         <v>16.359871612543685</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
         <v>22.167028158132585</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
         <v>27.385871432034445</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
         <v>26.526888520557872</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
         <v>29.566624078540379</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
         <v>26.824168054853693</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
         <v>29.160135397664902</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
         <v>26.663519804014207</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
         <v>22.565722753173503</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
         <v>22.38185688938977</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
         <v>24.313836218083082</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
         <v>33.470050399959504</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
         <v>36.068706556577837</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
         <v>34.96805927870404</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
         <v>27.021679840031243</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
         <v>27.200240051118914</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
         <v>19.815860262879067</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
         <v>16.35930047930934</v>
       </c>
     </row>
@@ -31861,99 +31861,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
         <v>-29.247644740909685</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
         <v>-36.329341080297596</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
         <v>-33.863986025187224</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
         <v>-35.485101826229638</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
         <v>-36.728685669922555</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
         <v>-35.448744598938681</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
         <v>-25.116704322200246</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
         <v>-11.287992579469643</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
         <v>-3.355316642354409</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
         <v>-0.5200234226287157</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
         <v>-4.0140148819006587</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
         <v>-2.9510257927540637</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
         <v>-4.4842038637437867</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
         <v>-4.6578864346495452</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
         <v>-11.54882099245963</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
         <v>-16.958240497629134</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
         <v>-13.486124699297786</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
         <v>-5.4450307551088981</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
         <v>-6.5524692819113692</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
         <v>-9.0513923533538438</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
         <v>-13.365045366213137</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
         <v>-20.11710591434624</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
         <v>-24.513702188369844</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
         <v>-28.428386127318085</v>
       </c>
     </row>
@@ -31962,99 +31962,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
         <v>43.249805069284022</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
         <v>55.23110627056024</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
         <v>54.126484145149035</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
         <v>50.812617768915416</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
         <v>57.440350521382648</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
         <v>41.171088131713368</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
         <v>19.486106848414575</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
         <v>2.3518446437626306</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
         <v>-16.36032454881877</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
         <v>-14.21972133682379</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
         <v>-1.3957990796308655</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
         <v>-16.90174486381861</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
         <v>-17.06119528706218</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
         <v>-12.836267171383303</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
         <v>-1.4583748094825839</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
         <v>9.3649893706923493</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
         <v>12.230996094458199</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
         <v>14.033458676799407</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
         <v>12.874732731008629</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
         <v>14.033458676799407</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
         <v>11.844754112527941</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
         <v>28.458841804322443</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
         <v>43.501907225558149</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
         <v>41.449930469635603</v>
       </c>
     </row>

--- a/data/IEEE_9/ieee9/ieee9_2030.xlsx
+++ b/data/IEEE_9/ieee9/ieee9_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150B6F42-5A1B-46DB-963E-1292092F0DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF9F75-B207-4CFC-A066-81B03458C675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5730" yWindow="4845" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8912,99 +8912,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>15.309174549423485</v>
+        <v>45.927523648270451</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>14.147906638307401</v>
+        <v>42.443719914922198</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>14.978958776446882</v>
+        <v>44.936876329340649</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>14.91373194895332</v>
+        <v>44.741195846859959</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>12.278640994066942</v>
+        <v>36.835922982200827</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>12.454154259487296</v>
+        <v>37.362462778461889</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>12.480930258591737</v>
+        <v>37.442790775775215</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>11.208153475875964</v>
+        <v>33.624460427627895</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>10.122226855479685</v>
+        <v>30.366680566439051</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>7.316923765812156</v>
+        <v>21.950771297436468</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>6.7487506996529714</v>
+        <v>20.246252098958916</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>4.5277062576961828</v>
+        <v>13.583118773088549</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.7630945650957126</v>
+        <v>11.289283695287137</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.603064480017911</v>
+        <v>10.809193440053733</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.9986194447554011</v>
+        <v>14.995858334266204</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>6.7619712022836653</v>
+        <v>20.285913606850997</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>7.5602527146535321</v>
+        <v>22.680758143960595</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>10.383295785290498</v>
+        <v>31.149887355871492</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>9.4444285234523662</v>
+        <v>28.333285570357098</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>8.978422702339639</v>
+        <v>26.935268107018917</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>11.846801606403226</v>
+        <v>35.540404819209677</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>14.169199317138698</v>
+        <v>42.507597951416095</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>13.396121683644912</v>
+        <v>40.188365050934735</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>19.041567222657562</v>
+        <v>57.124701667972687</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9013,99 +9013,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>15.309174549423485</v>
+        <v>45.927523648270451</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>14.147906638307401</v>
+        <v>42.443719914922198</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>14.978958776446882</v>
+        <v>44.936876329340649</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>14.91373194895332</v>
+        <v>44.741195846859959</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>12.278640994066942</v>
+        <v>36.835922982200827</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>12.454154259487296</v>
+        <v>37.362462778461889</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>12.480930258591737</v>
+        <v>37.442790775775215</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>11.208153475875964</v>
+        <v>33.624460427627895</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>10.122226855479685</v>
+        <v>30.366680566439051</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>7.316923765812156</v>
+        <v>21.950771297436468</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>6.7487506996529714</v>
+        <v>20.246252098958916</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>4.5277062576961828</v>
+        <v>13.583118773088549</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.7630945650957126</v>
+        <v>11.289283695287137</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.603064480017911</v>
+        <v>10.809193440053733</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.9986194447554011</v>
+        <v>14.995858334266204</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>6.7619712022836653</v>
+        <v>20.285913606850997</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>7.5602527146535321</v>
+        <v>22.680758143960595</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>10.383295785290498</v>
+        <v>31.149887355871492</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>9.4444285234523662</v>
+        <v>28.333285570357098</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>8.978422702339639</v>
+        <v>26.935268107018917</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>11.846801606403226</v>
+        <v>35.540404819209677</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>14.169199317138698</v>
+        <v>42.507597951416095</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>13.396121683644912</v>
+        <v>40.188365050934735</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>19.041567222657562</v>
+        <v>57.124701667972687</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9114,99 +9114,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>15.309174549423485</v>
+        <v>45.927523648270451</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>14.147906638307401</v>
+        <v>42.443719914922198</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>14.978958776446882</v>
+        <v>44.936876329340649</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>14.91373194895332</v>
+        <v>44.741195846859959</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>12.278640994066942</v>
+        <v>36.835922982200827</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>12.454154259487296</v>
+        <v>37.362462778461889</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>12.480930258591737</v>
+        <v>37.442790775775215</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>11.208153475875964</v>
+        <v>33.624460427627895</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>10.122226855479685</v>
+        <v>30.366680566439051</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>7.316923765812156</v>
+        <v>21.950771297436468</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>6.7487506996529714</v>
+        <v>20.246252098958916</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>4.5277062576961828</v>
+        <v>13.583118773088549</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.7630945650957126</v>
+        <v>11.289283695287137</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.603064480017911</v>
+        <v>10.809193440053733</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.9986194447554011</v>
+        <v>14.995858334266204</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>6.7619712022836653</v>
+        <v>20.285913606850997</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>7.5602527146535321</v>
+        <v>22.680758143960595</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>10.383295785290498</v>
+        <v>31.149887355871492</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>9.4444285234523662</v>
+        <v>28.333285570357098</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>8.978422702339639</v>
+        <v>26.935268107018917</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>11.846801606403226</v>
+        <v>35.540404819209677</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>14.169199317138698</v>
+        <v>42.507597951416095</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>13.396121683644912</v>
+        <v>40.188365050934735</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>19.041567222657562</v>
+        <v>57.124701667972687</v>
       </c>
     </row>
   </sheetData>
@@ -9741,99 +9741,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>20.777825135286914</v>
+        <v>62.333475405860739</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>18.270984978047785</v>
+        <v>54.812954934143349</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>15.037539245966911</v>
+        <v>45.112617737900734</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>13.018268582805797</v>
+        <v>39.054805748417394</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>12.136852601082296</v>
+        <v>36.410557803246888</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>9.7190075556463142</v>
+        <v>29.157022666938943</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>9.4624576271186438</v>
+        <v>28.38737288135593</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>8.5789095364508885</v>
+        <v>25.736728609352664</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>8.8422243210128642</v>
+        <v>26.526672963038592</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>9.3516630079640617</v>
+        <v>28.054989023892183</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>9.3603026725546243</v>
+        <v>28.080908017663873</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>10.97158604758015</v>
+        <v>32.914758142740453</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>10.976362186032263</v>
+        <v>32.929086558096792</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>11.128667934449663</v>
+        <v>33.386003803348991</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>12.531594279661018</v>
+        <v>37.594782838983058</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>10.344955074535431</v>
+        <v>31.034865223606293</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>10.716424469062689</v>
+        <v>32.149273407188069</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>11.347389345517664</v>
+        <v>34.042168036552994</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>9.8988913492954858</v>
+        <v>29.696674047886457</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>10.253058632836431</v>
+        <v>30.759175898509294</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>9.6081030477843576</v>
+        <v>28.824309143353073</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>8.7191382479068817</v>
+        <v>26.157414743720643</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>8.9365088319379211</v>
+        <v>26.809526495813763</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>9.7724188278537873</v>
+        <v>29.317256483561366</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9842,99 +9842,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>20.777825135286914</v>
+        <v>62.333475405860739</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>18.270984978047785</v>
+        <v>54.812954934143349</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>15.037539245966911</v>
+        <v>45.112617737900734</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>13.018268582805797</v>
+        <v>39.054805748417394</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>12.136852601082296</v>
+        <v>36.410557803246888</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>9.7190075556463142</v>
+        <v>29.157022666938943</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>9.4624576271186438</v>
+        <v>28.38737288135593</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>8.5789095364508885</v>
+        <v>25.736728609352664</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>8.8422243210128642</v>
+        <v>26.526672963038592</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>9.3516630079640617</v>
+        <v>28.054989023892183</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>9.3603026725546243</v>
+        <v>28.080908017663873</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>10.97158604758015</v>
+        <v>32.914758142740453</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>10.976362186032263</v>
+        <v>32.929086558096792</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>11.128667934449663</v>
+        <v>33.386003803348991</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>12.531594279661018</v>
+        <v>37.594782838983058</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>10.344955074535431</v>
+        <v>31.034865223606293</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>10.716424469062689</v>
+        <v>32.149273407188069</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>11.347389345517664</v>
+        <v>34.042168036552994</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>9.8988913492954858</v>
+        <v>29.696674047886457</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>10.253058632836431</v>
+        <v>30.759175898509294</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>9.6081030477843576</v>
+        <v>28.824309143353073</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>8.7191382479068817</v>
+        <v>26.157414743720643</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>8.9365088319379211</v>
+        <v>26.809526495813763</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>9.7724188278537873</v>
+        <v>29.317256483561366</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9943,99 +9943,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>20.777825135286914</v>
+        <v>62.333475405860739</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>18.270984978047785</v>
+        <v>54.812954934143349</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>15.037539245966911</v>
+        <v>45.112617737900734</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>13.018268582805797</v>
+        <v>39.054805748417394</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>12.136852601082296</v>
+        <v>36.410557803246888</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>9.7190075556463142</v>
+        <v>29.157022666938943</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>9.4624576271186438</v>
+        <v>28.38737288135593</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>8.5789095364508885</v>
+        <v>25.736728609352664</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>8.8422243210128642</v>
+        <v>26.526672963038592</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>9.3516630079640617</v>
+        <v>28.054989023892183</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>9.3603026725546243</v>
+        <v>28.080908017663873</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>10.97158604758015</v>
+        <v>32.914758142740453</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>10.976362186032263</v>
+        <v>32.929086558096792</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>11.128667934449663</v>
+        <v>33.386003803348991</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>12.531594279661018</v>
+        <v>37.594782838983058</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>10.344955074535431</v>
+        <v>31.034865223606293</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>10.716424469062689</v>
+        <v>32.149273407188069</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>11.347389345517664</v>
+        <v>34.042168036552994</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>9.8988913492954858</v>
+        <v>29.696674047886457</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>10.253058632836431</v>
+        <v>30.759175898509294</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>9.6081030477843576</v>
+        <v>28.824309143353073</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>8.7191382479068817</v>
+        <v>26.157414743720643</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>8.9365088319379211</v>
+        <v>26.809526495813763</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>9.7724188278537873</v>
+        <v>29.317256483561366</v>
       </c>
     </row>
   </sheetData>
@@ -10570,99 +10570,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>18.958460344250046</v>
+        <v>56.875381032750141</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>17.620294068386201</v>
+        <v>52.860882205158596</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>19.097324460820943</v>
+        <v>57.291973382462828</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>21.294199670179594</v>
+        <v>63.882599010538783</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>18.214325027699758</v>
+        <v>54.642975083099273</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>15.452366976732199</v>
+        <v>46.357100930196594</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>11.122170115179467</v>
+        <v>33.366510345538401</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>9.9007189054085387</v>
+        <v>29.702156716225616</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>10.101330619186269</v>
+        <v>30.30399185755881</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>9.8743857095003715</v>
+        <v>29.623157128501116</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>9.9889390347599782</v>
+        <v>29.966817104279933</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>10.506628617073359</v>
+        <v>31.519885851220074</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>9.6106993223221409</v>
+        <v>28.832097966966426</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>9.26134549975521</v>
+        <v>27.784036499265628</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>12.689878636398772</v>
+        <v>38.069635909196315</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>16.531676286428404</v>
+        <v>49.595028859285208</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>16.878352959365095</v>
+        <v>50.635058878095286</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>17.183220644695815</v>
+        <v>51.549661934087453</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>17.657055837563455</v>
+        <v>52.971167512690357</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>18.626975379422298</v>
+        <v>55.880926138266894</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>18.371550413563863</v>
+        <v>55.114651240691586</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>17.978957715993712</v>
+        <v>53.936873147981139</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>17.215136759514547</v>
+        <v>51.645410278543636</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>15.877829498312249</v>
+        <v>47.633488494936742</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -10671,99 +10671,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>18.958460344250046</v>
+        <v>56.875381032750141</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>17.620294068386201</v>
+        <v>52.860882205158596</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>19.097324460820943</v>
+        <v>57.291973382462828</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>21.294199670179594</v>
+        <v>63.882599010538783</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>18.214325027699758</v>
+        <v>54.642975083099273</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>15.452366976732199</v>
+        <v>46.357100930196594</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>11.122170115179467</v>
+        <v>33.366510345538401</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>9.9007189054085387</v>
+        <v>29.702156716225616</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>10.101330619186269</v>
+        <v>30.30399185755881</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>9.8743857095003715</v>
+        <v>29.623157128501116</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>9.9889390347599782</v>
+        <v>29.966817104279933</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>10.506628617073359</v>
+        <v>31.519885851220074</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>9.6106993223221409</v>
+        <v>28.832097966966426</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>9.26134549975521</v>
+        <v>27.784036499265628</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>12.689878636398772</v>
+        <v>38.069635909196315</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>16.531676286428404</v>
+        <v>49.595028859285208</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>16.878352959365095</v>
+        <v>50.635058878095286</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>17.183220644695815</v>
+        <v>51.549661934087453</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>17.657055837563455</v>
+        <v>52.971167512690357</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>18.626975379422298</v>
+        <v>55.880926138266894</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>18.371550413563863</v>
+        <v>55.114651240691586</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>17.978957715993712</v>
+        <v>53.936873147981139</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>17.215136759514547</v>
+        <v>51.645410278543636</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>15.877829498312249</v>
+        <v>47.633488494936742</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -10772,99 +10772,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>18.958460344250046</v>
+        <v>56.875381032750141</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>17.620294068386201</v>
+        <v>52.860882205158596</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>19.097324460820943</v>
+        <v>57.291973382462828</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>21.294199670179594</v>
+        <v>63.882599010538783</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>18.214325027699758</v>
+        <v>54.642975083099273</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>15.452366976732199</v>
+        <v>46.357100930196594</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>11.122170115179467</v>
+        <v>33.366510345538401</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>9.9007189054085387</v>
+        <v>29.702156716225616</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>10.101330619186269</v>
+        <v>30.30399185755881</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>9.8743857095003715</v>
+        <v>29.623157128501116</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>9.9889390347599782</v>
+        <v>29.966817104279933</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>10.506628617073359</v>
+        <v>31.519885851220074</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>9.6106993223221409</v>
+        <v>28.832097966966426</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>9.26134549975521</v>
+        <v>27.784036499265628</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>12.689878636398772</v>
+        <v>38.069635909196315</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>16.531676286428404</v>
+        <v>49.595028859285208</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>16.878352959365095</v>
+        <v>50.635058878095286</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>17.183220644695815</v>
+        <v>51.549661934087453</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>17.657055837563455</v>
+        <v>52.971167512690357</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>18.626975379422298</v>
+        <v>55.880926138266894</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>18.371550413563863</v>
+        <v>55.114651240691586</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>17.978957715993712</v>
+        <v>53.936873147981139</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>17.215136759514547</v>
+        <v>51.645410278543636</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>15.877829498312249</v>
+        <v>47.633488494936742</v>
       </c>
     </row>
   </sheetData>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13054,7 +13054,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13065,7 +13065,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -22884,99 +22884,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>11.788064403056083</v>
+        <v>35.364193209168249</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>10.610929978730551</v>
+        <v>31.832789936191652</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>10.934639906806225</v>
+        <v>32.803919720418676</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>10.73788700324639</v>
+        <v>32.21366100973917</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>9.2089807455502051</v>
+        <v>27.626942236650617</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>8.7179079816411083</v>
+        <v>26.153723944923325</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>9.6103162991156381</v>
+        <v>28.830948897346914</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>8.7423597111832514</v>
+        <v>26.227079133549754</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>7.1867810673905765</v>
+        <v>21.56034320217173</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>5.1950158737266303</v>
+        <v>15.585047621179891</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>5.3315130527258479</v>
+        <v>15.994539158177542</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>3.3052255681182134</v>
+        <v>9.9156767043546399</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.7094280868689129</v>
+        <v>8.1282842606067387</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.8824515840143281</v>
+        <v>8.6473547520429843</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.8489369724616589</v>
+        <v>11.546810917384978</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.8686192656442389</v>
+        <v>14.605857796932717</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>5.745792063136685</v>
+        <v>17.237376189410053</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>7.8913047968207781</v>
+        <v>23.673914390462333</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>7.1777656778237988</v>
+        <v>21.533297033471396</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>6.3746801186611437</v>
+        <v>19.124040355983432</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>9.4774412851225804</v>
+        <v>28.432323855367741</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>10.201823508339864</v>
+        <v>30.605470525019591</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>9.9131300458972351</v>
+        <v>29.739390137691704</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>14.471591089219748</v>
+        <v>43.414773267659243</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -22985,99 +22985,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>11.788064403056083</v>
+        <v>35.364193209168249</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>10.610929978730551</v>
+        <v>31.832789936191652</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>10.934639906806225</v>
+        <v>32.803919720418676</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>10.73788700324639</v>
+        <v>32.21366100973917</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>9.2089807455502051</v>
+        <v>27.626942236650617</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>8.7179079816411083</v>
+        <v>26.153723944923325</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>9.6103162991156381</v>
+        <v>28.830948897346914</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>8.7423597111832514</v>
+        <v>26.227079133549754</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>7.1867810673905765</v>
+        <v>21.56034320217173</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>5.1950158737266303</v>
+        <v>15.585047621179891</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>5.3315130527258479</v>
+        <v>15.994539158177542</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>3.3052255681182134</v>
+        <v>9.9156767043546399</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.7094280868689129</v>
+        <v>8.1282842606067387</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.8824515840143281</v>
+        <v>8.6473547520429843</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.8489369724616589</v>
+        <v>11.546810917384978</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.8686192656442389</v>
+        <v>14.605857796932717</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>5.745792063136685</v>
+        <v>17.237376189410053</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>7.8913047968207781</v>
+        <v>23.673914390462333</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>7.1777656778237988</v>
+        <v>21.533297033471396</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>6.3746801186611437</v>
+        <v>19.124040355983432</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>9.4774412851225804</v>
+        <v>28.432323855367741</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>10.201823508339864</v>
+        <v>30.605470525019591</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>9.9131300458972351</v>
+        <v>29.739390137691704</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>14.471591089219748</v>
+        <v>43.414773267659243</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -23086,99 +23086,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>11.788064403056083</v>
+        <v>35.364193209168249</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>10.610929978730551</v>
+        <v>31.832789936191652</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>10.934639906806225</v>
+        <v>32.803919720418676</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>10.73788700324639</v>
+        <v>32.21366100973917</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>9.2089807455502051</v>
+        <v>27.626942236650617</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>8.7179079816411083</v>
+        <v>26.153723944923325</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>9.6103162991156381</v>
+        <v>28.830948897346914</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>8.7423597111832514</v>
+        <v>26.227079133549754</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>7.1867810673905765</v>
+        <v>21.56034320217173</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>5.1950158737266303</v>
+        <v>15.585047621179891</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>5.3315130527258479</v>
+        <v>15.994539158177542</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>3.3052255681182134</v>
+        <v>9.9156767043546399</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.7094280868689129</v>
+        <v>8.1282842606067387</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.8824515840143281</v>
+        <v>8.6473547520429843</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.8489369724616589</v>
+        <v>11.546810917384978</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.8686192656442389</v>
+        <v>14.605857796932717</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>5.745792063136685</v>
+        <v>17.237376189410053</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>7.8913047968207781</v>
+        <v>23.673914390462333</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>7.1777656778237988</v>
+        <v>21.533297033471396</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>6.3746801186611437</v>
+        <v>19.124040355983432</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>9.4774412851225804</v>
+        <v>28.432323855367741</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>10.201823508339864</v>
+        <v>30.605470525019591</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>9.9131300458972351</v>
+        <v>29.739390137691704</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>14.471591089219748</v>
+        <v>43.414773267659243</v>
       </c>
     </row>
   </sheetData>
@@ -23808,99 +23808,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>15.583368851465186</v>
+        <v>46.750106554395558</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>12.789689484633449</v>
+        <v>38.369068453900347</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>11.578905219394523</v>
+        <v>34.73671565818357</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>10.154249494588523</v>
+        <v>30.462748483765569</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>9.1026394508117221</v>
+        <v>27.307918352435163</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>7.7752060445170512</v>
+        <v>23.325618133551153</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>7.2860923728813551</v>
+        <v>21.858277118644065</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>6.7773385337962013</v>
+        <v>20.332015601388605</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>6.3664015111292613</v>
+        <v>19.099204533387784</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>7.1072638860526869</v>
+        <v>21.321791658158059</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>6.645814897513783</v>
+        <v>19.937444692541348</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>7.6801102333061051</v>
+        <v>23.040330699918314</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>8.4517988832448445</v>
+        <v>25.35539664973453</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>8.1239275921482541</v>
+        <v>24.371782776444761</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>9.2733797669491533</v>
+        <v>27.820139300847462</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>8.1725145088829905</v>
+        <v>24.517543526648971</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>7.7158256177251356</v>
+        <v>23.147476853175409</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>7.9431725418623635</v>
+        <v>23.829517625587091</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>7.6221463389575232</v>
+        <v>22.866439016872569</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>7.9973857336124166</v>
+        <v>23.992157200837248</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>7.4943203772717997</v>
+        <v>22.482961131815397</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>6.3649709209720235</v>
+        <v>19.094912762916071</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>7.1492070655503364</v>
+        <v>21.44762119665101</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>6.8406931794976513</v>
+        <v>20.522079538492953</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -23909,99 +23909,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>15.583368851465186</v>
+        <v>46.750106554395558</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>12.789689484633449</v>
+        <v>38.369068453900347</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>11.578905219394523</v>
+        <v>34.73671565818357</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>10.154249494588523</v>
+        <v>30.462748483765569</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>9.1026394508117221</v>
+        <v>27.307918352435163</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>7.7752060445170512</v>
+        <v>23.325618133551153</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>7.2860923728813551</v>
+        <v>21.858277118644065</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>6.7773385337962013</v>
+        <v>20.332015601388605</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>6.3664015111292613</v>
+        <v>19.099204533387784</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>7.1072638860526869</v>
+        <v>21.321791658158059</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>6.645814897513783</v>
+        <v>19.937444692541348</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>7.6801102333061051</v>
+        <v>23.040330699918314</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>8.4517988832448445</v>
+        <v>25.35539664973453</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>8.1239275921482541</v>
+        <v>24.371782776444761</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>9.2733797669491533</v>
+        <v>27.820139300847462</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>8.1725145088829905</v>
+        <v>24.517543526648971</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>7.7158256177251356</v>
+        <v>23.147476853175409</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>7.9431725418623635</v>
+        <v>23.829517625587091</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>7.6221463389575232</v>
+        <v>22.866439016872569</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>7.9973857336124166</v>
+        <v>23.992157200837248</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>7.4943203772717997</v>
+        <v>22.482961131815397</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>6.3649709209720235</v>
+        <v>19.094912762916071</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>7.1492070655503364</v>
+        <v>21.44762119665101</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>6.8406931794976513</v>
+        <v>20.522079538492953</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24010,99 +24010,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>15.583368851465186</v>
+        <v>46.750106554395558</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>12.789689484633449</v>
+        <v>38.369068453900347</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>11.578905219394523</v>
+        <v>34.73671565818357</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>10.154249494588523</v>
+        <v>30.462748483765569</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>9.1026394508117221</v>
+        <v>27.307918352435163</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>7.7752060445170512</v>
+        <v>23.325618133551153</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>7.2860923728813551</v>
+        <v>21.858277118644065</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>6.7773385337962013</v>
+        <v>20.332015601388605</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>6.3664015111292613</v>
+        <v>19.099204533387784</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>7.1072638860526869</v>
+        <v>21.321791658158059</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>6.645814897513783</v>
+        <v>19.937444692541348</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>7.6801102333061051</v>
+        <v>23.040330699918314</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>8.4517988832448445</v>
+        <v>25.35539664973453</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>8.1239275921482541</v>
+        <v>24.371782776444761</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>9.2733797669491533</v>
+        <v>27.820139300847462</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>8.1725145088829905</v>
+        <v>24.517543526648971</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>7.7158256177251356</v>
+        <v>23.147476853175409</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>7.9431725418623635</v>
+        <v>23.829517625587091</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>7.6221463389575232</v>
+        <v>22.866439016872569</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>7.9973857336124166</v>
+        <v>23.992157200837248</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>7.4943203772717997</v>
+        <v>22.482961131815397</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>6.3649709209720235</v>
+        <v>19.094912762916071</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>7.1492070655503364</v>
+        <v>21.44762119665101</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>6.8406931794976513</v>
+        <v>20.522079538492953</v>
       </c>
     </row>
   </sheetData>
@@ -24637,99 +24637,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>13.460506844417534</v>
+        <v>40.381520533252605</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>12.510408788554201</v>
+        <v>37.531226365662604</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>15.086886324048546</v>
+        <v>45.260658972145634</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>15.331823762529307</v>
+        <v>45.995471287587918</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>13.660743770774818</v>
+        <v>40.982231312324458</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>12.052846241851116</v>
+        <v>36.158538725553342</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>8.786514390991778</v>
+        <v>26.359543172975336</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>7.5245463681104905</v>
+        <v>22.57363910433147</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>7.7780245767734275</v>
+        <v>23.334073730320281</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>7.3070454250302754</v>
+        <v>21.921136275090827</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>7.9911512278079826</v>
+        <v>23.973453683423948</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>8.3002366074879532</v>
+        <v>24.900709822463863</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>6.8235965188487206</v>
+        <v>20.470789556546162</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>7.2238494898090639</v>
+        <v>21.671548469427194</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>9.2636114045711047</v>
+        <v>27.79083421371331</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>12.068123689092735</v>
+        <v>36.204371067278203</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>11.814847071555567</v>
+        <v>35.4445412146667</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>12.715583277074904</v>
+        <v>38.14674983122471</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>12.359939086294418</v>
+        <v>37.079817258883253</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>13.970231534566723</v>
+        <v>41.910694603700165</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>14.146093818444175</v>
+        <v>42.438281455332522</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>13.66400786415522</v>
+        <v>40.992023592465664</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>12.567049834445619</v>
+        <v>37.701149503336858</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>12.22592871370043</v>
+        <v>36.677786141101294</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -24738,99 +24738,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>13.460506844417534</v>
+        <v>40.381520533252605</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>12.510408788554201</v>
+        <v>37.531226365662604</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>15.086886324048546</v>
+        <v>45.260658972145634</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>15.331823762529307</v>
+        <v>45.995471287587918</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>13.660743770774818</v>
+        <v>40.982231312324458</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>12.052846241851116</v>
+        <v>36.158538725553342</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>8.786514390991778</v>
+        <v>26.359543172975336</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>7.5245463681104905</v>
+        <v>22.57363910433147</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>7.7780245767734275</v>
+        <v>23.334073730320281</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>7.3070454250302754</v>
+        <v>21.921136275090827</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>7.9911512278079826</v>
+        <v>23.973453683423948</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>8.3002366074879532</v>
+        <v>24.900709822463863</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>6.8235965188487206</v>
+        <v>20.470789556546162</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>7.2238494898090639</v>
+        <v>21.671548469427194</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>9.2636114045711047</v>
+        <v>27.79083421371331</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>12.068123689092735</v>
+        <v>36.204371067278203</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>11.814847071555567</v>
+        <v>35.4445412146667</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>12.715583277074904</v>
+        <v>38.14674983122471</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>12.359939086294418</v>
+        <v>37.079817258883253</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>13.970231534566723</v>
+        <v>41.910694603700165</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>14.146093818444175</v>
+        <v>42.438281455332522</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>13.66400786415522</v>
+        <v>40.992023592465664</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>12.567049834445619</v>
+        <v>37.701149503336858</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>12.22592871370043</v>
+        <v>36.677786141101294</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24839,99 +24839,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>13.460506844417534</v>
+        <v>40.381520533252605</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>12.510408788554201</v>
+        <v>37.531226365662604</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>15.086886324048546</v>
+        <v>45.260658972145634</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>15.331823762529307</v>
+        <v>45.995471287587918</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>13.660743770774818</v>
+        <v>40.982231312324458</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>12.052846241851116</v>
+        <v>36.158538725553342</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>8.786514390991778</v>
+        <v>26.359543172975336</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>7.5245463681104905</v>
+        <v>22.57363910433147</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>7.7780245767734275</v>
+        <v>23.334073730320281</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>7.3070454250302754</v>
+        <v>21.921136275090827</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>7.9911512278079826</v>
+        <v>23.973453683423948</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>8.3002366074879532</v>
+        <v>24.900709822463863</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>6.8235965188487206</v>
+        <v>20.470789556546162</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>7.2238494898090639</v>
+        <v>21.671548469427194</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>9.2636114045711047</v>
+        <v>27.79083421371331</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>12.068123689092735</v>
+        <v>36.204371067278203</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>11.814847071555567</v>
+        <v>35.4445412146667</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>12.715583277074904</v>
+        <v>38.14674983122471</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>12.359939086294418</v>
+        <v>37.079817258883253</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>13.970231534566723</v>
+        <v>41.910694603700165</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>14.146093818444175</v>
+        <v>42.438281455332522</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>13.66400786415522</v>
+        <v>40.992023592465664</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>12.567049834445619</v>
+        <v>37.701149503336858</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>12.22592871370043</v>
+        <v>36.677786141101294</v>
       </c>
     </row>
   </sheetData>
